--- a/字符表/Excel版/一级字符表.xlsx
+++ b/字符表/Excel版/一级字符表.xlsx
@@ -3,16 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E82C9D-28E4-40B3-8EEB-74C1FF13BDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA963BBB-9BFE-4FB6-A08E-C107FAC1870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单字节" sheetId="1" r:id="rId1"/>
-    <sheet name="FB" sheetId="6" r:id="rId2"/>
-    <sheet name="FD" sheetId="5" r:id="rId3"/>
-    <sheet name="FE" sheetId="4" r:id="rId4"/>
+    <sheet name="FA" sheetId="7" r:id="rId2"/>
+    <sheet name="FB" sheetId="6" r:id="rId3"/>
+    <sheet name="FD" sheetId="5" r:id="rId4"/>
+    <sheet name="FE" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="1">FA!$C$2</definedName>
+    <definedName name="OLE_LINK2" localSheetId="1">FA!#REF!</definedName>
+    <definedName name="OLE_LINK3" localSheetId="1">FA!$M$8</definedName>
+    <definedName name="OLE_LINK4" localSheetId="1">FA!$L$10</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="990">
   <si>
     <t></t>
   </si>
@@ -4390,12 +4397,559 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>ch▸yd</t>
+  </si>
+  <si>
+    <t>yd▸ch</t>
+  </si>
+  <si>
+    <t>ch▸mile</t>
+  </si>
+  <si>
+    <t>mile▸ch</t>
+  </si>
+  <si>
+    <t>mil▸in</t>
+  </si>
+  <si>
+    <t>in▸mil</t>
+  </si>
+  <si>
+    <t>fath▸in</t>
+  </si>
+  <si>
+    <t>in▸fath</t>
+  </si>
+  <si>
+    <t>fath▸ft</t>
+  </si>
+  <si>
+    <t>ft▸fath</t>
+  </si>
+  <si>
+    <t>fath▸yd</t>
+  </si>
+  <si>
+    <t>yd▸fath</t>
+  </si>
+  <si>
+    <t>ha▸a</t>
+  </si>
+  <si>
+    <t>a▸ha</t>
+  </si>
+  <si>
+    <t>mile²▸acre</t>
+  </si>
+  <si>
+    <t>acre▸mile²</t>
+  </si>
+  <si>
+    <t>bu▸gal(UK)</t>
+  </si>
+  <si>
+    <t>gal(UK) ▸bu</t>
+  </si>
+  <si>
+    <t>lb▸oz</t>
+  </si>
+  <si>
+    <t>oz▸lb</t>
+  </si>
+  <si>
+    <t>ton(long)▸oz</t>
+  </si>
+  <si>
+    <t>oz▸ton(long)</t>
+  </si>
+  <si>
+    <t>ton(long)▸lb</t>
+  </si>
+  <si>
+    <t>lb▸ton(long)</t>
+  </si>
+  <si>
+    <t>ton(short)▸oz</t>
+  </si>
+  <si>
+    <t>oz▸ton(short)</t>
+  </si>
+  <si>
+    <t>ton(short)▸lb</t>
+  </si>
+  <si>
+    <t>lb▸ton(short)</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>▸</t>
+  </si>
+  <si>
+    <t>空格</t>
+  </si>
+  <si>
+    <t>𝒊</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>无宽度</t>
+  </si>
+  <si>
+    <t>∏</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>²+bx</t>
+  </si>
+  <si>
+    <t>:∏8▸d</t>
+  </si>
+  <si>
+    <t>𝒆^:$</t>
+  </si>
+  <si>
+    <t>𝜋𝒆^:</t>
+  </si>
+  <si>
+    <t>𝒆^:$?</t>
+  </si>
+  <si>
+    <t>?,</t>
+  </si>
+  <si>
+    <t>^:$?</t>
+  </si>
+  <si>
+    <t>,.0</t>
+  </si>
+  <si>
+    <t>,.01</t>
+  </si>
+  <si>
+    <t>,.01</t>
+  </si>
+  <si>
+    <t>𝜋𝒆^:$?</t>
+  </si>
+  <si>
+    <t>𝜋𝒆^:$?,</t>
+  </si>
+  <si>
+    <t>𝜋𝒆^:$?</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>𝜋𝒆^:$?,.01</t>
+  </si>
+  <si>
+    <t>56789→M</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>→M</t>
+  </si>
+  <si>
+    <t>→MP</t>
+  </si>
+  <si>
+    <t>→MPr</t>
+  </si>
+  <si>
+    <t>MPre</t>
+  </si>
+  <si>
+    <t>→MPreA</t>
+  </si>
+  <si>
+    <t>PreAns</t>
+  </si>
+  <si>
+    <t>ns→A→B→C→D→E→F</t>
+  </si>
+  <si>
+    <t>→B→C→D</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>→D→E→F</t>
+  </si>
+  <si>
+    <t>→F→𝒙</t>
+  </si>
+  <si>
+    <t>→F→𝒙→𝒚</t>
+  </si>
+  <si>
+    <t>𝒚∑</t>
+  </si>
+  <si>
+    <t>→𝒚∑x²∫</t>
+  </si>
+  <si>
+    <t>∫d/</t>
+  </si>
+  <si>
+    <t>eAns→A</t>
+  </si>
+  <si>
+    <t>𝒆^:$?</t>
+  </si>
+  <si>
+    <t>²∫d/d𝒙</t>
+  </si>
+  <si>
+    <t>∏MinMax</t>
+  </si>
+  <si>
+    <t>D𝒙∏Min</t>
+  </si>
+  <si>
+    <t>axMeanSu</t>
+  </si>
+  <si>
+    <t>𝒆^:$?,.</t>
+  </si>
+  <si>
+    <t>𝒆^:$?,.0</t>
+  </si>
+  <si>
+    <t>nMaxMe</t>
+  </si>
+  <si>
+    <t>anSum(PolQR</t>
+  </si>
+  <si>
+    <t>anSum(</t>
+  </si>
+  <si>
+    <t>olQRecNotNeg</t>
+  </si>
+  <si>
+    <t>𝒆^:$?,.0123</t>
+  </si>
+  <si>
+    <t>𝒆^:$?,.01234</t>
+  </si>
+  <si>
+    <t>olQRec</t>
+  </si>
+  <si>
+    <t>ecNotNegConjgAr</t>
+  </si>
+  <si>
+    <t>ecNotN</t>
+  </si>
+  <si>
+    <t>tNegCo</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>njgArg</t>
+  </si>
+  <si>
+    <t>Rn</t>
+  </si>
+  <si>
+    <t>sRndDe</t>
+  </si>
+  <si>
+    <t>Trns</t>
+  </si>
+  <si>
+    <t>tTrnsi</t>
+  </si>
+  <si>
+    <t>hcoshtan</t>
+  </si>
+  <si>
+    <t>nhcos</t>
+  </si>
+  <si>
+    <t>anh^ln³√s</t>
+  </si>
+  <si>
+    <t>nh^√</t>
+  </si>
+  <si>
+    <t>oshhtanh^√ln</t>
+  </si>
+  <si>
+    <t>shtan</t>
+  </si>
+  <si>
+    <t>:$?,</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>n³√sin</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>sinco</t>
+  </si>
+  <si>
+    <t>tanl</t>
+  </si>
+  <si>
+    <t>stan</t>
+  </si>
+  <si>
+    <t>IntgRefR</t>
+  </si>
+  <si>
+    <t>ncos</t>
+  </si>
+  <si>
+    <t>nlo</t>
+  </si>
+  <si>
+    <t>nlogI</t>
+  </si>
+  <si>
+    <t>ntgR</t>
+  </si>
+  <si>
+    <t>lQRecN</t>
+  </si>
+  <si>
+    <t>otNe</t>
+  </si>
+  <si>
+    <t>RefR</t>
+  </si>
+  <si>
+    <t>tgRefR</t>
+  </si>
+  <si>
+    <t>refR</t>
+  </si>
+  <si>
+    <t>efRanI</t>
+  </si>
+  <si>
+    <t>GCDLCMRndF</t>
+  </si>
+  <si>
+    <t>DLCMRn</t>
+  </si>
+  <si>
+    <t>ixRePImPIdent</t>
+  </si>
+  <si>
+    <t>dFixRe</t>
+  </si>
+  <si>
+    <t>:$?,.0123456</t>
+  </si>
+  <si>
+    <t>$?</t>
+  </si>
+  <si>
+    <t>mPId</t>
+  </si>
+  <si>
+    <t>PIdent</t>
+  </si>
+  <si>
+    <t>tity</t>
+  </si>
+  <si>
+    <t>itVAng</t>
+  </si>
+  <si>
+    <t>exor</t>
+  </si>
+  <si>
+    <t></t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4504,8 +5058,71 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color theme="1"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="3"/>
+      <color theme="1"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4530,8 +5147,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -5003,13 +5626,24 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5145,6 +5779,30 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5201,6 +5859,461 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119269</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214519</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图形 1117379563">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEDFF1C-D623-7464-38CF-027B386A255A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728869" y="1424609"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5C2046-6E3D-4CBC-9DAD-3FCA0049D2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774590" y="3609560"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>93095</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198902</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E5D7C6-D8BE-470F-83D0-34C94536DF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3750695" y="3640920"/>
+          <a:ext cx="105807" cy="137549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4575B0-B553-468C-B077-F376E7F94AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774590" y="3609560"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>164990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F89FC82-B4E2-49C5-883A-81A717AB066A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774590" y="3609560"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826D6471-A171-41CE-8643-891F3F6B7767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774590" y="3609560"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>164990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD1204B-203B-44B1-826F-121AFC2DEF77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774590" y="3609560"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>260240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EC8859-C12E-4ECD-BFBC-A1ABA9CA4A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774590" y="3609560"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>164990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>260240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A858E0-5582-4F76-AF0E-CDFB3FA76501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774590" y="3609560"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5492,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:P10"/>
+    <sheetView zoomScale="87" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -6383,6 +7496,2847 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E095E-DB13-4153-9AD3-79C6D9D475CA}">
+  <dimension ref="A1:XER17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" s="35" customFormat="1" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="34" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1" s="35">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35">
+        <v>2</v>
+      </c>
+      <c r="E1" s="35">
+        <v>3</v>
+      </c>
+      <c r="F1" s="35">
+        <v>4</v>
+      </c>
+      <c r="G1" s="35">
+        <v>5</v>
+      </c>
+      <c r="H1" s="35">
+        <v>6</v>
+      </c>
+      <c r="I1" s="35">
+        <v>7</v>
+      </c>
+      <c r="J1" s="35">
+        <v>8</v>
+      </c>
+      <c r="K1" s="35">
+        <v>9</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="34"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="34"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="34"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="34"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="34"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="34"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="34"/>
+      <c r="EW1" s="36"/>
+      <c r="EX1" s="34"/>
+      <c r="FN1" s="36"/>
+      <c r="FO1" s="34"/>
+      <c r="GE1" s="36"/>
+      <c r="GF1" s="34"/>
+      <c r="GV1" s="36"/>
+      <c r="GW1" s="34"/>
+      <c r="HM1" s="36"/>
+      <c r="HN1" s="34"/>
+      <c r="ID1" s="36"/>
+      <c r="IE1" s="34"/>
+      <c r="IU1" s="36"/>
+      <c r="IV1" s="34"/>
+      <c r="JL1" s="36"/>
+      <c r="JM1" s="34"/>
+      <c r="KC1" s="36"/>
+      <c r="KD1" s="34"/>
+      <c r="KT1" s="36"/>
+      <c r="KU1" s="34"/>
+      <c r="LK1" s="36"/>
+      <c r="LL1" s="34"/>
+      <c r="MB1" s="36"/>
+      <c r="MC1" s="34"/>
+      <c r="MS1" s="36"/>
+      <c r="MT1" s="34"/>
+      <c r="NJ1" s="36"/>
+      <c r="NK1" s="34"/>
+      <c r="OA1" s="36"/>
+      <c r="OB1" s="34"/>
+      <c r="OR1" s="36"/>
+      <c r="OS1" s="34"/>
+      <c r="PI1" s="36"/>
+      <c r="PJ1" s="34"/>
+      <c r="PZ1" s="36"/>
+      <c r="QA1" s="34"/>
+      <c r="QQ1" s="36"/>
+      <c r="QR1" s="34"/>
+      <c r="RH1" s="36"/>
+      <c r="RI1" s="34"/>
+      <c r="RY1" s="36"/>
+      <c r="RZ1" s="34"/>
+      <c r="SP1" s="36"/>
+      <c r="SQ1" s="34"/>
+      <c r="TG1" s="36"/>
+      <c r="TH1" s="34"/>
+      <c r="TX1" s="36"/>
+      <c r="TY1" s="34"/>
+      <c r="UO1" s="36"/>
+      <c r="UP1" s="34"/>
+      <c r="VF1" s="36"/>
+      <c r="VG1" s="34"/>
+      <c r="VW1" s="36"/>
+      <c r="VX1" s="34"/>
+      <c r="WN1" s="36"/>
+      <c r="WO1" s="34"/>
+      <c r="XE1" s="36"/>
+      <c r="XF1" s="34"/>
+      <c r="XV1" s="36"/>
+      <c r="XW1" s="34"/>
+      <c r="YM1" s="36"/>
+      <c r="YN1" s="34"/>
+      <c r="ZD1" s="36"/>
+      <c r="ZE1" s="34"/>
+      <c r="ZU1" s="36"/>
+      <c r="ZV1" s="34"/>
+      <c r="AAL1" s="36"/>
+      <c r="AAM1" s="34"/>
+      <c r="ABC1" s="36"/>
+      <c r="ABD1" s="34"/>
+      <c r="ABT1" s="36"/>
+      <c r="ABU1" s="34"/>
+      <c r="ACK1" s="36"/>
+      <c r="ACL1" s="34"/>
+      <c r="ADB1" s="36"/>
+      <c r="ADC1" s="34"/>
+      <c r="ADS1" s="36"/>
+      <c r="ADT1" s="34"/>
+      <c r="AEJ1" s="36"/>
+      <c r="AEK1" s="34"/>
+      <c r="AFA1" s="36"/>
+      <c r="AFB1" s="34"/>
+      <c r="AFR1" s="36"/>
+      <c r="AFS1" s="34"/>
+      <c r="AGI1" s="36"/>
+      <c r="AGJ1" s="34"/>
+      <c r="AGZ1" s="36"/>
+      <c r="AHA1" s="34"/>
+      <c r="AHQ1" s="36"/>
+      <c r="AHR1" s="34"/>
+      <c r="AIH1" s="36"/>
+      <c r="AII1" s="34"/>
+      <c r="AIY1" s="36"/>
+      <c r="AIZ1" s="34"/>
+      <c r="AJP1" s="36"/>
+      <c r="AJQ1" s="34"/>
+      <c r="AKG1" s="36"/>
+      <c r="AKH1" s="34"/>
+      <c r="AKX1" s="36"/>
+      <c r="AKY1" s="34"/>
+      <c r="ALO1" s="36"/>
+      <c r="ALP1" s="34"/>
+      <c r="AMF1" s="36"/>
+      <c r="AMG1" s="34"/>
+      <c r="AMW1" s="36"/>
+      <c r="AMX1" s="34"/>
+      <c r="ANN1" s="36"/>
+      <c r="ANO1" s="34"/>
+      <c r="AOE1" s="36"/>
+      <c r="AOF1" s="34"/>
+      <c r="AOV1" s="36"/>
+      <c r="AOW1" s="34"/>
+      <c r="APM1" s="36"/>
+      <c r="APN1" s="34"/>
+      <c r="AQD1" s="36"/>
+      <c r="AQE1" s="34"/>
+      <c r="AQU1" s="36"/>
+      <c r="AQV1" s="34"/>
+      <c r="ARL1" s="36"/>
+      <c r="ARM1" s="34"/>
+      <c r="ASC1" s="36"/>
+      <c r="ASD1" s="34"/>
+      <c r="AST1" s="36"/>
+      <c r="ASU1" s="34"/>
+      <c r="ATK1" s="36"/>
+      <c r="ATL1" s="34"/>
+      <c r="AUB1" s="36"/>
+      <c r="AUC1" s="34"/>
+      <c r="AUS1" s="36"/>
+      <c r="AUT1" s="34"/>
+      <c r="AVJ1" s="36"/>
+      <c r="AVK1" s="34"/>
+      <c r="AWA1" s="36"/>
+      <c r="AWB1" s="34"/>
+      <c r="AWR1" s="36"/>
+      <c r="AWS1" s="34"/>
+      <c r="AXI1" s="36"/>
+      <c r="AXJ1" s="34"/>
+      <c r="AXZ1" s="36"/>
+      <c r="AYA1" s="34"/>
+      <c r="AYQ1" s="36"/>
+      <c r="AYR1" s="34"/>
+      <c r="AZH1" s="36"/>
+      <c r="AZI1" s="34"/>
+      <c r="AZY1" s="36"/>
+      <c r="AZZ1" s="34"/>
+      <c r="BAP1" s="36"/>
+      <c r="BAQ1" s="34"/>
+      <c r="BBG1" s="36"/>
+      <c r="BBH1" s="34"/>
+      <c r="BBX1" s="36"/>
+      <c r="BBY1" s="34"/>
+      <c r="BCO1" s="36"/>
+      <c r="BCP1" s="34"/>
+      <c r="BDF1" s="36"/>
+      <c r="BDG1" s="34"/>
+      <c r="BDW1" s="36"/>
+      <c r="BDX1" s="34"/>
+      <c r="BEN1" s="36"/>
+      <c r="BEO1" s="34"/>
+      <c r="BFE1" s="36"/>
+      <c r="BFF1" s="34"/>
+      <c r="BFV1" s="36"/>
+      <c r="BFW1" s="34"/>
+      <c r="BGM1" s="36"/>
+      <c r="BGN1" s="34"/>
+      <c r="BHD1" s="36"/>
+      <c r="BHE1" s="34"/>
+      <c r="BHU1" s="36"/>
+      <c r="BHV1" s="34"/>
+      <c r="BIL1" s="36"/>
+      <c r="BIM1" s="34"/>
+      <c r="BJC1" s="36"/>
+      <c r="BJD1" s="34"/>
+      <c r="BJT1" s="36"/>
+      <c r="BJU1" s="34"/>
+      <c r="BKK1" s="36"/>
+      <c r="BKL1" s="34"/>
+      <c r="BLB1" s="36"/>
+      <c r="BLC1" s="34"/>
+      <c r="BLS1" s="36"/>
+      <c r="BLT1" s="34"/>
+      <c r="BMJ1" s="36"/>
+      <c r="BMK1" s="34"/>
+      <c r="BNA1" s="36"/>
+      <c r="BNB1" s="34"/>
+      <c r="BNR1" s="36"/>
+      <c r="BNS1" s="34"/>
+      <c r="BOI1" s="36"/>
+      <c r="BOJ1" s="34"/>
+      <c r="BOZ1" s="36"/>
+      <c r="BPA1" s="34"/>
+      <c r="BPQ1" s="36"/>
+      <c r="BPR1" s="34"/>
+      <c r="BQH1" s="36"/>
+      <c r="BQI1" s="34"/>
+      <c r="BQY1" s="36"/>
+      <c r="BQZ1" s="34"/>
+      <c r="BRP1" s="36"/>
+      <c r="BRQ1" s="34"/>
+      <c r="BSG1" s="36"/>
+      <c r="BSH1" s="34"/>
+      <c r="BSX1" s="36"/>
+      <c r="BSY1" s="34"/>
+      <c r="BTO1" s="36"/>
+      <c r="BTP1" s="34"/>
+      <c r="BUF1" s="36"/>
+      <c r="BUG1" s="34"/>
+      <c r="BUW1" s="36"/>
+      <c r="BUX1" s="34"/>
+      <c r="BVN1" s="36"/>
+      <c r="BVO1" s="34"/>
+      <c r="BWE1" s="36"/>
+      <c r="BWF1" s="34"/>
+      <c r="BWV1" s="36"/>
+      <c r="BWW1" s="34"/>
+      <c r="BXM1" s="36"/>
+      <c r="BXN1" s="34"/>
+      <c r="BYD1" s="36"/>
+      <c r="BYE1" s="34"/>
+      <c r="BYU1" s="36"/>
+      <c r="BYV1" s="34"/>
+      <c r="BZL1" s="36"/>
+      <c r="BZM1" s="34"/>
+      <c r="CAC1" s="36"/>
+      <c r="CAD1" s="34"/>
+      <c r="CAT1" s="36"/>
+      <c r="CAU1" s="34"/>
+      <c r="CBK1" s="36"/>
+      <c r="CBL1" s="34"/>
+      <c r="CCB1" s="36"/>
+      <c r="CCC1" s="34"/>
+      <c r="CCS1" s="36"/>
+      <c r="CCT1" s="34"/>
+      <c r="CDJ1" s="36"/>
+      <c r="CDK1" s="34"/>
+      <c r="CEA1" s="36"/>
+      <c r="CEB1" s="34"/>
+      <c r="CER1" s="36"/>
+      <c r="CES1" s="34"/>
+      <c r="CFI1" s="36"/>
+      <c r="CFJ1" s="34"/>
+      <c r="CFZ1" s="36"/>
+      <c r="CGA1" s="34"/>
+      <c r="CGQ1" s="36"/>
+      <c r="CGR1" s="34"/>
+      <c r="CHH1" s="36"/>
+      <c r="CHI1" s="34"/>
+      <c r="CHY1" s="36"/>
+      <c r="CHZ1" s="34"/>
+      <c r="CIP1" s="36"/>
+      <c r="CIQ1" s="34"/>
+      <c r="CJG1" s="36"/>
+      <c r="CJH1" s="34"/>
+      <c r="CJX1" s="36"/>
+      <c r="CJY1" s="34"/>
+      <c r="CKO1" s="36"/>
+      <c r="CKP1" s="34"/>
+      <c r="CLF1" s="36"/>
+      <c r="CLG1" s="34"/>
+      <c r="CLW1" s="36"/>
+      <c r="CLX1" s="34"/>
+      <c r="CMN1" s="36"/>
+      <c r="CMO1" s="34"/>
+      <c r="CNE1" s="36"/>
+      <c r="CNF1" s="34"/>
+      <c r="CNV1" s="36"/>
+      <c r="CNW1" s="34"/>
+      <c r="COM1" s="36"/>
+      <c r="CON1" s="34"/>
+      <c r="CPD1" s="36"/>
+      <c r="CPE1" s="34"/>
+      <c r="CPU1" s="36"/>
+      <c r="CPV1" s="34"/>
+      <c r="CQL1" s="36"/>
+      <c r="CQM1" s="34"/>
+      <c r="CRC1" s="36"/>
+      <c r="CRD1" s="34"/>
+      <c r="CRT1" s="36"/>
+      <c r="CRU1" s="34"/>
+      <c r="CSK1" s="36"/>
+      <c r="CSL1" s="34"/>
+      <c r="CTB1" s="36"/>
+      <c r="CTC1" s="34"/>
+      <c r="CTS1" s="36"/>
+      <c r="CTT1" s="34"/>
+      <c r="CUJ1" s="36"/>
+      <c r="CUK1" s="34"/>
+      <c r="CVA1" s="36"/>
+      <c r="CVB1" s="34"/>
+      <c r="CVR1" s="36"/>
+      <c r="CVS1" s="34"/>
+      <c r="CWI1" s="36"/>
+      <c r="CWJ1" s="34"/>
+      <c r="CWZ1" s="36"/>
+      <c r="CXA1" s="34"/>
+      <c r="CXQ1" s="36"/>
+      <c r="CXR1" s="34"/>
+      <c r="CYH1" s="36"/>
+      <c r="CYI1" s="34"/>
+      <c r="CYY1" s="36"/>
+      <c r="CYZ1" s="34"/>
+      <c r="CZP1" s="36"/>
+      <c r="CZQ1" s="34"/>
+      <c r="DAG1" s="36"/>
+      <c r="DAH1" s="34"/>
+      <c r="DAX1" s="36"/>
+      <c r="DAY1" s="34"/>
+      <c r="DBO1" s="36"/>
+      <c r="DBP1" s="34"/>
+      <c r="DCF1" s="36"/>
+      <c r="DCG1" s="34"/>
+      <c r="DCW1" s="36"/>
+      <c r="DCX1" s="34"/>
+      <c r="DDN1" s="36"/>
+      <c r="DDO1" s="34"/>
+      <c r="DEE1" s="36"/>
+      <c r="DEF1" s="34"/>
+      <c r="DEV1" s="36"/>
+      <c r="DEW1" s="34"/>
+      <c r="DFM1" s="36"/>
+      <c r="DFN1" s="34"/>
+      <c r="DGD1" s="36"/>
+      <c r="DGE1" s="34"/>
+      <c r="DGU1" s="36"/>
+      <c r="DGV1" s="34"/>
+      <c r="DHL1" s="36"/>
+      <c r="DHM1" s="34"/>
+      <c r="DIC1" s="36"/>
+      <c r="DID1" s="34"/>
+      <c r="DIT1" s="36"/>
+      <c r="DIU1" s="34"/>
+      <c r="DJK1" s="36"/>
+      <c r="DJL1" s="34"/>
+      <c r="DKB1" s="36"/>
+      <c r="DKC1" s="34"/>
+      <c r="DKS1" s="36"/>
+      <c r="DKT1" s="34"/>
+      <c r="DLJ1" s="36"/>
+      <c r="DLK1" s="34"/>
+      <c r="DMA1" s="36"/>
+      <c r="DMB1" s="34"/>
+      <c r="DMR1" s="36"/>
+      <c r="DMS1" s="34"/>
+      <c r="DNI1" s="36"/>
+      <c r="DNJ1" s="34"/>
+      <c r="DNZ1" s="36"/>
+      <c r="DOA1" s="34"/>
+      <c r="DOQ1" s="36"/>
+      <c r="DOR1" s="34"/>
+      <c r="DPH1" s="36"/>
+      <c r="DPI1" s="34"/>
+      <c r="DPY1" s="36"/>
+      <c r="DPZ1" s="34"/>
+      <c r="DQP1" s="36"/>
+      <c r="DQQ1" s="34"/>
+      <c r="DRG1" s="36"/>
+      <c r="DRH1" s="34"/>
+      <c r="DRX1" s="36"/>
+      <c r="DRY1" s="34"/>
+      <c r="DSO1" s="36"/>
+      <c r="DSP1" s="34"/>
+      <c r="DTF1" s="36"/>
+      <c r="DTG1" s="34"/>
+      <c r="DTW1" s="36"/>
+      <c r="DTX1" s="34"/>
+      <c r="DUN1" s="36"/>
+      <c r="DUO1" s="34"/>
+      <c r="DVE1" s="36"/>
+      <c r="DVF1" s="34"/>
+      <c r="DVV1" s="36"/>
+      <c r="DVW1" s="34"/>
+      <c r="DWM1" s="36"/>
+      <c r="DWN1" s="34"/>
+      <c r="DXD1" s="36"/>
+      <c r="DXE1" s="34"/>
+      <c r="DXU1" s="36"/>
+      <c r="DXV1" s="34"/>
+      <c r="DYL1" s="36"/>
+      <c r="DYM1" s="34"/>
+      <c r="DZC1" s="36"/>
+      <c r="DZD1" s="34"/>
+      <c r="DZT1" s="36"/>
+      <c r="DZU1" s="34"/>
+      <c r="EAK1" s="36"/>
+      <c r="EAL1" s="34"/>
+      <c r="EBB1" s="36"/>
+      <c r="EBC1" s="34"/>
+      <c r="EBS1" s="36"/>
+      <c r="EBT1" s="34"/>
+      <c r="ECJ1" s="36"/>
+      <c r="ECK1" s="34"/>
+      <c r="EDA1" s="36"/>
+      <c r="EDB1" s="34"/>
+      <c r="EDR1" s="36"/>
+      <c r="EDS1" s="34"/>
+      <c r="EEI1" s="36"/>
+      <c r="EEJ1" s="34"/>
+      <c r="EEZ1" s="36"/>
+      <c r="EFA1" s="34"/>
+      <c r="EFQ1" s="36"/>
+      <c r="EFR1" s="34"/>
+      <c r="EGH1" s="36"/>
+      <c r="EGI1" s="34"/>
+      <c r="EGY1" s="36"/>
+      <c r="EGZ1" s="34"/>
+      <c r="EHP1" s="36"/>
+      <c r="EHQ1" s="34"/>
+      <c r="EIG1" s="36"/>
+      <c r="EIH1" s="34"/>
+      <c r="EIX1" s="36"/>
+      <c r="EIY1" s="34"/>
+      <c r="EJO1" s="36"/>
+      <c r="EJP1" s="34"/>
+      <c r="EKF1" s="36"/>
+      <c r="EKG1" s="34"/>
+      <c r="EKW1" s="36"/>
+      <c r="EKX1" s="34"/>
+      <c r="ELN1" s="36"/>
+      <c r="ELO1" s="34"/>
+      <c r="EME1" s="36"/>
+      <c r="EMF1" s="34"/>
+      <c r="EMV1" s="36"/>
+      <c r="EMW1" s="34"/>
+      <c r="ENM1" s="36"/>
+      <c r="ENN1" s="34"/>
+      <c r="EOD1" s="36"/>
+      <c r="EOE1" s="34"/>
+      <c r="EOU1" s="36"/>
+      <c r="EOV1" s="34"/>
+      <c r="EPL1" s="36"/>
+      <c r="EPM1" s="34"/>
+      <c r="EQC1" s="36"/>
+      <c r="EQD1" s="34"/>
+      <c r="EQT1" s="36"/>
+      <c r="EQU1" s="34"/>
+      <c r="ERK1" s="36"/>
+      <c r="ERL1" s="34"/>
+      <c r="ESB1" s="36"/>
+      <c r="ESC1" s="34"/>
+      <c r="ESS1" s="36"/>
+      <c r="EST1" s="34"/>
+      <c r="ETJ1" s="36"/>
+      <c r="ETK1" s="34"/>
+      <c r="EUA1" s="36"/>
+      <c r="EUB1" s="34"/>
+      <c r="EUR1" s="36"/>
+      <c r="EUS1" s="34"/>
+      <c r="EVI1" s="36"/>
+      <c r="EVJ1" s="34"/>
+      <c r="EVZ1" s="36"/>
+      <c r="EWA1" s="34"/>
+      <c r="EWQ1" s="36"/>
+      <c r="EWR1" s="34"/>
+      <c r="EXH1" s="36"/>
+      <c r="EXI1" s="34"/>
+      <c r="EXY1" s="36"/>
+      <c r="EXZ1" s="34"/>
+      <c r="EYP1" s="36"/>
+      <c r="EYQ1" s="34"/>
+      <c r="EZG1" s="36"/>
+      <c r="EZH1" s="34"/>
+      <c r="EZX1" s="36"/>
+      <c r="EZY1" s="34"/>
+      <c r="FAO1" s="36"/>
+      <c r="FAP1" s="34"/>
+      <c r="FBF1" s="36"/>
+      <c r="FBG1" s="34"/>
+      <c r="FBW1" s="36"/>
+      <c r="FBX1" s="34"/>
+      <c r="FCN1" s="36"/>
+      <c r="FCO1" s="34"/>
+      <c r="FDE1" s="36"/>
+      <c r="FDF1" s="34"/>
+      <c r="FDV1" s="36"/>
+      <c r="FDW1" s="34"/>
+      <c r="FEM1" s="36"/>
+      <c r="FEN1" s="34"/>
+      <c r="FFD1" s="36"/>
+      <c r="FFE1" s="34"/>
+      <c r="FFU1" s="36"/>
+      <c r="FFV1" s="34"/>
+      <c r="FGL1" s="36"/>
+      <c r="FGM1" s="34"/>
+      <c r="FHC1" s="36"/>
+      <c r="FHD1" s="34"/>
+      <c r="FHT1" s="36"/>
+      <c r="FHU1" s="34"/>
+      <c r="FIK1" s="36"/>
+      <c r="FIL1" s="34"/>
+      <c r="FJB1" s="36"/>
+      <c r="FJC1" s="34"/>
+      <c r="FJS1" s="36"/>
+      <c r="FJT1" s="34"/>
+      <c r="FKJ1" s="36"/>
+      <c r="FKK1" s="34"/>
+      <c r="FLA1" s="36"/>
+      <c r="FLB1" s="34"/>
+      <c r="FLR1" s="36"/>
+      <c r="FLS1" s="34"/>
+      <c r="FMI1" s="36"/>
+      <c r="FMJ1" s="34"/>
+      <c r="FMZ1" s="36"/>
+      <c r="FNA1" s="34"/>
+      <c r="FNQ1" s="36"/>
+      <c r="FNR1" s="34"/>
+      <c r="FOH1" s="36"/>
+      <c r="FOI1" s="34"/>
+      <c r="FOY1" s="36"/>
+      <c r="FOZ1" s="34"/>
+      <c r="FPP1" s="36"/>
+      <c r="FPQ1" s="34"/>
+      <c r="FQG1" s="36"/>
+      <c r="FQH1" s="34"/>
+      <c r="FQX1" s="36"/>
+      <c r="FQY1" s="34"/>
+      <c r="FRO1" s="36"/>
+      <c r="FRP1" s="34"/>
+      <c r="FSF1" s="36"/>
+      <c r="FSG1" s="34"/>
+      <c r="FSW1" s="36"/>
+      <c r="FSX1" s="34"/>
+      <c r="FTN1" s="36"/>
+      <c r="FTO1" s="34"/>
+      <c r="FUE1" s="36"/>
+      <c r="FUF1" s="34"/>
+      <c r="FUV1" s="36"/>
+      <c r="FUW1" s="34"/>
+      <c r="FVM1" s="36"/>
+      <c r="FVN1" s="34"/>
+      <c r="FWD1" s="36"/>
+      <c r="FWE1" s="34"/>
+      <c r="FWU1" s="36"/>
+      <c r="FWV1" s="34"/>
+      <c r="FXL1" s="36"/>
+      <c r="FXM1" s="34"/>
+      <c r="FYC1" s="36"/>
+      <c r="FYD1" s="34"/>
+      <c r="FYT1" s="36"/>
+      <c r="FYU1" s="34"/>
+      <c r="FZK1" s="36"/>
+      <c r="FZL1" s="34"/>
+      <c r="GAB1" s="36"/>
+      <c r="GAC1" s="34"/>
+      <c r="GAS1" s="36"/>
+      <c r="GAT1" s="34"/>
+      <c r="GBJ1" s="36"/>
+      <c r="GBK1" s="34"/>
+      <c r="GCA1" s="36"/>
+      <c r="GCB1" s="34"/>
+      <c r="GCR1" s="36"/>
+      <c r="GCS1" s="34"/>
+      <c r="GDI1" s="36"/>
+      <c r="GDJ1" s="34"/>
+      <c r="GDZ1" s="36"/>
+      <c r="GEA1" s="34"/>
+      <c r="GEQ1" s="36"/>
+      <c r="GER1" s="34"/>
+      <c r="GFH1" s="36"/>
+      <c r="GFI1" s="34"/>
+      <c r="GFY1" s="36"/>
+      <c r="GFZ1" s="34"/>
+      <c r="GGP1" s="36"/>
+      <c r="GGQ1" s="34"/>
+      <c r="GHG1" s="36"/>
+      <c r="GHH1" s="34"/>
+      <c r="GHX1" s="36"/>
+      <c r="GHY1" s="34"/>
+      <c r="GIO1" s="36"/>
+      <c r="GIP1" s="34"/>
+      <c r="GJF1" s="36"/>
+      <c r="GJG1" s="34"/>
+      <c r="GJW1" s="36"/>
+      <c r="GJX1" s="34"/>
+      <c r="GKN1" s="36"/>
+      <c r="GKO1" s="34"/>
+      <c r="GLE1" s="36"/>
+      <c r="GLF1" s="34"/>
+      <c r="GLV1" s="36"/>
+      <c r="GLW1" s="34"/>
+      <c r="GMM1" s="36"/>
+      <c r="GMN1" s="34"/>
+      <c r="GND1" s="36"/>
+      <c r="GNE1" s="34"/>
+      <c r="GNU1" s="36"/>
+      <c r="GNV1" s="34"/>
+      <c r="GOL1" s="36"/>
+      <c r="GOM1" s="34"/>
+      <c r="GPC1" s="36"/>
+      <c r="GPD1" s="34"/>
+      <c r="GPT1" s="36"/>
+      <c r="GPU1" s="34"/>
+      <c r="GQK1" s="36"/>
+      <c r="GQL1" s="34"/>
+      <c r="GRB1" s="36"/>
+      <c r="GRC1" s="34"/>
+      <c r="GRS1" s="36"/>
+      <c r="GRT1" s="34"/>
+      <c r="GSJ1" s="36"/>
+      <c r="GSK1" s="34"/>
+      <c r="GTA1" s="36"/>
+      <c r="GTB1" s="34"/>
+      <c r="GTR1" s="36"/>
+      <c r="GTS1" s="34"/>
+      <c r="GUI1" s="36"/>
+      <c r="GUJ1" s="34"/>
+      <c r="GUZ1" s="36"/>
+      <c r="GVA1" s="34"/>
+      <c r="GVQ1" s="36"/>
+      <c r="GVR1" s="34"/>
+      <c r="GWH1" s="36"/>
+      <c r="GWI1" s="34"/>
+      <c r="GWY1" s="36"/>
+      <c r="GWZ1" s="34"/>
+      <c r="GXP1" s="36"/>
+      <c r="GXQ1" s="34"/>
+      <c r="GYG1" s="36"/>
+      <c r="GYH1" s="34"/>
+      <c r="GYX1" s="36"/>
+      <c r="GYY1" s="34"/>
+      <c r="GZO1" s="36"/>
+      <c r="GZP1" s="34"/>
+      <c r="HAF1" s="36"/>
+      <c r="HAG1" s="34"/>
+      <c r="HAW1" s="36"/>
+      <c r="HAX1" s="34"/>
+      <c r="HBN1" s="36"/>
+      <c r="HBO1" s="34"/>
+      <c r="HCE1" s="36"/>
+      <c r="HCF1" s="34"/>
+      <c r="HCV1" s="36"/>
+      <c r="HCW1" s="34"/>
+      <c r="HDM1" s="36"/>
+      <c r="HDN1" s="34"/>
+      <c r="HED1" s="36"/>
+      <c r="HEE1" s="34"/>
+      <c r="HEU1" s="36"/>
+      <c r="HEV1" s="34"/>
+      <c r="HFL1" s="36"/>
+      <c r="HFM1" s="34"/>
+      <c r="HGC1" s="36"/>
+      <c r="HGD1" s="34"/>
+      <c r="HGT1" s="36"/>
+      <c r="HGU1" s="34"/>
+      <c r="HHK1" s="36"/>
+      <c r="HHL1" s="34"/>
+      <c r="HIB1" s="36"/>
+      <c r="HIC1" s="34"/>
+      <c r="HIS1" s="36"/>
+      <c r="HIT1" s="34"/>
+      <c r="HJJ1" s="36"/>
+      <c r="HJK1" s="34"/>
+      <c r="HKA1" s="36"/>
+      <c r="HKB1" s="34"/>
+      <c r="HKR1" s="36"/>
+      <c r="HKS1" s="34"/>
+      <c r="HLI1" s="36"/>
+      <c r="HLJ1" s="34"/>
+      <c r="HLZ1" s="36"/>
+      <c r="HMA1" s="34"/>
+      <c r="HMQ1" s="36"/>
+      <c r="HMR1" s="34"/>
+      <c r="HNH1" s="36"/>
+      <c r="HNI1" s="34"/>
+      <c r="HNY1" s="36"/>
+      <c r="HNZ1" s="34"/>
+      <c r="HOP1" s="36"/>
+      <c r="HOQ1" s="34"/>
+      <c r="HPG1" s="36"/>
+      <c r="HPH1" s="34"/>
+      <c r="HPX1" s="36"/>
+      <c r="HPY1" s="34"/>
+      <c r="HQO1" s="36"/>
+      <c r="HQP1" s="34"/>
+      <c r="HRF1" s="36"/>
+      <c r="HRG1" s="34"/>
+      <c r="HRW1" s="36"/>
+      <c r="HRX1" s="34"/>
+      <c r="HSN1" s="36"/>
+      <c r="HSO1" s="34"/>
+      <c r="HTE1" s="36"/>
+      <c r="HTF1" s="34"/>
+      <c r="HTV1" s="36"/>
+      <c r="HTW1" s="34"/>
+      <c r="HUM1" s="36"/>
+      <c r="HUN1" s="34"/>
+      <c r="HVD1" s="36"/>
+      <c r="HVE1" s="34"/>
+      <c r="HVU1" s="36"/>
+      <c r="HVV1" s="34"/>
+      <c r="HWL1" s="36"/>
+      <c r="HWM1" s="34"/>
+      <c r="HXC1" s="36"/>
+      <c r="HXD1" s="34"/>
+      <c r="HXT1" s="36"/>
+      <c r="HXU1" s="34"/>
+      <c r="HYK1" s="36"/>
+      <c r="HYL1" s="34"/>
+      <c r="HZB1" s="36"/>
+      <c r="HZC1" s="34"/>
+      <c r="HZS1" s="36"/>
+      <c r="HZT1" s="34"/>
+      <c r="IAJ1" s="36"/>
+      <c r="IAK1" s="34"/>
+      <c r="IBA1" s="36"/>
+      <c r="IBB1" s="34"/>
+      <c r="IBR1" s="36"/>
+      <c r="IBS1" s="34"/>
+      <c r="ICI1" s="36"/>
+      <c r="ICJ1" s="34"/>
+      <c r="ICZ1" s="36"/>
+      <c r="IDA1" s="34"/>
+      <c r="IDQ1" s="36"/>
+      <c r="IDR1" s="34"/>
+      <c r="IEH1" s="36"/>
+      <c r="IEI1" s="34"/>
+      <c r="IEY1" s="36"/>
+      <c r="IEZ1" s="34"/>
+      <c r="IFP1" s="36"/>
+      <c r="IFQ1" s="34"/>
+      <c r="IGG1" s="36"/>
+      <c r="IGH1" s="34"/>
+      <c r="IGX1" s="36"/>
+      <c r="IGY1" s="34"/>
+      <c r="IHO1" s="36"/>
+      <c r="IHP1" s="34"/>
+      <c r="IIF1" s="36"/>
+      <c r="IIG1" s="34"/>
+      <c r="IIW1" s="36"/>
+      <c r="IIX1" s="34"/>
+      <c r="IJN1" s="36"/>
+      <c r="IJO1" s="34"/>
+      <c r="IKE1" s="36"/>
+      <c r="IKF1" s="34"/>
+      <c r="IKV1" s="36"/>
+      <c r="IKW1" s="34"/>
+      <c r="ILM1" s="36"/>
+      <c r="ILN1" s="34"/>
+      <c r="IMD1" s="36"/>
+      <c r="IME1" s="34"/>
+      <c r="IMU1" s="36"/>
+      <c r="IMV1" s="34"/>
+      <c r="INL1" s="36"/>
+      <c r="INM1" s="34"/>
+      <c r="IOC1" s="36"/>
+      <c r="IOD1" s="34"/>
+      <c r="IOT1" s="36"/>
+      <c r="IOU1" s="34"/>
+      <c r="IPK1" s="36"/>
+      <c r="IPL1" s="34"/>
+      <c r="IQB1" s="36"/>
+      <c r="IQC1" s="34"/>
+      <c r="IQS1" s="36"/>
+      <c r="IQT1" s="34"/>
+      <c r="IRJ1" s="36"/>
+      <c r="IRK1" s="34"/>
+      <c r="ISA1" s="36"/>
+      <c r="ISB1" s="34"/>
+      <c r="ISR1" s="36"/>
+      <c r="ISS1" s="34"/>
+      <c r="ITI1" s="36"/>
+      <c r="ITJ1" s="34"/>
+      <c r="ITZ1" s="36"/>
+      <c r="IUA1" s="34"/>
+      <c r="IUQ1" s="36"/>
+      <c r="IUR1" s="34"/>
+      <c r="IVH1" s="36"/>
+      <c r="IVI1" s="34"/>
+      <c r="IVY1" s="36"/>
+      <c r="IVZ1" s="34"/>
+      <c r="IWP1" s="36"/>
+      <c r="IWQ1" s="34"/>
+      <c r="IXG1" s="36"/>
+      <c r="IXH1" s="34"/>
+      <c r="IXX1" s="36"/>
+      <c r="IXY1" s="34"/>
+      <c r="IYO1" s="36"/>
+      <c r="IYP1" s="34"/>
+      <c r="IZF1" s="36"/>
+      <c r="IZG1" s="34"/>
+      <c r="IZW1" s="36"/>
+      <c r="IZX1" s="34"/>
+      <c r="JAN1" s="36"/>
+      <c r="JAO1" s="34"/>
+      <c r="JBE1" s="36"/>
+      <c r="JBF1" s="34"/>
+      <c r="JBV1" s="36"/>
+      <c r="JBW1" s="34"/>
+      <c r="JCM1" s="36"/>
+      <c r="JCN1" s="34"/>
+      <c r="JDD1" s="36"/>
+      <c r="JDE1" s="34"/>
+      <c r="JDU1" s="36"/>
+      <c r="JDV1" s="34"/>
+      <c r="JEL1" s="36"/>
+      <c r="JEM1" s="34"/>
+      <c r="JFC1" s="36"/>
+      <c r="JFD1" s="34"/>
+      <c r="JFT1" s="36"/>
+      <c r="JFU1" s="34"/>
+      <c r="JGK1" s="36"/>
+      <c r="JGL1" s="34"/>
+      <c r="JHB1" s="36"/>
+      <c r="JHC1" s="34"/>
+      <c r="JHS1" s="36"/>
+      <c r="JHT1" s="34"/>
+      <c r="JIJ1" s="36"/>
+      <c r="JIK1" s="34"/>
+      <c r="JJA1" s="36"/>
+      <c r="JJB1" s="34"/>
+      <c r="JJR1" s="36"/>
+      <c r="JJS1" s="34"/>
+      <c r="JKI1" s="36"/>
+      <c r="JKJ1" s="34"/>
+      <c r="JKZ1" s="36"/>
+      <c r="JLA1" s="34"/>
+      <c r="JLQ1" s="36"/>
+      <c r="JLR1" s="34"/>
+      <c r="JMH1" s="36"/>
+      <c r="JMI1" s="34"/>
+      <c r="JMY1" s="36"/>
+      <c r="JMZ1" s="34"/>
+      <c r="JNP1" s="36"/>
+      <c r="JNQ1" s="34"/>
+      <c r="JOG1" s="36"/>
+      <c r="JOH1" s="34"/>
+      <c r="JOX1" s="36"/>
+      <c r="JOY1" s="34"/>
+      <c r="JPO1" s="36"/>
+      <c r="JPP1" s="34"/>
+      <c r="JQF1" s="36"/>
+      <c r="JQG1" s="34"/>
+      <c r="JQW1" s="36"/>
+      <c r="JQX1" s="34"/>
+      <c r="JRN1" s="36"/>
+      <c r="JRO1" s="34"/>
+      <c r="JSE1" s="36"/>
+      <c r="JSF1" s="34"/>
+      <c r="JSV1" s="36"/>
+      <c r="JSW1" s="34"/>
+      <c r="JTM1" s="36"/>
+      <c r="JTN1" s="34"/>
+      <c r="JUD1" s="36"/>
+      <c r="JUE1" s="34"/>
+      <c r="JUU1" s="36"/>
+      <c r="JUV1" s="34"/>
+      <c r="JVL1" s="36"/>
+      <c r="JVM1" s="34"/>
+      <c r="JWC1" s="36"/>
+      <c r="JWD1" s="34"/>
+      <c r="JWT1" s="36"/>
+      <c r="JWU1" s="34"/>
+      <c r="JXK1" s="36"/>
+      <c r="JXL1" s="34"/>
+      <c r="JYB1" s="36"/>
+      <c r="JYC1" s="34"/>
+      <c r="JYS1" s="36"/>
+      <c r="JYT1" s="34"/>
+      <c r="JZJ1" s="36"/>
+      <c r="JZK1" s="34"/>
+      <c r="KAA1" s="36"/>
+      <c r="KAB1" s="34"/>
+      <c r="KAR1" s="36"/>
+      <c r="KAS1" s="34"/>
+      <c r="KBI1" s="36"/>
+      <c r="KBJ1" s="34"/>
+      <c r="KBZ1" s="36"/>
+      <c r="KCA1" s="34"/>
+      <c r="KCQ1" s="36"/>
+      <c r="KCR1" s="34"/>
+      <c r="KDH1" s="36"/>
+      <c r="KDI1" s="34"/>
+      <c r="KDY1" s="36"/>
+      <c r="KDZ1" s="34"/>
+      <c r="KEP1" s="36"/>
+      <c r="KEQ1" s="34"/>
+      <c r="KFG1" s="36"/>
+      <c r="KFH1" s="34"/>
+      <c r="KFX1" s="36"/>
+      <c r="KFY1" s="34"/>
+      <c r="KGO1" s="36"/>
+      <c r="KGP1" s="34"/>
+      <c r="KHF1" s="36"/>
+      <c r="KHG1" s="34"/>
+      <c r="KHW1" s="36"/>
+      <c r="KHX1" s="34"/>
+      <c r="KIN1" s="36"/>
+      <c r="KIO1" s="34"/>
+      <c r="KJE1" s="36"/>
+      <c r="KJF1" s="34"/>
+      <c r="KJV1" s="36"/>
+      <c r="KJW1" s="34"/>
+      <c r="KKM1" s="36"/>
+      <c r="KKN1" s="34"/>
+      <c r="KLD1" s="36"/>
+      <c r="KLE1" s="34"/>
+      <c r="KLU1" s="36"/>
+      <c r="KLV1" s="34"/>
+      <c r="KML1" s="36"/>
+      <c r="KMM1" s="34"/>
+      <c r="KNC1" s="36"/>
+      <c r="KND1" s="34"/>
+      <c r="KNT1" s="36"/>
+      <c r="KNU1" s="34"/>
+      <c r="KOK1" s="36"/>
+      <c r="KOL1" s="34"/>
+      <c r="KPB1" s="36"/>
+      <c r="KPC1" s="34"/>
+      <c r="KPS1" s="36"/>
+      <c r="KPT1" s="34"/>
+      <c r="KQJ1" s="36"/>
+      <c r="KQK1" s="34"/>
+      <c r="KRA1" s="36"/>
+      <c r="KRB1" s="34"/>
+      <c r="KRR1" s="36"/>
+      <c r="KRS1" s="34"/>
+      <c r="KSI1" s="36"/>
+      <c r="KSJ1" s="34"/>
+      <c r="KSZ1" s="36"/>
+      <c r="KTA1" s="34"/>
+      <c r="KTQ1" s="36"/>
+      <c r="KTR1" s="34"/>
+      <c r="KUH1" s="36"/>
+      <c r="KUI1" s="34"/>
+      <c r="KUY1" s="36"/>
+      <c r="KUZ1" s="34"/>
+      <c r="KVP1" s="36"/>
+      <c r="KVQ1" s="34"/>
+      <c r="KWG1" s="36"/>
+      <c r="KWH1" s="34"/>
+      <c r="KWX1" s="36"/>
+      <c r="KWY1" s="34"/>
+      <c r="KXO1" s="36"/>
+      <c r="KXP1" s="34"/>
+      <c r="KYF1" s="36"/>
+      <c r="KYG1" s="34"/>
+      <c r="KYW1" s="36"/>
+      <c r="KYX1" s="34"/>
+      <c r="KZN1" s="36"/>
+      <c r="KZO1" s="34"/>
+      <c r="LAE1" s="36"/>
+      <c r="LAF1" s="34"/>
+      <c r="LAV1" s="36"/>
+      <c r="LAW1" s="34"/>
+      <c r="LBM1" s="36"/>
+      <c r="LBN1" s="34"/>
+      <c r="LCD1" s="36"/>
+      <c r="LCE1" s="34"/>
+      <c r="LCU1" s="36"/>
+      <c r="LCV1" s="34"/>
+      <c r="LDL1" s="36"/>
+      <c r="LDM1" s="34"/>
+      <c r="LEC1" s="36"/>
+      <c r="LED1" s="34"/>
+      <c r="LET1" s="36"/>
+      <c r="LEU1" s="34"/>
+      <c r="LFK1" s="36"/>
+      <c r="LFL1" s="34"/>
+      <c r="LGB1" s="36"/>
+      <c r="LGC1" s="34"/>
+      <c r="LGS1" s="36"/>
+      <c r="LGT1" s="34"/>
+      <c r="LHJ1" s="36"/>
+      <c r="LHK1" s="34"/>
+      <c r="LIA1" s="36"/>
+      <c r="LIB1" s="34"/>
+      <c r="LIR1" s="36"/>
+      <c r="LIS1" s="34"/>
+      <c r="LJI1" s="36"/>
+      <c r="LJJ1" s="34"/>
+      <c r="LJZ1" s="36"/>
+      <c r="LKA1" s="34"/>
+      <c r="LKQ1" s="36"/>
+      <c r="LKR1" s="34"/>
+      <c r="LLH1" s="36"/>
+      <c r="LLI1" s="34"/>
+      <c r="LLY1" s="36"/>
+      <c r="LLZ1" s="34"/>
+      <c r="LMP1" s="36"/>
+      <c r="LMQ1" s="34"/>
+      <c r="LNG1" s="36"/>
+      <c r="LNH1" s="34"/>
+      <c r="LNX1" s="36"/>
+      <c r="LNY1" s="34"/>
+      <c r="LOO1" s="36"/>
+      <c r="LOP1" s="34"/>
+      <c r="LPF1" s="36"/>
+      <c r="LPG1" s="34"/>
+      <c r="LPW1" s="36"/>
+      <c r="LPX1" s="34"/>
+      <c r="LQN1" s="36"/>
+      <c r="LQO1" s="34"/>
+      <c r="LRE1" s="36"/>
+      <c r="LRF1" s="34"/>
+      <c r="LRV1" s="36"/>
+      <c r="LRW1" s="34"/>
+      <c r="LSM1" s="36"/>
+      <c r="LSN1" s="34"/>
+      <c r="LTD1" s="36"/>
+      <c r="LTE1" s="34"/>
+      <c r="LTU1" s="36"/>
+      <c r="LTV1" s="34"/>
+      <c r="LUL1" s="36"/>
+      <c r="LUM1" s="34"/>
+      <c r="LVC1" s="36"/>
+      <c r="LVD1" s="34"/>
+      <c r="LVT1" s="36"/>
+      <c r="LVU1" s="34"/>
+      <c r="LWK1" s="36"/>
+      <c r="LWL1" s="34"/>
+      <c r="LXB1" s="36"/>
+      <c r="LXC1" s="34"/>
+      <c r="LXS1" s="36"/>
+      <c r="LXT1" s="34"/>
+      <c r="LYJ1" s="36"/>
+      <c r="LYK1" s="34"/>
+      <c r="LZA1" s="36"/>
+      <c r="LZB1" s="34"/>
+      <c r="LZR1" s="36"/>
+      <c r="LZS1" s="34"/>
+      <c r="MAI1" s="36"/>
+      <c r="MAJ1" s="34"/>
+      <c r="MAZ1" s="36"/>
+      <c r="MBA1" s="34"/>
+      <c r="MBQ1" s="36"/>
+      <c r="MBR1" s="34"/>
+      <c r="MCH1" s="36"/>
+      <c r="MCI1" s="34"/>
+      <c r="MCY1" s="36"/>
+      <c r="MCZ1" s="34"/>
+      <c r="MDP1" s="36"/>
+      <c r="MDQ1" s="34"/>
+      <c r="MEG1" s="36"/>
+      <c r="MEH1" s="34"/>
+      <c r="MEX1" s="36"/>
+      <c r="MEY1" s="34"/>
+      <c r="MFO1" s="36"/>
+      <c r="MFP1" s="34"/>
+      <c r="MGF1" s="36"/>
+      <c r="MGG1" s="34"/>
+      <c r="MGW1" s="36"/>
+      <c r="MGX1" s="34"/>
+      <c r="MHN1" s="36"/>
+      <c r="MHO1" s="34"/>
+      <c r="MIE1" s="36"/>
+      <c r="MIF1" s="34"/>
+      <c r="MIV1" s="36"/>
+      <c r="MIW1" s="34"/>
+      <c r="MJM1" s="36"/>
+      <c r="MJN1" s="34"/>
+      <c r="MKD1" s="36"/>
+      <c r="MKE1" s="34"/>
+      <c r="MKU1" s="36"/>
+      <c r="MKV1" s="34"/>
+      <c r="MLL1" s="36"/>
+      <c r="MLM1" s="34"/>
+      <c r="MMC1" s="36"/>
+      <c r="MMD1" s="34"/>
+      <c r="MMT1" s="36"/>
+      <c r="MMU1" s="34"/>
+      <c r="MNK1" s="36"/>
+      <c r="MNL1" s="34"/>
+      <c r="MOB1" s="36"/>
+      <c r="MOC1" s="34"/>
+      <c r="MOS1" s="36"/>
+      <c r="MOT1" s="34"/>
+      <c r="MPJ1" s="36"/>
+      <c r="MPK1" s="34"/>
+      <c r="MQA1" s="36"/>
+      <c r="MQB1" s="34"/>
+      <c r="MQR1" s="36"/>
+      <c r="MQS1" s="34"/>
+      <c r="MRI1" s="36"/>
+      <c r="MRJ1" s="34"/>
+      <c r="MRZ1" s="36"/>
+      <c r="MSA1" s="34"/>
+      <c r="MSQ1" s="36"/>
+      <c r="MSR1" s="34"/>
+      <c r="MTH1" s="36"/>
+      <c r="MTI1" s="34"/>
+      <c r="MTY1" s="36"/>
+      <c r="MTZ1" s="34"/>
+      <c r="MUP1" s="36"/>
+      <c r="MUQ1" s="34"/>
+      <c r="MVG1" s="36"/>
+      <c r="MVH1" s="34"/>
+      <c r="MVX1" s="36"/>
+      <c r="MVY1" s="34"/>
+      <c r="MWO1" s="36"/>
+      <c r="MWP1" s="34"/>
+      <c r="MXF1" s="36"/>
+      <c r="MXG1" s="34"/>
+      <c r="MXW1" s="36"/>
+      <c r="MXX1" s="34"/>
+      <c r="MYN1" s="36"/>
+      <c r="MYO1" s="34"/>
+      <c r="MZE1" s="36"/>
+      <c r="MZF1" s="34"/>
+      <c r="MZV1" s="36"/>
+      <c r="MZW1" s="34"/>
+      <c r="NAM1" s="36"/>
+      <c r="NAN1" s="34"/>
+      <c r="NBD1" s="36"/>
+      <c r="NBE1" s="34"/>
+      <c r="NBU1" s="36"/>
+      <c r="NBV1" s="34"/>
+      <c r="NCL1" s="36"/>
+      <c r="NCM1" s="34"/>
+      <c r="NDC1" s="36"/>
+      <c r="NDD1" s="34"/>
+      <c r="NDT1" s="36"/>
+      <c r="NDU1" s="34"/>
+      <c r="NEK1" s="36"/>
+      <c r="NEL1" s="34"/>
+      <c r="NFB1" s="36"/>
+      <c r="NFC1" s="34"/>
+      <c r="NFS1" s="36"/>
+      <c r="NFT1" s="34"/>
+      <c r="NGJ1" s="36"/>
+      <c r="NGK1" s="34"/>
+      <c r="NHA1" s="36"/>
+      <c r="NHB1" s="34"/>
+      <c r="NHR1" s="36"/>
+      <c r="NHS1" s="34"/>
+      <c r="NII1" s="36"/>
+      <c r="NIJ1" s="34"/>
+      <c r="NIZ1" s="36"/>
+      <c r="NJA1" s="34"/>
+      <c r="NJQ1" s="36"/>
+      <c r="NJR1" s="34"/>
+      <c r="NKH1" s="36"/>
+      <c r="NKI1" s="34"/>
+      <c r="NKY1" s="36"/>
+      <c r="NKZ1" s="34"/>
+      <c r="NLP1" s="36"/>
+      <c r="NLQ1" s="34"/>
+      <c r="NMG1" s="36"/>
+      <c r="NMH1" s="34"/>
+      <c r="NMX1" s="36"/>
+      <c r="NMY1" s="34"/>
+      <c r="NNO1" s="36"/>
+      <c r="NNP1" s="34"/>
+      <c r="NOF1" s="36"/>
+      <c r="NOG1" s="34"/>
+      <c r="NOW1" s="36"/>
+      <c r="NOX1" s="34"/>
+      <c r="NPN1" s="36"/>
+      <c r="NPO1" s="34"/>
+      <c r="NQE1" s="36"/>
+      <c r="NQF1" s="34"/>
+      <c r="NQV1" s="36"/>
+      <c r="NQW1" s="34"/>
+      <c r="NRM1" s="36"/>
+      <c r="NRN1" s="34"/>
+      <c r="NSD1" s="36"/>
+      <c r="NSE1" s="34"/>
+      <c r="NSU1" s="36"/>
+      <c r="NSV1" s="34"/>
+      <c r="NTL1" s="36"/>
+      <c r="NTM1" s="34"/>
+      <c r="NUC1" s="36"/>
+      <c r="NUD1" s="34"/>
+      <c r="NUT1" s="36"/>
+      <c r="NUU1" s="34"/>
+      <c r="NVK1" s="36"/>
+      <c r="NVL1" s="34"/>
+      <c r="NWB1" s="36"/>
+      <c r="NWC1" s="34"/>
+      <c r="NWS1" s="36"/>
+      <c r="NWT1" s="34"/>
+      <c r="NXJ1" s="36"/>
+      <c r="NXK1" s="34"/>
+      <c r="NYA1" s="36"/>
+      <c r="NYB1" s="34"/>
+      <c r="NYR1" s="36"/>
+      <c r="NYS1" s="34"/>
+      <c r="NZI1" s="36"/>
+      <c r="NZJ1" s="34"/>
+      <c r="NZZ1" s="36"/>
+      <c r="OAA1" s="34"/>
+      <c r="OAQ1" s="36"/>
+      <c r="OAR1" s="34"/>
+      <c r="OBH1" s="36"/>
+      <c r="OBI1" s="34"/>
+      <c r="OBY1" s="36"/>
+      <c r="OBZ1" s="34"/>
+      <c r="OCP1" s="36"/>
+      <c r="OCQ1" s="34"/>
+      <c r="ODG1" s="36"/>
+      <c r="ODH1" s="34"/>
+      <c r="ODX1" s="36"/>
+      <c r="ODY1" s="34"/>
+      <c r="OEO1" s="36"/>
+      <c r="OEP1" s="34"/>
+      <c r="OFF1" s="36"/>
+      <c r="OFG1" s="34"/>
+      <c r="OFW1" s="36"/>
+      <c r="OFX1" s="34"/>
+      <c r="OGN1" s="36"/>
+      <c r="OGO1" s="34"/>
+      <c r="OHE1" s="36"/>
+      <c r="OHF1" s="34"/>
+      <c r="OHV1" s="36"/>
+      <c r="OHW1" s="34"/>
+      <c r="OIM1" s="36"/>
+      <c r="OIN1" s="34"/>
+      <c r="OJD1" s="36"/>
+      <c r="OJE1" s="34"/>
+      <c r="OJU1" s="36"/>
+      <c r="OJV1" s="34"/>
+      <c r="OKL1" s="36"/>
+      <c r="OKM1" s="34"/>
+      <c r="OLC1" s="36"/>
+      <c r="OLD1" s="34"/>
+      <c r="OLT1" s="36"/>
+      <c r="OLU1" s="34"/>
+      <c r="OMK1" s="36"/>
+      <c r="OML1" s="34"/>
+      <c r="ONB1" s="36"/>
+      <c r="ONC1" s="34"/>
+      <c r="ONS1" s="36"/>
+      <c r="ONT1" s="34"/>
+      <c r="OOJ1" s="36"/>
+      <c r="OOK1" s="34"/>
+      <c r="OPA1" s="36"/>
+      <c r="OPB1" s="34"/>
+      <c r="OPR1" s="36"/>
+      <c r="OPS1" s="34"/>
+      <c r="OQI1" s="36"/>
+      <c r="OQJ1" s="34"/>
+      <c r="OQZ1" s="36"/>
+      <c r="ORA1" s="34"/>
+      <c r="ORQ1" s="36"/>
+      <c r="ORR1" s="34"/>
+      <c r="OSH1" s="36"/>
+      <c r="OSI1" s="34"/>
+      <c r="OSY1" s="36"/>
+      <c r="OSZ1" s="34"/>
+      <c r="OTP1" s="36"/>
+      <c r="OTQ1" s="34"/>
+      <c r="OUG1" s="36"/>
+      <c r="OUH1" s="34"/>
+      <c r="OUX1" s="36"/>
+      <c r="OUY1" s="34"/>
+      <c r="OVO1" s="36"/>
+      <c r="OVP1" s="34"/>
+      <c r="OWF1" s="36"/>
+      <c r="OWG1" s="34"/>
+      <c r="OWW1" s="36"/>
+      <c r="OWX1" s="34"/>
+      <c r="OXN1" s="36"/>
+      <c r="OXO1" s="34"/>
+      <c r="OYE1" s="36"/>
+      <c r="OYF1" s="34"/>
+      <c r="OYV1" s="36"/>
+      <c r="OYW1" s="34"/>
+      <c r="OZM1" s="36"/>
+      <c r="OZN1" s="34"/>
+      <c r="PAD1" s="36"/>
+      <c r="PAE1" s="34"/>
+      <c r="PAU1" s="36"/>
+      <c r="PAV1" s="34"/>
+      <c r="PBL1" s="36"/>
+      <c r="PBM1" s="34"/>
+      <c r="PCC1" s="36"/>
+      <c r="PCD1" s="34"/>
+      <c r="PCT1" s="36"/>
+      <c r="PCU1" s="34"/>
+      <c r="PDK1" s="36"/>
+      <c r="PDL1" s="34"/>
+      <c r="PEB1" s="36"/>
+      <c r="PEC1" s="34"/>
+      <c r="PES1" s="36"/>
+      <c r="PET1" s="34"/>
+      <c r="PFJ1" s="36"/>
+      <c r="PFK1" s="34"/>
+      <c r="PGA1" s="36"/>
+      <c r="PGB1" s="34"/>
+      <c r="PGR1" s="36"/>
+      <c r="PGS1" s="34"/>
+      <c r="PHI1" s="36"/>
+      <c r="PHJ1" s="34"/>
+      <c r="PHZ1" s="36"/>
+      <c r="PIA1" s="34"/>
+      <c r="PIQ1" s="36"/>
+      <c r="PIR1" s="34"/>
+      <c r="PJH1" s="36"/>
+      <c r="PJI1" s="34"/>
+      <c r="PJY1" s="36"/>
+      <c r="PJZ1" s="34"/>
+      <c r="PKP1" s="36"/>
+      <c r="PKQ1" s="34"/>
+      <c r="PLG1" s="36"/>
+      <c r="PLH1" s="34"/>
+      <c r="PLX1" s="36"/>
+      <c r="PLY1" s="34"/>
+      <c r="PMO1" s="36"/>
+      <c r="PMP1" s="34"/>
+      <c r="PNF1" s="36"/>
+      <c r="PNG1" s="34"/>
+      <c r="PNW1" s="36"/>
+      <c r="PNX1" s="34"/>
+      <c r="PON1" s="36"/>
+      <c r="POO1" s="34"/>
+      <c r="PPE1" s="36"/>
+      <c r="PPF1" s="34"/>
+      <c r="PPV1" s="36"/>
+      <c r="PPW1" s="34"/>
+      <c r="PQM1" s="36"/>
+      <c r="PQN1" s="34"/>
+      <c r="PRD1" s="36"/>
+      <c r="PRE1" s="34"/>
+      <c r="PRU1" s="36"/>
+      <c r="PRV1" s="34"/>
+      <c r="PSL1" s="36"/>
+      <c r="PSM1" s="34"/>
+      <c r="PTC1" s="36"/>
+      <c r="PTD1" s="34"/>
+      <c r="PTT1" s="36"/>
+      <c r="PTU1" s="34"/>
+      <c r="PUK1" s="36"/>
+      <c r="PUL1" s="34"/>
+      <c r="PVB1" s="36"/>
+      <c r="PVC1" s="34"/>
+      <c r="PVS1" s="36"/>
+      <c r="PVT1" s="34"/>
+      <c r="PWJ1" s="36"/>
+      <c r="PWK1" s="34"/>
+      <c r="PXA1" s="36"/>
+      <c r="PXB1" s="34"/>
+      <c r="PXR1" s="36"/>
+      <c r="PXS1" s="34"/>
+      <c r="PYI1" s="36"/>
+      <c r="PYJ1" s="34"/>
+      <c r="PYZ1" s="36"/>
+      <c r="PZA1" s="34"/>
+      <c r="PZQ1" s="36"/>
+      <c r="PZR1" s="34"/>
+      <c r="QAH1" s="36"/>
+      <c r="QAI1" s="34"/>
+      <c r="QAY1" s="36"/>
+      <c r="QAZ1" s="34"/>
+      <c r="QBP1" s="36"/>
+      <c r="QBQ1" s="34"/>
+      <c r="QCG1" s="36"/>
+      <c r="QCH1" s="34"/>
+      <c r="QCX1" s="36"/>
+      <c r="QCY1" s="34"/>
+      <c r="QDO1" s="36"/>
+      <c r="QDP1" s="34"/>
+      <c r="QEF1" s="36"/>
+      <c r="QEG1" s="34"/>
+      <c r="QEW1" s="36"/>
+      <c r="QEX1" s="34"/>
+      <c r="QFN1" s="36"/>
+      <c r="QFO1" s="34"/>
+      <c r="QGE1" s="36"/>
+      <c r="QGF1" s="34"/>
+      <c r="QGV1" s="36"/>
+      <c r="QGW1" s="34"/>
+      <c r="QHM1" s="36"/>
+      <c r="QHN1" s="34"/>
+      <c r="QID1" s="36"/>
+      <c r="QIE1" s="34"/>
+      <c r="QIU1" s="36"/>
+      <c r="QIV1" s="34"/>
+      <c r="QJL1" s="36"/>
+      <c r="QJM1" s="34"/>
+      <c r="QKC1" s="36"/>
+      <c r="QKD1" s="34"/>
+      <c r="QKT1" s="36"/>
+      <c r="QKU1" s="34"/>
+      <c r="QLK1" s="36"/>
+      <c r="QLL1" s="34"/>
+      <c r="QMB1" s="36"/>
+      <c r="QMC1" s="34"/>
+      <c r="QMS1" s="36"/>
+      <c r="QMT1" s="34"/>
+      <c r="QNJ1" s="36"/>
+      <c r="QNK1" s="34"/>
+      <c r="QOA1" s="36"/>
+      <c r="QOB1" s="34"/>
+      <c r="QOR1" s="36"/>
+      <c r="QOS1" s="34"/>
+      <c r="QPI1" s="36"/>
+      <c r="QPJ1" s="34"/>
+      <c r="QPZ1" s="36"/>
+      <c r="QQA1" s="34"/>
+      <c r="QQQ1" s="36"/>
+      <c r="QQR1" s="34"/>
+      <c r="QRH1" s="36"/>
+      <c r="QRI1" s="34"/>
+      <c r="QRY1" s="36"/>
+      <c r="QRZ1" s="34"/>
+      <c r="QSP1" s="36"/>
+      <c r="QSQ1" s="34"/>
+      <c r="QTG1" s="36"/>
+      <c r="QTH1" s="34"/>
+      <c r="QTX1" s="36"/>
+      <c r="QTY1" s="34"/>
+      <c r="QUO1" s="36"/>
+      <c r="QUP1" s="34"/>
+      <c r="QVF1" s="36"/>
+      <c r="QVG1" s="34"/>
+      <c r="QVW1" s="36"/>
+      <c r="QVX1" s="34"/>
+      <c r="QWN1" s="36"/>
+      <c r="QWO1" s="34"/>
+      <c r="QXE1" s="36"/>
+      <c r="QXF1" s="34"/>
+      <c r="QXV1" s="36"/>
+      <c r="QXW1" s="34"/>
+      <c r="QYM1" s="36"/>
+      <c r="QYN1" s="34"/>
+      <c r="QZD1" s="36"/>
+      <c r="QZE1" s="34"/>
+      <c r="QZU1" s="36"/>
+      <c r="QZV1" s="34"/>
+      <c r="RAL1" s="36"/>
+      <c r="RAM1" s="34"/>
+      <c r="RBC1" s="36"/>
+      <c r="RBD1" s="34"/>
+      <c r="RBT1" s="36"/>
+      <c r="RBU1" s="34"/>
+      <c r="RCK1" s="36"/>
+      <c r="RCL1" s="34"/>
+      <c r="RDB1" s="36"/>
+      <c r="RDC1" s="34"/>
+      <c r="RDS1" s="36"/>
+      <c r="RDT1" s="34"/>
+      <c r="REJ1" s="36"/>
+      <c r="REK1" s="34"/>
+      <c r="RFA1" s="36"/>
+      <c r="RFB1" s="34"/>
+      <c r="RFR1" s="36"/>
+      <c r="RFS1" s="34"/>
+      <c r="RGI1" s="36"/>
+      <c r="RGJ1" s="34"/>
+      <c r="RGZ1" s="36"/>
+      <c r="RHA1" s="34"/>
+      <c r="RHQ1" s="36"/>
+      <c r="RHR1" s="34"/>
+      <c r="RIH1" s="36"/>
+      <c r="RII1" s="34"/>
+      <c r="RIY1" s="36"/>
+      <c r="RIZ1" s="34"/>
+      <c r="RJP1" s="36"/>
+      <c r="RJQ1" s="34"/>
+      <c r="RKG1" s="36"/>
+      <c r="RKH1" s="34"/>
+      <c r="RKX1" s="36"/>
+      <c r="RKY1" s="34"/>
+      <c r="RLO1" s="36"/>
+      <c r="RLP1" s="34"/>
+      <c r="RMF1" s="36"/>
+      <c r="RMG1" s="34"/>
+      <c r="RMW1" s="36"/>
+      <c r="RMX1" s="34"/>
+      <c r="RNN1" s="36"/>
+      <c r="RNO1" s="34"/>
+      <c r="ROE1" s="36"/>
+      <c r="ROF1" s="34"/>
+      <c r="ROV1" s="36"/>
+      <c r="ROW1" s="34"/>
+      <c r="RPM1" s="36"/>
+      <c r="RPN1" s="34"/>
+      <c r="RQD1" s="36"/>
+      <c r="RQE1" s="34"/>
+      <c r="RQU1" s="36"/>
+      <c r="RQV1" s="34"/>
+      <c r="RRL1" s="36"/>
+      <c r="RRM1" s="34"/>
+      <c r="RSC1" s="36"/>
+      <c r="RSD1" s="34"/>
+      <c r="RST1" s="36"/>
+      <c r="RSU1" s="34"/>
+      <c r="RTK1" s="36"/>
+      <c r="RTL1" s="34"/>
+      <c r="RUB1" s="36"/>
+      <c r="RUC1" s="34"/>
+      <c r="RUS1" s="36"/>
+      <c r="RUT1" s="34"/>
+      <c r="RVJ1" s="36"/>
+      <c r="RVK1" s="34"/>
+      <c r="RWA1" s="36"/>
+      <c r="RWB1" s="34"/>
+      <c r="RWR1" s="36"/>
+      <c r="RWS1" s="34"/>
+      <c r="RXI1" s="36"/>
+      <c r="RXJ1" s="34"/>
+      <c r="RXZ1" s="36"/>
+      <c r="RYA1" s="34"/>
+      <c r="RYQ1" s="36"/>
+      <c r="RYR1" s="34"/>
+      <c r="RZH1" s="36"/>
+      <c r="RZI1" s="34"/>
+      <c r="RZY1" s="36"/>
+      <c r="RZZ1" s="34"/>
+      <c r="SAP1" s="36"/>
+      <c r="SAQ1" s="34"/>
+      <c r="SBG1" s="36"/>
+      <c r="SBH1" s="34"/>
+      <c r="SBX1" s="36"/>
+      <c r="SBY1" s="34"/>
+      <c r="SCO1" s="36"/>
+      <c r="SCP1" s="34"/>
+      <c r="SDF1" s="36"/>
+      <c r="SDG1" s="34"/>
+      <c r="SDW1" s="36"/>
+      <c r="SDX1" s="34"/>
+      <c r="SEN1" s="36"/>
+      <c r="SEO1" s="34"/>
+      <c r="SFE1" s="36"/>
+      <c r="SFF1" s="34"/>
+      <c r="SFV1" s="36"/>
+      <c r="SFW1" s="34"/>
+      <c r="SGM1" s="36"/>
+      <c r="SGN1" s="34"/>
+      <c r="SHD1" s="36"/>
+      <c r="SHE1" s="34"/>
+      <c r="SHU1" s="36"/>
+      <c r="SHV1" s="34"/>
+      <c r="SIL1" s="36"/>
+      <c r="SIM1" s="34"/>
+      <c r="SJC1" s="36"/>
+      <c r="SJD1" s="34"/>
+      <c r="SJT1" s="36"/>
+      <c r="SJU1" s="34"/>
+      <c r="SKK1" s="36"/>
+      <c r="SKL1" s="34"/>
+      <c r="SLB1" s="36"/>
+      <c r="SLC1" s="34"/>
+      <c r="SLS1" s="36"/>
+      <c r="SLT1" s="34"/>
+      <c r="SMJ1" s="36"/>
+      <c r="SMK1" s="34"/>
+      <c r="SNA1" s="36"/>
+      <c r="SNB1" s="34"/>
+      <c r="SNR1" s="36"/>
+      <c r="SNS1" s="34"/>
+      <c r="SOI1" s="36"/>
+      <c r="SOJ1" s="34"/>
+      <c r="SOZ1" s="36"/>
+      <c r="SPA1" s="34"/>
+      <c r="SPQ1" s="36"/>
+      <c r="SPR1" s="34"/>
+      <c r="SQH1" s="36"/>
+      <c r="SQI1" s="34"/>
+      <c r="SQY1" s="36"/>
+      <c r="SQZ1" s="34"/>
+      <c r="SRP1" s="36"/>
+      <c r="SRQ1" s="34"/>
+      <c r="SSG1" s="36"/>
+      <c r="SSH1" s="34"/>
+      <c r="SSX1" s="36"/>
+      <c r="SSY1" s="34"/>
+      <c r="STO1" s="36"/>
+      <c r="STP1" s="34"/>
+      <c r="SUF1" s="36"/>
+      <c r="SUG1" s="34"/>
+      <c r="SUW1" s="36"/>
+      <c r="SUX1" s="34"/>
+      <c r="SVN1" s="36"/>
+      <c r="SVO1" s="34"/>
+      <c r="SWE1" s="36"/>
+      <c r="SWF1" s="34"/>
+      <c r="SWV1" s="36"/>
+      <c r="SWW1" s="34"/>
+      <c r="SXM1" s="36"/>
+      <c r="SXN1" s="34"/>
+      <c r="SYD1" s="36"/>
+      <c r="SYE1" s="34"/>
+      <c r="SYU1" s="36"/>
+      <c r="SYV1" s="34"/>
+      <c r="SZL1" s="36"/>
+      <c r="SZM1" s="34"/>
+      <c r="TAC1" s="36"/>
+      <c r="TAD1" s="34"/>
+      <c r="TAT1" s="36"/>
+      <c r="TAU1" s="34"/>
+      <c r="TBK1" s="36"/>
+      <c r="TBL1" s="34"/>
+      <c r="TCB1" s="36"/>
+      <c r="TCC1" s="34"/>
+      <c r="TCS1" s="36"/>
+      <c r="TCT1" s="34"/>
+      <c r="TDJ1" s="36"/>
+      <c r="TDK1" s="34"/>
+      <c r="TEA1" s="36"/>
+      <c r="TEB1" s="34"/>
+      <c r="TER1" s="36"/>
+      <c r="TES1" s="34"/>
+      <c r="TFI1" s="36"/>
+      <c r="TFJ1" s="34"/>
+      <c r="TFZ1" s="36"/>
+      <c r="TGA1" s="34"/>
+      <c r="TGQ1" s="36"/>
+      <c r="TGR1" s="34"/>
+      <c r="THH1" s="36"/>
+      <c r="THI1" s="34"/>
+      <c r="THY1" s="36"/>
+      <c r="THZ1" s="34"/>
+      <c r="TIP1" s="36"/>
+      <c r="TIQ1" s="34"/>
+      <c r="TJG1" s="36"/>
+      <c r="TJH1" s="34"/>
+      <c r="TJX1" s="36"/>
+      <c r="TJY1" s="34"/>
+      <c r="TKO1" s="36"/>
+      <c r="TKP1" s="34"/>
+      <c r="TLF1" s="36"/>
+      <c r="TLG1" s="34"/>
+      <c r="TLW1" s="36"/>
+      <c r="TLX1" s="34"/>
+      <c r="TMN1" s="36"/>
+      <c r="TMO1" s="34"/>
+      <c r="TNE1" s="36"/>
+      <c r="TNF1" s="34"/>
+      <c r="TNV1" s="36"/>
+      <c r="TNW1" s="34"/>
+      <c r="TOM1" s="36"/>
+      <c r="TON1" s="34"/>
+      <c r="TPD1" s="36"/>
+      <c r="TPE1" s="34"/>
+      <c r="TPU1" s="36"/>
+      <c r="TPV1" s="34"/>
+      <c r="TQL1" s="36"/>
+      <c r="TQM1" s="34"/>
+      <c r="TRC1" s="36"/>
+      <c r="TRD1" s="34"/>
+      <c r="TRT1" s="36"/>
+      <c r="TRU1" s="34"/>
+      <c r="TSK1" s="36"/>
+      <c r="TSL1" s="34"/>
+      <c r="TTB1" s="36"/>
+      <c r="TTC1" s="34"/>
+      <c r="TTS1" s="36"/>
+      <c r="TTT1" s="34"/>
+      <c r="TUJ1" s="36"/>
+      <c r="TUK1" s="34"/>
+      <c r="TVA1" s="36"/>
+      <c r="TVB1" s="34"/>
+      <c r="TVR1" s="36"/>
+      <c r="TVS1" s="34"/>
+      <c r="TWI1" s="36"/>
+      <c r="TWJ1" s="34"/>
+      <c r="TWZ1" s="36"/>
+      <c r="TXA1" s="34"/>
+      <c r="TXQ1" s="36"/>
+      <c r="TXR1" s="34"/>
+      <c r="TYH1" s="36"/>
+      <c r="TYI1" s="34"/>
+      <c r="TYY1" s="36"/>
+      <c r="TYZ1" s="34"/>
+      <c r="TZP1" s="36"/>
+      <c r="TZQ1" s="34"/>
+      <c r="UAG1" s="36"/>
+      <c r="UAH1" s="34"/>
+      <c r="UAX1" s="36"/>
+      <c r="UAY1" s="34"/>
+      <c r="UBO1" s="36"/>
+      <c r="UBP1" s="34"/>
+      <c r="UCF1" s="36"/>
+      <c r="UCG1" s="34"/>
+      <c r="UCW1" s="36"/>
+      <c r="UCX1" s="34"/>
+      <c r="UDN1" s="36"/>
+      <c r="UDO1" s="34"/>
+      <c r="UEE1" s="36"/>
+      <c r="UEF1" s="34"/>
+      <c r="UEV1" s="36"/>
+      <c r="UEW1" s="34"/>
+      <c r="UFM1" s="36"/>
+      <c r="UFN1" s="34"/>
+      <c r="UGD1" s="36"/>
+      <c r="UGE1" s="34"/>
+      <c r="UGU1" s="36"/>
+      <c r="UGV1" s="34"/>
+      <c r="UHL1" s="36"/>
+      <c r="UHM1" s="34"/>
+      <c r="UIC1" s="36"/>
+      <c r="UID1" s="34"/>
+      <c r="UIT1" s="36"/>
+      <c r="UIU1" s="34"/>
+      <c r="UJK1" s="36"/>
+      <c r="UJL1" s="34"/>
+      <c r="UKB1" s="36"/>
+      <c r="UKC1" s="34"/>
+      <c r="UKS1" s="36"/>
+      <c r="UKT1" s="34"/>
+      <c r="ULJ1" s="36"/>
+      <c r="ULK1" s="34"/>
+      <c r="UMA1" s="36"/>
+      <c r="UMB1" s="34"/>
+      <c r="UMR1" s="36"/>
+      <c r="UMS1" s="34"/>
+      <c r="UNI1" s="36"/>
+      <c r="UNJ1" s="34"/>
+      <c r="UNZ1" s="36"/>
+      <c r="UOA1" s="34"/>
+      <c r="UOQ1" s="36"/>
+      <c r="UOR1" s="34"/>
+      <c r="UPH1" s="36"/>
+      <c r="UPI1" s="34"/>
+      <c r="UPY1" s="36"/>
+      <c r="UPZ1" s="34"/>
+      <c r="UQP1" s="36"/>
+      <c r="UQQ1" s="34"/>
+      <c r="URG1" s="36"/>
+      <c r="URH1" s="34"/>
+      <c r="URX1" s="36"/>
+      <c r="URY1" s="34"/>
+      <c r="USO1" s="36"/>
+      <c r="USP1" s="34"/>
+      <c r="UTF1" s="36"/>
+      <c r="UTG1" s="34"/>
+      <c r="UTW1" s="36"/>
+      <c r="UTX1" s="34"/>
+      <c r="UUN1" s="36"/>
+      <c r="UUO1" s="34"/>
+      <c r="UVE1" s="36"/>
+      <c r="UVF1" s="34"/>
+      <c r="UVV1" s="36"/>
+      <c r="UVW1" s="34"/>
+      <c r="UWM1" s="36"/>
+      <c r="UWN1" s="34"/>
+      <c r="UXD1" s="36"/>
+      <c r="UXE1" s="34"/>
+      <c r="UXU1" s="36"/>
+      <c r="UXV1" s="34"/>
+      <c r="UYL1" s="36"/>
+      <c r="UYM1" s="34"/>
+      <c r="UZC1" s="36"/>
+      <c r="UZD1" s="34"/>
+      <c r="UZT1" s="36"/>
+      <c r="UZU1" s="34"/>
+      <c r="VAK1" s="36"/>
+      <c r="VAL1" s="34"/>
+      <c r="VBB1" s="36"/>
+      <c r="VBC1" s="34"/>
+      <c r="VBS1" s="36"/>
+      <c r="VBT1" s="34"/>
+      <c r="VCJ1" s="36"/>
+      <c r="VCK1" s="34"/>
+      <c r="VDA1" s="36"/>
+      <c r="VDB1" s="34"/>
+      <c r="VDR1" s="36"/>
+      <c r="VDS1" s="34"/>
+      <c r="VEI1" s="36"/>
+      <c r="VEJ1" s="34"/>
+      <c r="VEZ1" s="36"/>
+      <c r="VFA1" s="34"/>
+      <c r="VFQ1" s="36"/>
+      <c r="VFR1" s="34"/>
+      <c r="VGH1" s="36"/>
+      <c r="VGI1" s="34"/>
+      <c r="VGY1" s="36"/>
+      <c r="VGZ1" s="34"/>
+      <c r="VHP1" s="36"/>
+      <c r="VHQ1" s="34"/>
+      <c r="VIG1" s="36"/>
+      <c r="VIH1" s="34"/>
+      <c r="VIX1" s="36"/>
+      <c r="VIY1" s="34"/>
+      <c r="VJO1" s="36"/>
+      <c r="VJP1" s="34"/>
+      <c r="VKF1" s="36"/>
+      <c r="VKG1" s="34"/>
+      <c r="VKW1" s="36"/>
+      <c r="VKX1" s="34"/>
+      <c r="VLN1" s="36"/>
+      <c r="VLO1" s="34"/>
+      <c r="VME1" s="36"/>
+      <c r="VMF1" s="34"/>
+      <c r="VMV1" s="36"/>
+      <c r="VMW1" s="34"/>
+      <c r="VNM1" s="36"/>
+      <c r="VNN1" s="34"/>
+      <c r="VOD1" s="36"/>
+      <c r="VOE1" s="34"/>
+      <c r="VOU1" s="36"/>
+      <c r="VOV1" s="34"/>
+      <c r="VPL1" s="36"/>
+      <c r="VPM1" s="34"/>
+      <c r="VQC1" s="36"/>
+      <c r="VQD1" s="34"/>
+      <c r="VQT1" s="36"/>
+      <c r="VQU1" s="34"/>
+      <c r="VRK1" s="36"/>
+      <c r="VRL1" s="34"/>
+      <c r="VSB1" s="36"/>
+      <c r="VSC1" s="34"/>
+      <c r="VSS1" s="36"/>
+      <c r="VST1" s="34"/>
+      <c r="VTJ1" s="36"/>
+      <c r="VTK1" s="34"/>
+      <c r="VUA1" s="36"/>
+      <c r="VUB1" s="34"/>
+      <c r="VUR1" s="36"/>
+      <c r="VUS1" s="34"/>
+      <c r="VVI1" s="36"/>
+      <c r="VVJ1" s="34"/>
+      <c r="VVZ1" s="36"/>
+      <c r="VWA1" s="34"/>
+      <c r="VWQ1" s="36"/>
+      <c r="VWR1" s="34"/>
+      <c r="VXH1" s="36"/>
+      <c r="VXI1" s="34"/>
+      <c r="VXY1" s="36"/>
+      <c r="VXZ1" s="34"/>
+      <c r="VYP1" s="36"/>
+      <c r="VYQ1" s="34"/>
+      <c r="VZG1" s="36"/>
+      <c r="VZH1" s="34"/>
+      <c r="VZX1" s="36"/>
+      <c r="VZY1" s="34"/>
+      <c r="WAO1" s="36"/>
+      <c r="WAP1" s="34"/>
+      <c r="WBF1" s="36"/>
+      <c r="WBG1" s="34"/>
+      <c r="WBW1" s="36"/>
+      <c r="WBX1" s="34"/>
+      <c r="WCN1" s="36"/>
+      <c r="WCO1" s="34"/>
+      <c r="WDE1" s="36"/>
+      <c r="WDF1" s="34"/>
+      <c r="WDV1" s="36"/>
+      <c r="WDW1" s="34"/>
+      <c r="WEM1" s="36"/>
+      <c r="WEN1" s="34"/>
+      <c r="WFD1" s="36"/>
+      <c r="WFE1" s="34"/>
+      <c r="WFU1" s="36"/>
+      <c r="WFV1" s="34"/>
+      <c r="WGL1" s="36"/>
+      <c r="WGM1" s="34"/>
+      <c r="WHC1" s="36"/>
+      <c r="WHD1" s="34"/>
+      <c r="WHT1" s="36"/>
+      <c r="WHU1" s="34"/>
+      <c r="WIK1" s="36"/>
+      <c r="WIL1" s="34"/>
+      <c r="WJB1" s="36"/>
+      <c r="WJC1" s="34"/>
+      <c r="WJS1" s="36"/>
+      <c r="WJT1" s="34"/>
+      <c r="WKJ1" s="36"/>
+      <c r="WKK1" s="34"/>
+      <c r="WLA1" s="36"/>
+      <c r="WLB1" s="34"/>
+      <c r="WLR1" s="36"/>
+      <c r="WLS1" s="34"/>
+      <c r="WMI1" s="36"/>
+      <c r="WMJ1" s="34"/>
+      <c r="WMZ1" s="36"/>
+      <c r="WNA1" s="34"/>
+      <c r="WNQ1" s="36"/>
+      <c r="WNR1" s="34"/>
+      <c r="WOH1" s="36"/>
+      <c r="WOI1" s="34"/>
+      <c r="WOY1" s="36"/>
+      <c r="WOZ1" s="34"/>
+      <c r="WPP1" s="36"/>
+      <c r="WPQ1" s="34"/>
+      <c r="WQG1" s="36"/>
+      <c r="WQH1" s="34"/>
+      <c r="WQX1" s="36"/>
+      <c r="WQY1" s="34"/>
+      <c r="WRO1" s="36"/>
+      <c r="WRP1" s="34"/>
+      <c r="WSF1" s="36"/>
+      <c r="WSG1" s="34"/>
+      <c r="WSW1" s="36"/>
+      <c r="WSX1" s="34"/>
+      <c r="WTN1" s="36"/>
+      <c r="WTO1" s="34"/>
+      <c r="WUE1" s="36"/>
+      <c r="WUF1" s="34"/>
+      <c r="WUV1" s="36"/>
+      <c r="WUW1" s="34"/>
+      <c r="WVM1" s="36"/>
+      <c r="WVN1" s="34"/>
+      <c r="WWD1" s="36"/>
+      <c r="WWE1" s="34"/>
+      <c r="WWU1" s="36"/>
+      <c r="WWV1" s="34"/>
+      <c r="WXL1" s="36"/>
+      <c r="WXM1" s="34"/>
+      <c r="WYC1" s="36"/>
+      <c r="WYD1" s="34"/>
+      <c r="WYT1" s="36"/>
+      <c r="WYU1" s="34"/>
+      <c r="WZK1" s="36"/>
+      <c r="WZL1" s="34"/>
+      <c r="XAB1" s="36"/>
+      <c r="XAC1" s="34"/>
+      <c r="XAS1" s="36"/>
+      <c r="XAT1" s="34"/>
+      <c r="XBJ1" s="36"/>
+      <c r="XBK1" s="34"/>
+      <c r="XCA1" s="36"/>
+      <c r="XCB1" s="34"/>
+      <c r="XCR1" s="36"/>
+      <c r="XCS1" s="34"/>
+      <c r="XDI1" s="36"/>
+      <c r="XDJ1" s="34"/>
+      <c r="XDZ1" s="36"/>
+      <c r="XEA1" s="34"/>
+      <c r="XEQ1" s="36"/>
+      <c r="XER1" s="34"/>
+    </row>
+    <row r="2" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="45">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46" t="s">
+        <v>817</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>818</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>819</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>821</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>823</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>824</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>826</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>827</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>828</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>829</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>832</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>833</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>840</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>841</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>842</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>844</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>851</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>853</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>855</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>856</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>858</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>861</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>864</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>866</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>867</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>868</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>871</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>872</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>873</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>874</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>875</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>876</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>877</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>880</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>881</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>882</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>883</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>884</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>885</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>885</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>886</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>887</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>888</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>881</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="16.2" thickBot="1">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>989</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>889</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>987</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>893</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>896</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>897</v>
+      </c>
+      <c r="P9" s="46">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q9" s="46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>893</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>896</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="P10" s="46">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q10" s="46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>900</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>901</v>
+      </c>
+      <c r="G11" s="46">
+        <v>12345</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="I11" s="46">
+        <v>123456</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>903</v>
+      </c>
+      <c r="K11" s="46">
+        <v>234567</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>904</v>
+      </c>
+      <c r="M11" s="46">
+        <v>456789</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>905</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A12" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>910</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>912</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>913</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>914</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>915</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>916</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>885</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>917</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>918</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>921</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A13" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>924</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>925</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>926</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>927</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>928</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>893</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>929</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>930</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>931</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>932</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>933</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A14" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>934</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>935</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>936</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>937</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>939</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>940</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>941</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>942</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>885</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>944</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A15" s="45" t="s">
+        <v>815</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>947</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>950</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>951</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>952</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>953</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>954</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>955</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>956</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>885</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>958</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>959</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A16" s="45" t="s">
+        <v>816</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>962</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>963</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>965</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>966</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>967</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>968</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>969</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>970</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>971</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>972</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" customHeight="1" thickBot="1">
+      <c r="A17" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>975</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>976</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>977</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>978</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>979</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>980</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>981</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>982</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>983</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>984</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>985</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -7303,7 +11257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -8224,7 +12178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>

--- a/字符表/Excel版/一级字符表.xlsx
+++ b/字符表/Excel版/一级字符表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA963BBB-9BFE-4FB6-A08E-C107FAC1870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ECCBB3-6FF6-4457-AEF0-CB73797E27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单字节" sheetId="1" r:id="rId1"/>
@@ -4925,12 +4925,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> x</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
@@ -4938,10 +4942,6 @@
       </rPr>
       <t>⁴</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4949,7 +4949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4964,20 +4964,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5012,21 +4998,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -5059,70 +5030,53 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="ClassWiz X Display"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ClassWiz X Display"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="4"/>
-      <color theme="1"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="3"/>
-      <color theme="1"/>
-      <name val="ClassWiz X Display"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5153,26 +5107,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5193,79 +5140,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5278,30 +5154,6 @@
       <top/>
       <bottom style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5333,51 +5185,8 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right style="thin">
         <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="1"/>
@@ -5566,6 +5375,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalUp="1">
       <left style="thick">
         <color indexed="64"/>
@@ -5579,14 +5565,12 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="medium">
+      <diagonal style="thick">
         <color indexed="64"/>
       </diagonal>
     </border>
     <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -5594,48 +5578,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="medium">
+      <diagonal style="thick">
         <color indexed="64"/>
       </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5643,164 +5588,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5865,23 +5804,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119269</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>26505</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79843</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>214519</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>150330</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163005</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>240633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图形 1117379563">
+        <xdr:cNvPr id="38" name="图形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEDFF1C-D623-7464-38CF-027B386A255A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E5D7C6-D8BE-470F-83D0-34C94536DF3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5903,8 +5842,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="728869" y="1424609"/>
-          <a:ext cx="95250" cy="123825"/>
+          <a:off x="3280243" y="2418523"/>
+          <a:ext cx="83162" cy="108110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5915,73 +5854,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>164990</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145112</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>260240</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>240362</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>155298</xdr:rowOff>
+      <xdr:rowOff>248063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图形 1">
+        <xdr:cNvPr id="42" name="图形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5C2046-6E3D-4CBC-9DAD-3FCA0049D2B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774590" y="3609560"/>
-          <a:ext cx="95250" cy="123825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>93095</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>198902</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E5D7C6-D8BE-470F-83D0-34C94536DF3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F89FC82-B4E2-49C5-883A-81A717AB066A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6003,8 +5892,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3750695" y="3640920"/>
-          <a:ext cx="105807" cy="137549"/>
+          <a:off x="2828677" y="2430116"/>
+          <a:ext cx="95250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145112</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>240362</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>248063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB193B8F-A904-4287-9BBB-E31B3759946A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828677" y="2430116"/>
+          <a:ext cx="95250" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6016,22 +5955,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>164990</xdr:colOff>
+      <xdr:colOff>145112</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>260240</xdr:colOff>
+      <xdr:colOff>240362</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>155298</xdr:rowOff>
+      <xdr:rowOff>248063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图形 1">
+        <xdr:cNvPr id="4" name="图形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4575B0-B553-468C-B077-F376E7F94AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB0892E-A6FE-4DD5-9D58-11D98132B2EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6040,10 +5979,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6053,57 +5992,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774590" y="3609560"/>
-          <a:ext cx="95250" cy="123825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>164990</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>260240</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>155298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F89FC82-B4E2-49C5-883A-81A717AB066A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774590" y="3609560"/>
+          <a:off x="2828677" y="2430116"/>
           <a:ext cx="95250" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6116,22 +6005,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>164990</xdr:colOff>
+      <xdr:colOff>145112</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>260240</xdr:colOff>
+      <xdr:colOff>240362</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>155298</xdr:rowOff>
+      <xdr:rowOff>248063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="图形 1">
+        <xdr:cNvPr id="5" name="图形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826D6471-A171-41CE-8643-891F3F6B7767}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F095633-6514-4C8C-A261-8A1ACE14B29D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6140,10 +6029,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6153,7 +6042,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774590" y="3609560"/>
+          <a:off x="2828677" y="2430116"/>
           <a:ext cx="95250" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6166,22 +6055,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>164990</xdr:colOff>
+      <xdr:colOff>145112</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260240</xdr:colOff>
+      <xdr:colOff>240362</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>155298</xdr:rowOff>
+      <xdr:rowOff>248063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="图形 1">
+        <xdr:cNvPr id="6" name="图形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD1204B-203B-44B1-826F-121AFC2DEF77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93FBA01-3744-4D63-9613-A316E598BE04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6190,10 +6079,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6203,7 +6092,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774590" y="3609560"/>
+          <a:off x="2828677" y="2430116"/>
           <a:ext cx="95250" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6216,22 +6105,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>164990</xdr:colOff>
+      <xdr:colOff>145112</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>260240</xdr:colOff>
+      <xdr:colOff>240362</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>155298</xdr:rowOff>
+      <xdr:rowOff>248063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="图形 1">
+        <xdr:cNvPr id="7" name="图形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EC8859-C12E-4ECD-BFBC-A1ABA9CA4A9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FDE0F0-A647-47F4-8E19-74FC2F84C003}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6240,10 +6129,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6253,7 +6142,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774590" y="3609560"/>
+          <a:off x="2828677" y="2430116"/>
           <a:ext cx="95250" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6266,22 +6155,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>164990</xdr:colOff>
+      <xdr:colOff>145112</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>260240</xdr:colOff>
+      <xdr:colOff>240362</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>155298</xdr:rowOff>
+      <xdr:rowOff>248063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="图形 1">
+        <xdr:cNvPr id="8" name="图形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A858E0-5582-4F76-AF0E-CDFB3FA76501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0213D1DE-D9F6-4362-88F2-7F1058710C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6290,10 +6179,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6303,7 +6192,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774590" y="3609560"/>
+          <a:off x="2828677" y="2430116"/>
           <a:ext cx="95250" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6603,78 +6492,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="6"/>
-    <col min="2" max="2" width="7.77734375" style="5"/>
-    <col min="3" max="3" width="8.21875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="7.77734375" style="5"/>
+    <col min="1" max="1" width="7.77734375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="4"/>
+    <col min="3" max="3" width="8.21875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="7.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" s="31" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="20" t="s">
         <v>634</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="21" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="37">
+      <c r="A2" s="26">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="3" t="s">
         <v>638</v>
       </c>
@@ -6717,12 +6606,12 @@
       <c r="P2" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="31">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6770,12 +6659,12 @@
       <c r="P3" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="31">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6823,12 +6712,12 @@
       <c r="P4" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="31">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -6876,12 +6765,12 @@
       <c r="P5" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="31">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6929,12 +6818,12 @@
       <c r="P6" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="31">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6982,12 +6871,12 @@
       <c r="P7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="31">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7035,12 +6924,12 @@
       <c r="P8" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="5" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="31">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -7088,12 +6977,12 @@
       <c r="P9" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="5" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -7141,12 +7030,12 @@
       <c r="P10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="5" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="31">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7194,12 +7083,12 @@
       <c r="P11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -7247,12 +7136,12 @@
       <c r="P12" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="5" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="27" t="s">
         <v>634</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -7300,12 +7189,12 @@
       <c r="P13" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="5" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="27" t="s">
         <v>635</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -7353,12 +7242,12 @@
       <c r="P14" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="5" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="27" t="s">
         <v>636</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -7406,85 +7295,84 @@
       <c r="P15" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="16" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:17" ht="30" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7497,2838 +7385,918 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E095E-DB13-4153-9AD3-79C6D9D475CA}">
-  <dimension ref="A1:XER17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="25" customWidth="1"/>
+    <col min="2" max="17" width="7.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" s="35" customFormat="1" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" s="22" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="19" t="s">
         <v>986</v>
       </c>
-      <c r="B1" s="35">
+      <c r="B1" s="20">
         <v>0</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="20">
         <v>1</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="20">
         <v>2</v>
       </c>
-      <c r="E1" s="35">
+      <c r="E1" s="20">
         <v>3</v>
       </c>
-      <c r="F1" s="35">
+      <c r="F1" s="20">
         <v>4</v>
       </c>
-      <c r="G1" s="35">
+      <c r="G1" s="20">
         <v>5</v>
       </c>
-      <c r="H1" s="35">
+      <c r="H1" s="20">
         <v>6</v>
       </c>
-      <c r="I1" s="35">
+      <c r="I1" s="20">
         <v>7</v>
       </c>
-      <c r="J1" s="35">
+      <c r="J1" s="20">
         <v>8</v>
       </c>
-      <c r="K1" s="35">
+      <c r="K1" s="20">
         <v>9</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="34"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="34"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="34"/>
-      <c r="CG1" s="36"/>
-      <c r="CH1" s="34"/>
-      <c r="CX1" s="36"/>
-      <c r="CY1" s="34"/>
-      <c r="DO1" s="36"/>
-      <c r="DP1" s="34"/>
-      <c r="EF1" s="36"/>
-      <c r="EG1" s="34"/>
-      <c r="EW1" s="36"/>
-      <c r="EX1" s="34"/>
-      <c r="FN1" s="36"/>
-      <c r="FO1" s="34"/>
-      <c r="GE1" s="36"/>
-      <c r="GF1" s="34"/>
-      <c r="GV1" s="36"/>
-      <c r="GW1" s="34"/>
-      <c r="HM1" s="36"/>
-      <c r="HN1" s="34"/>
-      <c r="ID1" s="36"/>
-      <c r="IE1" s="34"/>
-      <c r="IU1" s="36"/>
-      <c r="IV1" s="34"/>
-      <c r="JL1" s="36"/>
-      <c r="JM1" s="34"/>
-      <c r="KC1" s="36"/>
-      <c r="KD1" s="34"/>
-      <c r="KT1" s="36"/>
-      <c r="KU1" s="34"/>
-      <c r="LK1" s="36"/>
-      <c r="LL1" s="34"/>
-      <c r="MB1" s="36"/>
-      <c r="MC1" s="34"/>
-      <c r="MS1" s="36"/>
-      <c r="MT1" s="34"/>
-      <c r="NJ1" s="36"/>
-      <c r="NK1" s="34"/>
-      <c r="OA1" s="36"/>
-      <c r="OB1" s="34"/>
-      <c r="OR1" s="36"/>
-      <c r="OS1" s="34"/>
-      <c r="PI1" s="36"/>
-      <c r="PJ1" s="34"/>
-      <c r="PZ1" s="36"/>
-      <c r="QA1" s="34"/>
-      <c r="QQ1" s="36"/>
-      <c r="QR1" s="34"/>
-      <c r="RH1" s="36"/>
-      <c r="RI1" s="34"/>
-      <c r="RY1" s="36"/>
-      <c r="RZ1" s="34"/>
-      <c r="SP1" s="36"/>
-      <c r="SQ1" s="34"/>
-      <c r="TG1" s="36"/>
-      <c r="TH1" s="34"/>
-      <c r="TX1" s="36"/>
-      <c r="TY1" s="34"/>
-      <c r="UO1" s="36"/>
-      <c r="UP1" s="34"/>
-      <c r="VF1" s="36"/>
-      <c r="VG1" s="34"/>
-      <c r="VW1" s="36"/>
-      <c r="VX1" s="34"/>
-      <c r="WN1" s="36"/>
-      <c r="WO1" s="34"/>
-      <c r="XE1" s="36"/>
-      <c r="XF1" s="34"/>
-      <c r="XV1" s="36"/>
-      <c r="XW1" s="34"/>
-      <c r="YM1" s="36"/>
-      <c r="YN1" s="34"/>
-      <c r="ZD1" s="36"/>
-      <c r="ZE1" s="34"/>
-      <c r="ZU1" s="36"/>
-      <c r="ZV1" s="34"/>
-      <c r="AAL1" s="36"/>
-      <c r="AAM1" s="34"/>
-      <c r="ABC1" s="36"/>
-      <c r="ABD1" s="34"/>
-      <c r="ABT1" s="36"/>
-      <c r="ABU1" s="34"/>
-      <c r="ACK1" s="36"/>
-      <c r="ACL1" s="34"/>
-      <c r="ADB1" s="36"/>
-      <c r="ADC1" s="34"/>
-      <c r="ADS1" s="36"/>
-      <c r="ADT1" s="34"/>
-      <c r="AEJ1" s="36"/>
-      <c r="AEK1" s="34"/>
-      <c r="AFA1" s="36"/>
-      <c r="AFB1" s="34"/>
-      <c r="AFR1" s="36"/>
-      <c r="AFS1" s="34"/>
-      <c r="AGI1" s="36"/>
-      <c r="AGJ1" s="34"/>
-      <c r="AGZ1" s="36"/>
-      <c r="AHA1" s="34"/>
-      <c r="AHQ1" s="36"/>
-      <c r="AHR1" s="34"/>
-      <c r="AIH1" s="36"/>
-      <c r="AII1" s="34"/>
-      <c r="AIY1" s="36"/>
-      <c r="AIZ1" s="34"/>
-      <c r="AJP1" s="36"/>
-      <c r="AJQ1" s="34"/>
-      <c r="AKG1" s="36"/>
-      <c r="AKH1" s="34"/>
-      <c r="AKX1" s="36"/>
-      <c r="AKY1" s="34"/>
-      <c r="ALO1" s="36"/>
-      <c r="ALP1" s="34"/>
-      <c r="AMF1" s="36"/>
-      <c r="AMG1" s="34"/>
-      <c r="AMW1" s="36"/>
-      <c r="AMX1" s="34"/>
-      <c r="ANN1" s="36"/>
-      <c r="ANO1" s="34"/>
-      <c r="AOE1" s="36"/>
-      <c r="AOF1" s="34"/>
-      <c r="AOV1" s="36"/>
-      <c r="AOW1" s="34"/>
-      <c r="APM1" s="36"/>
-      <c r="APN1" s="34"/>
-      <c r="AQD1" s="36"/>
-      <c r="AQE1" s="34"/>
-      <c r="AQU1" s="36"/>
-      <c r="AQV1" s="34"/>
-      <c r="ARL1" s="36"/>
-      <c r="ARM1" s="34"/>
-      <c r="ASC1" s="36"/>
-      <c r="ASD1" s="34"/>
-      <c r="AST1" s="36"/>
-      <c r="ASU1" s="34"/>
-      <c r="ATK1" s="36"/>
-      <c r="ATL1" s="34"/>
-      <c r="AUB1" s="36"/>
-      <c r="AUC1" s="34"/>
-      <c r="AUS1" s="36"/>
-      <c r="AUT1" s="34"/>
-      <c r="AVJ1" s="36"/>
-      <c r="AVK1" s="34"/>
-      <c r="AWA1" s="36"/>
-      <c r="AWB1" s="34"/>
-      <c r="AWR1" s="36"/>
-      <c r="AWS1" s="34"/>
-      <c r="AXI1" s="36"/>
-      <c r="AXJ1" s="34"/>
-      <c r="AXZ1" s="36"/>
-      <c r="AYA1" s="34"/>
-      <c r="AYQ1" s="36"/>
-      <c r="AYR1" s="34"/>
-      <c r="AZH1" s="36"/>
-      <c r="AZI1" s="34"/>
-      <c r="AZY1" s="36"/>
-      <c r="AZZ1" s="34"/>
-      <c r="BAP1" s="36"/>
-      <c r="BAQ1" s="34"/>
-      <c r="BBG1" s="36"/>
-      <c r="BBH1" s="34"/>
-      <c r="BBX1" s="36"/>
-      <c r="BBY1" s="34"/>
-      <c r="BCO1" s="36"/>
-      <c r="BCP1" s="34"/>
-      <c r="BDF1" s="36"/>
-      <c r="BDG1" s="34"/>
-      <c r="BDW1" s="36"/>
-      <c r="BDX1" s="34"/>
-      <c r="BEN1" s="36"/>
-      <c r="BEO1" s="34"/>
-      <c r="BFE1" s="36"/>
-      <c r="BFF1" s="34"/>
-      <c r="BFV1" s="36"/>
-      <c r="BFW1" s="34"/>
-      <c r="BGM1" s="36"/>
-      <c r="BGN1" s="34"/>
-      <c r="BHD1" s="36"/>
-      <c r="BHE1" s="34"/>
-      <c r="BHU1" s="36"/>
-      <c r="BHV1" s="34"/>
-      <c r="BIL1" s="36"/>
-      <c r="BIM1" s="34"/>
-      <c r="BJC1" s="36"/>
-      <c r="BJD1" s="34"/>
-      <c r="BJT1" s="36"/>
-      <c r="BJU1" s="34"/>
-      <c r="BKK1" s="36"/>
-      <c r="BKL1" s="34"/>
-      <c r="BLB1" s="36"/>
-      <c r="BLC1" s="34"/>
-      <c r="BLS1" s="36"/>
-      <c r="BLT1" s="34"/>
-      <c r="BMJ1" s="36"/>
-      <c r="BMK1" s="34"/>
-      <c r="BNA1" s="36"/>
-      <c r="BNB1" s="34"/>
-      <c r="BNR1" s="36"/>
-      <c r="BNS1" s="34"/>
-      <c r="BOI1" s="36"/>
-      <c r="BOJ1" s="34"/>
-      <c r="BOZ1" s="36"/>
-      <c r="BPA1" s="34"/>
-      <c r="BPQ1" s="36"/>
-      <c r="BPR1" s="34"/>
-      <c r="BQH1" s="36"/>
-      <c r="BQI1" s="34"/>
-      <c r="BQY1" s="36"/>
-      <c r="BQZ1" s="34"/>
-      <c r="BRP1" s="36"/>
-      <c r="BRQ1" s="34"/>
-      <c r="BSG1" s="36"/>
-      <c r="BSH1" s="34"/>
-      <c r="BSX1" s="36"/>
-      <c r="BSY1" s="34"/>
-      <c r="BTO1" s="36"/>
-      <c r="BTP1" s="34"/>
-      <c r="BUF1" s="36"/>
-      <c r="BUG1" s="34"/>
-      <c r="BUW1" s="36"/>
-      <c r="BUX1" s="34"/>
-      <c r="BVN1" s="36"/>
-      <c r="BVO1" s="34"/>
-      <c r="BWE1" s="36"/>
-      <c r="BWF1" s="34"/>
-      <c r="BWV1" s="36"/>
-      <c r="BWW1" s="34"/>
-      <c r="BXM1" s="36"/>
-      <c r="BXN1" s="34"/>
-      <c r="BYD1" s="36"/>
-      <c r="BYE1" s="34"/>
-      <c r="BYU1" s="36"/>
-      <c r="BYV1" s="34"/>
-      <c r="BZL1" s="36"/>
-      <c r="BZM1" s="34"/>
-      <c r="CAC1" s="36"/>
-      <c r="CAD1" s="34"/>
-      <c r="CAT1" s="36"/>
-      <c r="CAU1" s="34"/>
-      <c r="CBK1" s="36"/>
-      <c r="CBL1" s="34"/>
-      <c r="CCB1" s="36"/>
-      <c r="CCC1" s="34"/>
-      <c r="CCS1" s="36"/>
-      <c r="CCT1" s="34"/>
-      <c r="CDJ1" s="36"/>
-      <c r="CDK1" s="34"/>
-      <c r="CEA1" s="36"/>
-      <c r="CEB1" s="34"/>
-      <c r="CER1" s="36"/>
-      <c r="CES1" s="34"/>
-      <c r="CFI1" s="36"/>
-      <c r="CFJ1" s="34"/>
-      <c r="CFZ1" s="36"/>
-      <c r="CGA1" s="34"/>
-      <c r="CGQ1" s="36"/>
-      <c r="CGR1" s="34"/>
-      <c r="CHH1" s="36"/>
-      <c r="CHI1" s="34"/>
-      <c r="CHY1" s="36"/>
-      <c r="CHZ1" s="34"/>
-      <c r="CIP1" s="36"/>
-      <c r="CIQ1" s="34"/>
-      <c r="CJG1" s="36"/>
-      <c r="CJH1" s="34"/>
-      <c r="CJX1" s="36"/>
-      <c r="CJY1" s="34"/>
-      <c r="CKO1" s="36"/>
-      <c r="CKP1" s="34"/>
-      <c r="CLF1" s="36"/>
-      <c r="CLG1" s="34"/>
-      <c r="CLW1" s="36"/>
-      <c r="CLX1" s="34"/>
-      <c r="CMN1" s="36"/>
-      <c r="CMO1" s="34"/>
-      <c r="CNE1" s="36"/>
-      <c r="CNF1" s="34"/>
-      <c r="CNV1" s="36"/>
-      <c r="CNW1" s="34"/>
-      <c r="COM1" s="36"/>
-      <c r="CON1" s="34"/>
-      <c r="CPD1" s="36"/>
-      <c r="CPE1" s="34"/>
-      <c r="CPU1" s="36"/>
-      <c r="CPV1" s="34"/>
-      <c r="CQL1" s="36"/>
-      <c r="CQM1" s="34"/>
-      <c r="CRC1" s="36"/>
-      <c r="CRD1" s="34"/>
-      <c r="CRT1" s="36"/>
-      <c r="CRU1" s="34"/>
-      <c r="CSK1" s="36"/>
-      <c r="CSL1" s="34"/>
-      <c r="CTB1" s="36"/>
-      <c r="CTC1" s="34"/>
-      <c r="CTS1" s="36"/>
-      <c r="CTT1" s="34"/>
-      <c r="CUJ1" s="36"/>
-      <c r="CUK1" s="34"/>
-      <c r="CVA1" s="36"/>
-      <c r="CVB1" s="34"/>
-      <c r="CVR1" s="36"/>
-      <c r="CVS1" s="34"/>
-      <c r="CWI1" s="36"/>
-      <c r="CWJ1" s="34"/>
-      <c r="CWZ1" s="36"/>
-      <c r="CXA1" s="34"/>
-      <c r="CXQ1" s="36"/>
-      <c r="CXR1" s="34"/>
-      <c r="CYH1" s="36"/>
-      <c r="CYI1" s="34"/>
-      <c r="CYY1" s="36"/>
-      <c r="CYZ1" s="34"/>
-      <c r="CZP1" s="36"/>
-      <c r="CZQ1" s="34"/>
-      <c r="DAG1" s="36"/>
-      <c r="DAH1" s="34"/>
-      <c r="DAX1" s="36"/>
-      <c r="DAY1" s="34"/>
-      <c r="DBO1" s="36"/>
-      <c r="DBP1" s="34"/>
-      <c r="DCF1" s="36"/>
-      <c r="DCG1" s="34"/>
-      <c r="DCW1" s="36"/>
-      <c r="DCX1" s="34"/>
-      <c r="DDN1" s="36"/>
-      <c r="DDO1" s="34"/>
-      <c r="DEE1" s="36"/>
-      <c r="DEF1" s="34"/>
-      <c r="DEV1" s="36"/>
-      <c r="DEW1" s="34"/>
-      <c r="DFM1" s="36"/>
-      <c r="DFN1" s="34"/>
-      <c r="DGD1" s="36"/>
-      <c r="DGE1" s="34"/>
-      <c r="DGU1" s="36"/>
-      <c r="DGV1" s="34"/>
-      <c r="DHL1" s="36"/>
-      <c r="DHM1" s="34"/>
-      <c r="DIC1" s="36"/>
-      <c r="DID1" s="34"/>
-      <c r="DIT1" s="36"/>
-      <c r="DIU1" s="34"/>
-      <c r="DJK1" s="36"/>
-      <c r="DJL1" s="34"/>
-      <c r="DKB1" s="36"/>
-      <c r="DKC1" s="34"/>
-      <c r="DKS1" s="36"/>
-      <c r="DKT1" s="34"/>
-      <c r="DLJ1" s="36"/>
-      <c r="DLK1" s="34"/>
-      <c r="DMA1" s="36"/>
-      <c r="DMB1" s="34"/>
-      <c r="DMR1" s="36"/>
-      <c r="DMS1" s="34"/>
-      <c r="DNI1" s="36"/>
-      <c r="DNJ1" s="34"/>
-      <c r="DNZ1" s="36"/>
-      <c r="DOA1" s="34"/>
-      <c r="DOQ1" s="36"/>
-      <c r="DOR1" s="34"/>
-      <c r="DPH1" s="36"/>
-      <c r="DPI1" s="34"/>
-      <c r="DPY1" s="36"/>
-      <c r="DPZ1" s="34"/>
-      <c r="DQP1" s="36"/>
-      <c r="DQQ1" s="34"/>
-      <c r="DRG1" s="36"/>
-      <c r="DRH1" s="34"/>
-      <c r="DRX1" s="36"/>
-      <c r="DRY1" s="34"/>
-      <c r="DSO1" s="36"/>
-      <c r="DSP1" s="34"/>
-      <c r="DTF1" s="36"/>
-      <c r="DTG1" s="34"/>
-      <c r="DTW1" s="36"/>
-      <c r="DTX1" s="34"/>
-      <c r="DUN1" s="36"/>
-      <c r="DUO1" s="34"/>
-      <c r="DVE1" s="36"/>
-      <c r="DVF1" s="34"/>
-      <c r="DVV1" s="36"/>
-      <c r="DVW1" s="34"/>
-      <c r="DWM1" s="36"/>
-      <c r="DWN1" s="34"/>
-      <c r="DXD1" s="36"/>
-      <c r="DXE1" s="34"/>
-      <c r="DXU1" s="36"/>
-      <c r="DXV1" s="34"/>
-      <c r="DYL1" s="36"/>
-      <c r="DYM1" s="34"/>
-      <c r="DZC1" s="36"/>
-      <c r="DZD1" s="34"/>
-      <c r="DZT1" s="36"/>
-      <c r="DZU1" s="34"/>
-      <c r="EAK1" s="36"/>
-      <c r="EAL1" s="34"/>
-      <c r="EBB1" s="36"/>
-      <c r="EBC1" s="34"/>
-      <c r="EBS1" s="36"/>
-      <c r="EBT1" s="34"/>
-      <c r="ECJ1" s="36"/>
-      <c r="ECK1" s="34"/>
-      <c r="EDA1" s="36"/>
-      <c r="EDB1" s="34"/>
-      <c r="EDR1" s="36"/>
-      <c r="EDS1" s="34"/>
-      <c r="EEI1" s="36"/>
-      <c r="EEJ1" s="34"/>
-      <c r="EEZ1" s="36"/>
-      <c r="EFA1" s="34"/>
-      <c r="EFQ1" s="36"/>
-      <c r="EFR1" s="34"/>
-      <c r="EGH1" s="36"/>
-      <c r="EGI1" s="34"/>
-      <c r="EGY1" s="36"/>
-      <c r="EGZ1" s="34"/>
-      <c r="EHP1" s="36"/>
-      <c r="EHQ1" s="34"/>
-      <c r="EIG1" s="36"/>
-      <c r="EIH1" s="34"/>
-      <c r="EIX1" s="36"/>
-      <c r="EIY1" s="34"/>
-      <c r="EJO1" s="36"/>
-      <c r="EJP1" s="34"/>
-      <c r="EKF1" s="36"/>
-      <c r="EKG1" s="34"/>
-      <c r="EKW1" s="36"/>
-      <c r="EKX1" s="34"/>
-      <c r="ELN1" s="36"/>
-      <c r="ELO1" s="34"/>
-      <c r="EME1" s="36"/>
-      <c r="EMF1" s="34"/>
-      <c r="EMV1" s="36"/>
-      <c r="EMW1" s="34"/>
-      <c r="ENM1" s="36"/>
-      <c r="ENN1" s="34"/>
-      <c r="EOD1" s="36"/>
-      <c r="EOE1" s="34"/>
-      <c r="EOU1" s="36"/>
-      <c r="EOV1" s="34"/>
-      <c r="EPL1" s="36"/>
-      <c r="EPM1" s="34"/>
-      <c r="EQC1" s="36"/>
-      <c r="EQD1" s="34"/>
-      <c r="EQT1" s="36"/>
-      <c r="EQU1" s="34"/>
-      <c r="ERK1" s="36"/>
-      <c r="ERL1" s="34"/>
-      <c r="ESB1" s="36"/>
-      <c r="ESC1" s="34"/>
-      <c r="ESS1" s="36"/>
-      <c r="EST1" s="34"/>
-      <c r="ETJ1" s="36"/>
-      <c r="ETK1" s="34"/>
-      <c r="EUA1" s="36"/>
-      <c r="EUB1" s="34"/>
-      <c r="EUR1" s="36"/>
-      <c r="EUS1" s="34"/>
-      <c r="EVI1" s="36"/>
-      <c r="EVJ1" s="34"/>
-      <c r="EVZ1" s="36"/>
-      <c r="EWA1" s="34"/>
-      <c r="EWQ1" s="36"/>
-      <c r="EWR1" s="34"/>
-      <c r="EXH1" s="36"/>
-      <c r="EXI1" s="34"/>
-      <c r="EXY1" s="36"/>
-      <c r="EXZ1" s="34"/>
-      <c r="EYP1" s="36"/>
-      <c r="EYQ1" s="34"/>
-      <c r="EZG1" s="36"/>
-      <c r="EZH1" s="34"/>
-      <c r="EZX1" s="36"/>
-      <c r="EZY1" s="34"/>
-      <c r="FAO1" s="36"/>
-      <c r="FAP1" s="34"/>
-      <c r="FBF1" s="36"/>
-      <c r="FBG1" s="34"/>
-      <c r="FBW1" s="36"/>
-      <c r="FBX1" s="34"/>
-      <c r="FCN1" s="36"/>
-      <c r="FCO1" s="34"/>
-      <c r="FDE1" s="36"/>
-      <c r="FDF1" s="34"/>
-      <c r="FDV1" s="36"/>
-      <c r="FDW1" s="34"/>
-      <c r="FEM1" s="36"/>
-      <c r="FEN1" s="34"/>
-      <c r="FFD1" s="36"/>
-      <c r="FFE1" s="34"/>
-      <c r="FFU1" s="36"/>
-      <c r="FFV1" s="34"/>
-      <c r="FGL1" s="36"/>
-      <c r="FGM1" s="34"/>
-      <c r="FHC1" s="36"/>
-      <c r="FHD1" s="34"/>
-      <c r="FHT1" s="36"/>
-      <c r="FHU1" s="34"/>
-      <c r="FIK1" s="36"/>
-      <c r="FIL1" s="34"/>
-      <c r="FJB1" s="36"/>
-      <c r="FJC1" s="34"/>
-      <c r="FJS1" s="36"/>
-      <c r="FJT1" s="34"/>
-      <c r="FKJ1" s="36"/>
-      <c r="FKK1" s="34"/>
-      <c r="FLA1" s="36"/>
-      <c r="FLB1" s="34"/>
-      <c r="FLR1" s="36"/>
-      <c r="FLS1" s="34"/>
-      <c r="FMI1" s="36"/>
-      <c r="FMJ1" s="34"/>
-      <c r="FMZ1" s="36"/>
-      <c r="FNA1" s="34"/>
-      <c r="FNQ1" s="36"/>
-      <c r="FNR1" s="34"/>
-      <c r="FOH1" s="36"/>
-      <c r="FOI1" s="34"/>
-      <c r="FOY1" s="36"/>
-      <c r="FOZ1" s="34"/>
-      <c r="FPP1" s="36"/>
-      <c r="FPQ1" s="34"/>
-      <c r="FQG1" s="36"/>
-      <c r="FQH1" s="34"/>
-      <c r="FQX1" s="36"/>
-      <c r="FQY1" s="34"/>
-      <c r="FRO1" s="36"/>
-      <c r="FRP1" s="34"/>
-      <c r="FSF1" s="36"/>
-      <c r="FSG1" s="34"/>
-      <c r="FSW1" s="36"/>
-      <c r="FSX1" s="34"/>
-      <c r="FTN1" s="36"/>
-      <c r="FTO1" s="34"/>
-      <c r="FUE1" s="36"/>
-      <c r="FUF1" s="34"/>
-      <c r="FUV1" s="36"/>
-      <c r="FUW1" s="34"/>
-      <c r="FVM1" s="36"/>
-      <c r="FVN1" s="34"/>
-      <c r="FWD1" s="36"/>
-      <c r="FWE1" s="34"/>
-      <c r="FWU1" s="36"/>
-      <c r="FWV1" s="34"/>
-      <c r="FXL1" s="36"/>
-      <c r="FXM1" s="34"/>
-      <c r="FYC1" s="36"/>
-      <c r="FYD1" s="34"/>
-      <c r="FYT1" s="36"/>
-      <c r="FYU1" s="34"/>
-      <c r="FZK1" s="36"/>
-      <c r="FZL1" s="34"/>
-      <c r="GAB1" s="36"/>
-      <c r="GAC1" s="34"/>
-      <c r="GAS1" s="36"/>
-      <c r="GAT1" s="34"/>
-      <c r="GBJ1" s="36"/>
-      <c r="GBK1" s="34"/>
-      <c r="GCA1" s="36"/>
-      <c r="GCB1" s="34"/>
-      <c r="GCR1" s="36"/>
-      <c r="GCS1" s="34"/>
-      <c r="GDI1" s="36"/>
-      <c r="GDJ1" s="34"/>
-      <c r="GDZ1" s="36"/>
-      <c r="GEA1" s="34"/>
-      <c r="GEQ1" s="36"/>
-      <c r="GER1" s="34"/>
-      <c r="GFH1" s="36"/>
-      <c r="GFI1" s="34"/>
-      <c r="GFY1" s="36"/>
-      <c r="GFZ1" s="34"/>
-      <c r="GGP1" s="36"/>
-      <c r="GGQ1" s="34"/>
-      <c r="GHG1" s="36"/>
-      <c r="GHH1" s="34"/>
-      <c r="GHX1" s="36"/>
-      <c r="GHY1" s="34"/>
-      <c r="GIO1" s="36"/>
-      <c r="GIP1" s="34"/>
-      <c r="GJF1" s="36"/>
-      <c r="GJG1" s="34"/>
-      <c r="GJW1" s="36"/>
-      <c r="GJX1" s="34"/>
-      <c r="GKN1" s="36"/>
-      <c r="GKO1" s="34"/>
-      <c r="GLE1" s="36"/>
-      <c r="GLF1" s="34"/>
-      <c r="GLV1" s="36"/>
-      <c r="GLW1" s="34"/>
-      <c r="GMM1" s="36"/>
-      <c r="GMN1" s="34"/>
-      <c r="GND1" s="36"/>
-      <c r="GNE1" s="34"/>
-      <c r="GNU1" s="36"/>
-      <c r="GNV1" s="34"/>
-      <c r="GOL1" s="36"/>
-      <c r="GOM1" s="34"/>
-      <c r="GPC1" s="36"/>
-      <c r="GPD1" s="34"/>
-      <c r="GPT1" s="36"/>
-      <c r="GPU1" s="34"/>
-      <c r="GQK1" s="36"/>
-      <c r="GQL1" s="34"/>
-      <c r="GRB1" s="36"/>
-      <c r="GRC1" s="34"/>
-      <c r="GRS1" s="36"/>
-      <c r="GRT1" s="34"/>
-      <c r="GSJ1" s="36"/>
-      <c r="GSK1" s="34"/>
-      <c r="GTA1" s="36"/>
-      <c r="GTB1" s="34"/>
-      <c r="GTR1" s="36"/>
-      <c r="GTS1" s="34"/>
-      <c r="GUI1" s="36"/>
-      <c r="GUJ1" s="34"/>
-      <c r="GUZ1" s="36"/>
-      <c r="GVA1" s="34"/>
-      <c r="GVQ1" s="36"/>
-      <c r="GVR1" s="34"/>
-      <c r="GWH1" s="36"/>
-      <c r="GWI1" s="34"/>
-      <c r="GWY1" s="36"/>
-      <c r="GWZ1" s="34"/>
-      <c r="GXP1" s="36"/>
-      <c r="GXQ1" s="34"/>
-      <c r="GYG1" s="36"/>
-      <c r="GYH1" s="34"/>
-      <c r="GYX1" s="36"/>
-      <c r="GYY1" s="34"/>
-      <c r="GZO1" s="36"/>
-      <c r="GZP1" s="34"/>
-      <c r="HAF1" s="36"/>
-      <c r="HAG1" s="34"/>
-      <c r="HAW1" s="36"/>
-      <c r="HAX1" s="34"/>
-      <c r="HBN1" s="36"/>
-      <c r="HBO1" s="34"/>
-      <c r="HCE1" s="36"/>
-      <c r="HCF1" s="34"/>
-      <c r="HCV1" s="36"/>
-      <c r="HCW1" s="34"/>
-      <c r="HDM1" s="36"/>
-      <c r="HDN1" s="34"/>
-      <c r="HED1" s="36"/>
-      <c r="HEE1" s="34"/>
-      <c r="HEU1" s="36"/>
-      <c r="HEV1" s="34"/>
-      <c r="HFL1" s="36"/>
-      <c r="HFM1" s="34"/>
-      <c r="HGC1" s="36"/>
-      <c r="HGD1" s="34"/>
-      <c r="HGT1" s="36"/>
-      <c r="HGU1" s="34"/>
-      <c r="HHK1" s="36"/>
-      <c r="HHL1" s="34"/>
-      <c r="HIB1" s="36"/>
-      <c r="HIC1" s="34"/>
-      <c r="HIS1" s="36"/>
-      <c r="HIT1" s="34"/>
-      <c r="HJJ1" s="36"/>
-      <c r="HJK1" s="34"/>
-      <c r="HKA1" s="36"/>
-      <c r="HKB1" s="34"/>
-      <c r="HKR1" s="36"/>
-      <c r="HKS1" s="34"/>
-      <c r="HLI1" s="36"/>
-      <c r="HLJ1" s="34"/>
-      <c r="HLZ1" s="36"/>
-      <c r="HMA1" s="34"/>
-      <c r="HMQ1" s="36"/>
-      <c r="HMR1" s="34"/>
-      <c r="HNH1" s="36"/>
-      <c r="HNI1" s="34"/>
-      <c r="HNY1" s="36"/>
-      <c r="HNZ1" s="34"/>
-      <c r="HOP1" s="36"/>
-      <c r="HOQ1" s="34"/>
-      <c r="HPG1" s="36"/>
-      <c r="HPH1" s="34"/>
-      <c r="HPX1" s="36"/>
-      <c r="HPY1" s="34"/>
-      <c r="HQO1" s="36"/>
-      <c r="HQP1" s="34"/>
-      <c r="HRF1" s="36"/>
-      <c r="HRG1" s="34"/>
-      <c r="HRW1" s="36"/>
-      <c r="HRX1" s="34"/>
-      <c r="HSN1" s="36"/>
-      <c r="HSO1" s="34"/>
-      <c r="HTE1" s="36"/>
-      <c r="HTF1" s="34"/>
-      <c r="HTV1" s="36"/>
-      <c r="HTW1" s="34"/>
-      <c r="HUM1" s="36"/>
-      <c r="HUN1" s="34"/>
-      <c r="HVD1" s="36"/>
-      <c r="HVE1" s="34"/>
-      <c r="HVU1" s="36"/>
-      <c r="HVV1" s="34"/>
-      <c r="HWL1" s="36"/>
-      <c r="HWM1" s="34"/>
-      <c r="HXC1" s="36"/>
-      <c r="HXD1" s="34"/>
-      <c r="HXT1" s="36"/>
-      <c r="HXU1" s="34"/>
-      <c r="HYK1" s="36"/>
-      <c r="HYL1" s="34"/>
-      <c r="HZB1" s="36"/>
-      <c r="HZC1" s="34"/>
-      <c r="HZS1" s="36"/>
-      <c r="HZT1" s="34"/>
-      <c r="IAJ1" s="36"/>
-      <c r="IAK1" s="34"/>
-      <c r="IBA1" s="36"/>
-      <c r="IBB1" s="34"/>
-      <c r="IBR1" s="36"/>
-      <c r="IBS1" s="34"/>
-      <c r="ICI1" s="36"/>
-      <c r="ICJ1" s="34"/>
-      <c r="ICZ1" s="36"/>
-      <c r="IDA1" s="34"/>
-      <c r="IDQ1" s="36"/>
-      <c r="IDR1" s="34"/>
-      <c r="IEH1" s="36"/>
-      <c r="IEI1" s="34"/>
-      <c r="IEY1" s="36"/>
-      <c r="IEZ1" s="34"/>
-      <c r="IFP1" s="36"/>
-      <c r="IFQ1" s="34"/>
-      <c r="IGG1" s="36"/>
-      <c r="IGH1" s="34"/>
-      <c r="IGX1" s="36"/>
-      <c r="IGY1" s="34"/>
-      <c r="IHO1" s="36"/>
-      <c r="IHP1" s="34"/>
-      <c r="IIF1" s="36"/>
-      <c r="IIG1" s="34"/>
-      <c r="IIW1" s="36"/>
-      <c r="IIX1" s="34"/>
-      <c r="IJN1" s="36"/>
-      <c r="IJO1" s="34"/>
-      <c r="IKE1" s="36"/>
-      <c r="IKF1" s="34"/>
-      <c r="IKV1" s="36"/>
-      <c r="IKW1" s="34"/>
-      <c r="ILM1" s="36"/>
-      <c r="ILN1" s="34"/>
-      <c r="IMD1" s="36"/>
-      <c r="IME1" s="34"/>
-      <c r="IMU1" s="36"/>
-      <c r="IMV1" s="34"/>
-      <c r="INL1" s="36"/>
-      <c r="INM1" s="34"/>
-      <c r="IOC1" s="36"/>
-      <c r="IOD1" s="34"/>
-      <c r="IOT1" s="36"/>
-      <c r="IOU1" s="34"/>
-      <c r="IPK1" s="36"/>
-      <c r="IPL1" s="34"/>
-      <c r="IQB1" s="36"/>
-      <c r="IQC1" s="34"/>
-      <c r="IQS1" s="36"/>
-      <c r="IQT1" s="34"/>
-      <c r="IRJ1" s="36"/>
-      <c r="IRK1" s="34"/>
-      <c r="ISA1" s="36"/>
-      <c r="ISB1" s="34"/>
-      <c r="ISR1" s="36"/>
-      <c r="ISS1" s="34"/>
-      <c r="ITI1" s="36"/>
-      <c r="ITJ1" s="34"/>
-      <c r="ITZ1" s="36"/>
-      <c r="IUA1" s="34"/>
-      <c r="IUQ1" s="36"/>
-      <c r="IUR1" s="34"/>
-      <c r="IVH1" s="36"/>
-      <c r="IVI1" s="34"/>
-      <c r="IVY1" s="36"/>
-      <c r="IVZ1" s="34"/>
-      <c r="IWP1" s="36"/>
-      <c r="IWQ1" s="34"/>
-      <c r="IXG1" s="36"/>
-      <c r="IXH1" s="34"/>
-      <c r="IXX1" s="36"/>
-      <c r="IXY1" s="34"/>
-      <c r="IYO1" s="36"/>
-      <c r="IYP1" s="34"/>
-      <c r="IZF1" s="36"/>
-      <c r="IZG1" s="34"/>
-      <c r="IZW1" s="36"/>
-      <c r="IZX1" s="34"/>
-      <c r="JAN1" s="36"/>
-      <c r="JAO1" s="34"/>
-      <c r="JBE1" s="36"/>
-      <c r="JBF1" s="34"/>
-      <c r="JBV1" s="36"/>
-      <c r="JBW1" s="34"/>
-      <c r="JCM1" s="36"/>
-      <c r="JCN1" s="34"/>
-      <c r="JDD1" s="36"/>
-      <c r="JDE1" s="34"/>
-      <c r="JDU1" s="36"/>
-      <c r="JDV1" s="34"/>
-      <c r="JEL1" s="36"/>
-      <c r="JEM1" s="34"/>
-      <c r="JFC1" s="36"/>
-      <c r="JFD1" s="34"/>
-      <c r="JFT1" s="36"/>
-      <c r="JFU1" s="34"/>
-      <c r="JGK1" s="36"/>
-      <c r="JGL1" s="34"/>
-      <c r="JHB1" s="36"/>
-      <c r="JHC1" s="34"/>
-      <c r="JHS1" s="36"/>
-      <c r="JHT1" s="34"/>
-      <c r="JIJ1" s="36"/>
-      <c r="JIK1" s="34"/>
-      <c r="JJA1" s="36"/>
-      <c r="JJB1" s="34"/>
-      <c r="JJR1" s="36"/>
-      <c r="JJS1" s="34"/>
-      <c r="JKI1" s="36"/>
-      <c r="JKJ1" s="34"/>
-      <c r="JKZ1" s="36"/>
-      <c r="JLA1" s="34"/>
-      <c r="JLQ1" s="36"/>
-      <c r="JLR1" s="34"/>
-      <c r="JMH1" s="36"/>
-      <c r="JMI1" s="34"/>
-      <c r="JMY1" s="36"/>
-      <c r="JMZ1" s="34"/>
-      <c r="JNP1" s="36"/>
-      <c r="JNQ1" s="34"/>
-      <c r="JOG1" s="36"/>
-      <c r="JOH1" s="34"/>
-      <c r="JOX1" s="36"/>
-      <c r="JOY1" s="34"/>
-      <c r="JPO1" s="36"/>
-      <c r="JPP1" s="34"/>
-      <c r="JQF1" s="36"/>
-      <c r="JQG1" s="34"/>
-      <c r="JQW1" s="36"/>
-      <c r="JQX1" s="34"/>
-      <c r="JRN1" s="36"/>
-      <c r="JRO1" s="34"/>
-      <c r="JSE1" s="36"/>
-      <c r="JSF1" s="34"/>
-      <c r="JSV1" s="36"/>
-      <c r="JSW1" s="34"/>
-      <c r="JTM1" s="36"/>
-      <c r="JTN1" s="34"/>
-      <c r="JUD1" s="36"/>
-      <c r="JUE1" s="34"/>
-      <c r="JUU1" s="36"/>
-      <c r="JUV1" s="34"/>
-      <c r="JVL1" s="36"/>
-      <c r="JVM1" s="34"/>
-      <c r="JWC1" s="36"/>
-      <c r="JWD1" s="34"/>
-      <c r="JWT1" s="36"/>
-      <c r="JWU1" s="34"/>
-      <c r="JXK1" s="36"/>
-      <c r="JXL1" s="34"/>
-      <c r="JYB1" s="36"/>
-      <c r="JYC1" s="34"/>
-      <c r="JYS1" s="36"/>
-      <c r="JYT1" s="34"/>
-      <c r="JZJ1" s="36"/>
-      <c r="JZK1" s="34"/>
-      <c r="KAA1" s="36"/>
-      <c r="KAB1" s="34"/>
-      <c r="KAR1" s="36"/>
-      <c r="KAS1" s="34"/>
-      <c r="KBI1" s="36"/>
-      <c r="KBJ1" s="34"/>
-      <c r="KBZ1" s="36"/>
-      <c r="KCA1" s="34"/>
-      <c r="KCQ1" s="36"/>
-      <c r="KCR1" s="34"/>
-      <c r="KDH1" s="36"/>
-      <c r="KDI1" s="34"/>
-      <c r="KDY1" s="36"/>
-      <c r="KDZ1" s="34"/>
-      <c r="KEP1" s="36"/>
-      <c r="KEQ1" s="34"/>
-      <c r="KFG1" s="36"/>
-      <c r="KFH1" s="34"/>
-      <c r="KFX1" s="36"/>
-      <c r="KFY1" s="34"/>
-      <c r="KGO1" s="36"/>
-      <c r="KGP1" s="34"/>
-      <c r="KHF1" s="36"/>
-      <c r="KHG1" s="34"/>
-      <c r="KHW1" s="36"/>
-      <c r="KHX1" s="34"/>
-      <c r="KIN1" s="36"/>
-      <c r="KIO1" s="34"/>
-      <c r="KJE1" s="36"/>
-      <c r="KJF1" s="34"/>
-      <c r="KJV1" s="36"/>
-      <c r="KJW1" s="34"/>
-      <c r="KKM1" s="36"/>
-      <c r="KKN1" s="34"/>
-      <c r="KLD1" s="36"/>
-      <c r="KLE1" s="34"/>
-      <c r="KLU1" s="36"/>
-      <c r="KLV1" s="34"/>
-      <c r="KML1" s="36"/>
-      <c r="KMM1" s="34"/>
-      <c r="KNC1" s="36"/>
-      <c r="KND1" s="34"/>
-      <c r="KNT1" s="36"/>
-      <c r="KNU1" s="34"/>
-      <c r="KOK1" s="36"/>
-      <c r="KOL1" s="34"/>
-      <c r="KPB1" s="36"/>
-      <c r="KPC1" s="34"/>
-      <c r="KPS1" s="36"/>
-      <c r="KPT1" s="34"/>
-      <c r="KQJ1" s="36"/>
-      <c r="KQK1" s="34"/>
-      <c r="KRA1" s="36"/>
-      <c r="KRB1" s="34"/>
-      <c r="KRR1" s="36"/>
-      <c r="KRS1" s="34"/>
-      <c r="KSI1" s="36"/>
-      <c r="KSJ1" s="34"/>
-      <c r="KSZ1" s="36"/>
-      <c r="KTA1" s="34"/>
-      <c r="KTQ1" s="36"/>
-      <c r="KTR1" s="34"/>
-      <c r="KUH1" s="36"/>
-      <c r="KUI1" s="34"/>
-      <c r="KUY1" s="36"/>
-      <c r="KUZ1" s="34"/>
-      <c r="KVP1" s="36"/>
-      <c r="KVQ1" s="34"/>
-      <c r="KWG1" s="36"/>
-      <c r="KWH1" s="34"/>
-      <c r="KWX1" s="36"/>
-      <c r="KWY1" s="34"/>
-      <c r="KXO1" s="36"/>
-      <c r="KXP1" s="34"/>
-      <c r="KYF1" s="36"/>
-      <c r="KYG1" s="34"/>
-      <c r="KYW1" s="36"/>
-      <c r="KYX1" s="34"/>
-      <c r="KZN1" s="36"/>
-      <c r="KZO1" s="34"/>
-      <c r="LAE1" s="36"/>
-      <c r="LAF1" s="34"/>
-      <c r="LAV1" s="36"/>
-      <c r="LAW1" s="34"/>
-      <c r="LBM1" s="36"/>
-      <c r="LBN1" s="34"/>
-      <c r="LCD1" s="36"/>
-      <c r="LCE1" s="34"/>
-      <c r="LCU1" s="36"/>
-      <c r="LCV1" s="34"/>
-      <c r="LDL1" s="36"/>
-      <c r="LDM1" s="34"/>
-      <c r="LEC1" s="36"/>
-      <c r="LED1" s="34"/>
-      <c r="LET1" s="36"/>
-      <c r="LEU1" s="34"/>
-      <c r="LFK1" s="36"/>
-      <c r="LFL1" s="34"/>
-      <c r="LGB1" s="36"/>
-      <c r="LGC1" s="34"/>
-      <c r="LGS1" s="36"/>
-      <c r="LGT1" s="34"/>
-      <c r="LHJ1" s="36"/>
-      <c r="LHK1" s="34"/>
-      <c r="LIA1" s="36"/>
-      <c r="LIB1" s="34"/>
-      <c r="LIR1" s="36"/>
-      <c r="LIS1" s="34"/>
-      <c r="LJI1" s="36"/>
-      <c r="LJJ1" s="34"/>
-      <c r="LJZ1" s="36"/>
-      <c r="LKA1" s="34"/>
-      <c r="LKQ1" s="36"/>
-      <c r="LKR1" s="34"/>
-      <c r="LLH1" s="36"/>
-      <c r="LLI1" s="34"/>
-      <c r="LLY1" s="36"/>
-      <c r="LLZ1" s="34"/>
-      <c r="LMP1" s="36"/>
-      <c r="LMQ1" s="34"/>
-      <c r="LNG1" s="36"/>
-      <c r="LNH1" s="34"/>
-      <c r="LNX1" s="36"/>
-      <c r="LNY1" s="34"/>
-      <c r="LOO1" s="36"/>
-      <c r="LOP1" s="34"/>
-      <c r="LPF1" s="36"/>
-      <c r="LPG1" s="34"/>
-      <c r="LPW1" s="36"/>
-      <c r="LPX1" s="34"/>
-      <c r="LQN1" s="36"/>
-      <c r="LQO1" s="34"/>
-      <c r="LRE1" s="36"/>
-      <c r="LRF1" s="34"/>
-      <c r="LRV1" s="36"/>
-      <c r="LRW1" s="34"/>
-      <c r="LSM1" s="36"/>
-      <c r="LSN1" s="34"/>
-      <c r="LTD1" s="36"/>
-      <c r="LTE1" s="34"/>
-      <c r="LTU1" s="36"/>
-      <c r="LTV1" s="34"/>
-      <c r="LUL1" s="36"/>
-      <c r="LUM1" s="34"/>
-      <c r="LVC1" s="36"/>
-      <c r="LVD1" s="34"/>
-      <c r="LVT1" s="36"/>
-      <c r="LVU1" s="34"/>
-      <c r="LWK1" s="36"/>
-      <c r="LWL1" s="34"/>
-      <c r="LXB1" s="36"/>
-      <c r="LXC1" s="34"/>
-      <c r="LXS1" s="36"/>
-      <c r="LXT1" s="34"/>
-      <c r="LYJ1" s="36"/>
-      <c r="LYK1" s="34"/>
-      <c r="LZA1" s="36"/>
-      <c r="LZB1" s="34"/>
-      <c r="LZR1" s="36"/>
-      <c r="LZS1" s="34"/>
-      <c r="MAI1" s="36"/>
-      <c r="MAJ1" s="34"/>
-      <c r="MAZ1" s="36"/>
-      <c r="MBA1" s="34"/>
-      <c r="MBQ1" s="36"/>
-      <c r="MBR1" s="34"/>
-      <c r="MCH1" s="36"/>
-      <c r="MCI1" s="34"/>
-      <c r="MCY1" s="36"/>
-      <c r="MCZ1" s="34"/>
-      <c r="MDP1" s="36"/>
-      <c r="MDQ1" s="34"/>
-      <c r="MEG1" s="36"/>
-      <c r="MEH1" s="34"/>
-      <c r="MEX1" s="36"/>
-      <c r="MEY1" s="34"/>
-      <c r="MFO1" s="36"/>
-      <c r="MFP1" s="34"/>
-      <c r="MGF1" s="36"/>
-      <c r="MGG1" s="34"/>
-      <c r="MGW1" s="36"/>
-      <c r="MGX1" s="34"/>
-      <c r="MHN1" s="36"/>
-      <c r="MHO1" s="34"/>
-      <c r="MIE1" s="36"/>
-      <c r="MIF1" s="34"/>
-      <c r="MIV1" s="36"/>
-      <c r="MIW1" s="34"/>
-      <c r="MJM1" s="36"/>
-      <c r="MJN1" s="34"/>
-      <c r="MKD1" s="36"/>
-      <c r="MKE1" s="34"/>
-      <c r="MKU1" s="36"/>
-      <c r="MKV1" s="34"/>
-      <c r="MLL1" s="36"/>
-      <c r="MLM1" s="34"/>
-      <c r="MMC1" s="36"/>
-      <c r="MMD1" s="34"/>
-      <c r="MMT1" s="36"/>
-      <c r="MMU1" s="34"/>
-      <c r="MNK1" s="36"/>
-      <c r="MNL1" s="34"/>
-      <c r="MOB1" s="36"/>
-      <c r="MOC1" s="34"/>
-      <c r="MOS1" s="36"/>
-      <c r="MOT1" s="34"/>
-      <c r="MPJ1" s="36"/>
-      <c r="MPK1" s="34"/>
-      <c r="MQA1" s="36"/>
-      <c r="MQB1" s="34"/>
-      <c r="MQR1" s="36"/>
-      <c r="MQS1" s="34"/>
-      <c r="MRI1" s="36"/>
-      <c r="MRJ1" s="34"/>
-      <c r="MRZ1" s="36"/>
-      <c r="MSA1" s="34"/>
-      <c r="MSQ1" s="36"/>
-      <c r="MSR1" s="34"/>
-      <c r="MTH1" s="36"/>
-      <c r="MTI1" s="34"/>
-      <c r="MTY1" s="36"/>
-      <c r="MTZ1" s="34"/>
-      <c r="MUP1" s="36"/>
-      <c r="MUQ1" s="34"/>
-      <c r="MVG1" s="36"/>
-      <c r="MVH1" s="34"/>
-      <c r="MVX1" s="36"/>
-      <c r="MVY1" s="34"/>
-      <c r="MWO1" s="36"/>
-      <c r="MWP1" s="34"/>
-      <c r="MXF1" s="36"/>
-      <c r="MXG1" s="34"/>
-      <c r="MXW1" s="36"/>
-      <c r="MXX1" s="34"/>
-      <c r="MYN1" s="36"/>
-      <c r="MYO1" s="34"/>
-      <c r="MZE1" s="36"/>
-      <c r="MZF1" s="34"/>
-      <c r="MZV1" s="36"/>
-      <c r="MZW1" s="34"/>
-      <c r="NAM1" s="36"/>
-      <c r="NAN1" s="34"/>
-      <c r="NBD1" s="36"/>
-      <c r="NBE1" s="34"/>
-      <c r="NBU1" s="36"/>
-      <c r="NBV1" s="34"/>
-      <c r="NCL1" s="36"/>
-      <c r="NCM1" s="34"/>
-      <c r="NDC1" s="36"/>
-      <c r="NDD1" s="34"/>
-      <c r="NDT1" s="36"/>
-      <c r="NDU1" s="34"/>
-      <c r="NEK1" s="36"/>
-      <c r="NEL1" s="34"/>
-      <c r="NFB1" s="36"/>
-      <c r="NFC1" s="34"/>
-      <c r="NFS1" s="36"/>
-      <c r="NFT1" s="34"/>
-      <c r="NGJ1" s="36"/>
-      <c r="NGK1" s="34"/>
-      <c r="NHA1" s="36"/>
-      <c r="NHB1" s="34"/>
-      <c r="NHR1" s="36"/>
-      <c r="NHS1" s="34"/>
-      <c r="NII1" s="36"/>
-      <c r="NIJ1" s="34"/>
-      <c r="NIZ1" s="36"/>
-      <c r="NJA1" s="34"/>
-      <c r="NJQ1" s="36"/>
-      <c r="NJR1" s="34"/>
-      <c r="NKH1" s="36"/>
-      <c r="NKI1" s="34"/>
-      <c r="NKY1" s="36"/>
-      <c r="NKZ1" s="34"/>
-      <c r="NLP1" s="36"/>
-      <c r="NLQ1" s="34"/>
-      <c r="NMG1" s="36"/>
-      <c r="NMH1" s="34"/>
-      <c r="NMX1" s="36"/>
-      <c r="NMY1" s="34"/>
-      <c r="NNO1" s="36"/>
-      <c r="NNP1" s="34"/>
-      <c r="NOF1" s="36"/>
-      <c r="NOG1" s="34"/>
-      <c r="NOW1" s="36"/>
-      <c r="NOX1" s="34"/>
-      <c r="NPN1" s="36"/>
-      <c r="NPO1" s="34"/>
-      <c r="NQE1" s="36"/>
-      <c r="NQF1" s="34"/>
-      <c r="NQV1" s="36"/>
-      <c r="NQW1" s="34"/>
-      <c r="NRM1" s="36"/>
-      <c r="NRN1" s="34"/>
-      <c r="NSD1" s="36"/>
-      <c r="NSE1" s="34"/>
-      <c r="NSU1" s="36"/>
-      <c r="NSV1" s="34"/>
-      <c r="NTL1" s="36"/>
-      <c r="NTM1" s="34"/>
-      <c r="NUC1" s="36"/>
-      <c r="NUD1" s="34"/>
-      <c r="NUT1" s="36"/>
-      <c r="NUU1" s="34"/>
-      <c r="NVK1" s="36"/>
-      <c r="NVL1" s="34"/>
-      <c r="NWB1" s="36"/>
-      <c r="NWC1" s="34"/>
-      <c r="NWS1" s="36"/>
-      <c r="NWT1" s="34"/>
-      <c r="NXJ1" s="36"/>
-      <c r="NXK1" s="34"/>
-      <c r="NYA1" s="36"/>
-      <c r="NYB1" s="34"/>
-      <c r="NYR1" s="36"/>
-      <c r="NYS1" s="34"/>
-      <c r="NZI1" s="36"/>
-      <c r="NZJ1" s="34"/>
-      <c r="NZZ1" s="36"/>
-      <c r="OAA1" s="34"/>
-      <c r="OAQ1" s="36"/>
-      <c r="OAR1" s="34"/>
-      <c r="OBH1" s="36"/>
-      <c r="OBI1" s="34"/>
-      <c r="OBY1" s="36"/>
-      <c r="OBZ1" s="34"/>
-      <c r="OCP1" s="36"/>
-      <c r="OCQ1" s="34"/>
-      <c r="ODG1" s="36"/>
-      <c r="ODH1" s="34"/>
-      <c r="ODX1" s="36"/>
-      <c r="ODY1" s="34"/>
-      <c r="OEO1" s="36"/>
-      <c r="OEP1" s="34"/>
-      <c r="OFF1" s="36"/>
-      <c r="OFG1" s="34"/>
-      <c r="OFW1" s="36"/>
-      <c r="OFX1" s="34"/>
-      <c r="OGN1" s="36"/>
-      <c r="OGO1" s="34"/>
-      <c r="OHE1" s="36"/>
-      <c r="OHF1" s="34"/>
-      <c r="OHV1" s="36"/>
-      <c r="OHW1" s="34"/>
-      <c r="OIM1" s="36"/>
-      <c r="OIN1" s="34"/>
-      <c r="OJD1" s="36"/>
-      <c r="OJE1" s="34"/>
-      <c r="OJU1" s="36"/>
-      <c r="OJV1" s="34"/>
-      <c r="OKL1" s="36"/>
-      <c r="OKM1" s="34"/>
-      <c r="OLC1" s="36"/>
-      <c r="OLD1" s="34"/>
-      <c r="OLT1" s="36"/>
-      <c r="OLU1" s="34"/>
-      <c r="OMK1" s="36"/>
-      <c r="OML1" s="34"/>
-      <c r="ONB1" s="36"/>
-      <c r="ONC1" s="34"/>
-      <c r="ONS1" s="36"/>
-      <c r="ONT1" s="34"/>
-      <c r="OOJ1" s="36"/>
-      <c r="OOK1" s="34"/>
-      <c r="OPA1" s="36"/>
-      <c r="OPB1" s="34"/>
-      <c r="OPR1" s="36"/>
-      <c r="OPS1" s="34"/>
-      <c r="OQI1" s="36"/>
-      <c r="OQJ1" s="34"/>
-      <c r="OQZ1" s="36"/>
-      <c r="ORA1" s="34"/>
-      <c r="ORQ1" s="36"/>
-      <c r="ORR1" s="34"/>
-      <c r="OSH1" s="36"/>
-      <c r="OSI1" s="34"/>
-      <c r="OSY1" s="36"/>
-      <c r="OSZ1" s="34"/>
-      <c r="OTP1" s="36"/>
-      <c r="OTQ1" s="34"/>
-      <c r="OUG1" s="36"/>
-      <c r="OUH1" s="34"/>
-      <c r="OUX1" s="36"/>
-      <c r="OUY1" s="34"/>
-      <c r="OVO1" s="36"/>
-      <c r="OVP1" s="34"/>
-      <c r="OWF1" s="36"/>
-      <c r="OWG1" s="34"/>
-      <c r="OWW1" s="36"/>
-      <c r="OWX1" s="34"/>
-      <c r="OXN1" s="36"/>
-      <c r="OXO1" s="34"/>
-      <c r="OYE1" s="36"/>
-      <c r="OYF1" s="34"/>
-      <c r="OYV1" s="36"/>
-      <c r="OYW1" s="34"/>
-      <c r="OZM1" s="36"/>
-      <c r="OZN1" s="34"/>
-      <c r="PAD1" s="36"/>
-      <c r="PAE1" s="34"/>
-      <c r="PAU1" s="36"/>
-      <c r="PAV1" s="34"/>
-      <c r="PBL1" s="36"/>
-      <c r="PBM1" s="34"/>
-      <c r="PCC1" s="36"/>
-      <c r="PCD1" s="34"/>
-      <c r="PCT1" s="36"/>
-      <c r="PCU1" s="34"/>
-      <c r="PDK1" s="36"/>
-      <c r="PDL1" s="34"/>
-      <c r="PEB1" s="36"/>
-      <c r="PEC1" s="34"/>
-      <c r="PES1" s="36"/>
-      <c r="PET1" s="34"/>
-      <c r="PFJ1" s="36"/>
-      <c r="PFK1" s="34"/>
-      <c r="PGA1" s="36"/>
-      <c r="PGB1" s="34"/>
-      <c r="PGR1" s="36"/>
-      <c r="PGS1" s="34"/>
-      <c r="PHI1" s="36"/>
-      <c r="PHJ1" s="34"/>
-      <c r="PHZ1" s="36"/>
-      <c r="PIA1" s="34"/>
-      <c r="PIQ1" s="36"/>
-      <c r="PIR1" s="34"/>
-      <c r="PJH1" s="36"/>
-      <c r="PJI1" s="34"/>
-      <c r="PJY1" s="36"/>
-      <c r="PJZ1" s="34"/>
-      <c r="PKP1" s="36"/>
-      <c r="PKQ1" s="34"/>
-      <c r="PLG1" s="36"/>
-      <c r="PLH1" s="34"/>
-      <c r="PLX1" s="36"/>
-      <c r="PLY1" s="34"/>
-      <c r="PMO1" s="36"/>
-      <c r="PMP1" s="34"/>
-      <c r="PNF1" s="36"/>
-      <c r="PNG1" s="34"/>
-      <c r="PNW1" s="36"/>
-      <c r="PNX1" s="34"/>
-      <c r="PON1" s="36"/>
-      <c r="POO1" s="34"/>
-      <c r="PPE1" s="36"/>
-      <c r="PPF1" s="34"/>
-      <c r="PPV1" s="36"/>
-      <c r="PPW1" s="34"/>
-      <c r="PQM1" s="36"/>
-      <c r="PQN1" s="34"/>
-      <c r="PRD1" s="36"/>
-      <c r="PRE1" s="34"/>
-      <c r="PRU1" s="36"/>
-      <c r="PRV1" s="34"/>
-      <c r="PSL1" s="36"/>
-      <c r="PSM1" s="34"/>
-      <c r="PTC1" s="36"/>
-      <c r="PTD1" s="34"/>
-      <c r="PTT1" s="36"/>
-      <c r="PTU1" s="34"/>
-      <c r="PUK1" s="36"/>
-      <c r="PUL1" s="34"/>
-      <c r="PVB1" s="36"/>
-      <c r="PVC1" s="34"/>
-      <c r="PVS1" s="36"/>
-      <c r="PVT1" s="34"/>
-      <c r="PWJ1" s="36"/>
-      <c r="PWK1" s="34"/>
-      <c r="PXA1" s="36"/>
-      <c r="PXB1" s="34"/>
-      <c r="PXR1" s="36"/>
-      <c r="PXS1" s="34"/>
-      <c r="PYI1" s="36"/>
-      <c r="PYJ1" s="34"/>
-      <c r="PYZ1" s="36"/>
-      <c r="PZA1" s="34"/>
-      <c r="PZQ1" s="36"/>
-      <c r="PZR1" s="34"/>
-      <c r="QAH1" s="36"/>
-      <c r="QAI1" s="34"/>
-      <c r="QAY1" s="36"/>
-      <c r="QAZ1" s="34"/>
-      <c r="QBP1" s="36"/>
-      <c r="QBQ1" s="34"/>
-      <c r="QCG1" s="36"/>
-      <c r="QCH1" s="34"/>
-      <c r="QCX1" s="36"/>
-      <c r="QCY1" s="34"/>
-      <c r="QDO1" s="36"/>
-      <c r="QDP1" s="34"/>
-      <c r="QEF1" s="36"/>
-      <c r="QEG1" s="34"/>
-      <c r="QEW1" s="36"/>
-      <c r="QEX1" s="34"/>
-      <c r="QFN1" s="36"/>
-      <c r="QFO1" s="34"/>
-      <c r="QGE1" s="36"/>
-      <c r="QGF1" s="34"/>
-      <c r="QGV1" s="36"/>
-      <c r="QGW1" s="34"/>
-      <c r="QHM1" s="36"/>
-      <c r="QHN1" s="34"/>
-      <c r="QID1" s="36"/>
-      <c r="QIE1" s="34"/>
-      <c r="QIU1" s="36"/>
-      <c r="QIV1" s="34"/>
-      <c r="QJL1" s="36"/>
-      <c r="QJM1" s="34"/>
-      <c r="QKC1" s="36"/>
-      <c r="QKD1" s="34"/>
-      <c r="QKT1" s="36"/>
-      <c r="QKU1" s="34"/>
-      <c r="QLK1" s="36"/>
-      <c r="QLL1" s="34"/>
-      <c r="QMB1" s="36"/>
-      <c r="QMC1" s="34"/>
-      <c r="QMS1" s="36"/>
-      <c r="QMT1" s="34"/>
-      <c r="QNJ1" s="36"/>
-      <c r="QNK1" s="34"/>
-      <c r="QOA1" s="36"/>
-      <c r="QOB1" s="34"/>
-      <c r="QOR1" s="36"/>
-      <c r="QOS1" s="34"/>
-      <c r="QPI1" s="36"/>
-      <c r="QPJ1" s="34"/>
-      <c r="QPZ1" s="36"/>
-      <c r="QQA1" s="34"/>
-      <c r="QQQ1" s="36"/>
-      <c r="QQR1" s="34"/>
-      <c r="QRH1" s="36"/>
-      <c r="QRI1" s="34"/>
-      <c r="QRY1" s="36"/>
-      <c r="QRZ1" s="34"/>
-      <c r="QSP1" s="36"/>
-      <c r="QSQ1" s="34"/>
-      <c r="QTG1" s="36"/>
-      <c r="QTH1" s="34"/>
-      <c r="QTX1" s="36"/>
-      <c r="QTY1" s="34"/>
-      <c r="QUO1" s="36"/>
-      <c r="QUP1" s="34"/>
-      <c r="QVF1" s="36"/>
-      <c r="QVG1" s="34"/>
-      <c r="QVW1" s="36"/>
-      <c r="QVX1" s="34"/>
-      <c r="QWN1" s="36"/>
-      <c r="QWO1" s="34"/>
-      <c r="QXE1" s="36"/>
-      <c r="QXF1" s="34"/>
-      <c r="QXV1" s="36"/>
-      <c r="QXW1" s="34"/>
-      <c r="QYM1" s="36"/>
-      <c r="QYN1" s="34"/>
-      <c r="QZD1" s="36"/>
-      <c r="QZE1" s="34"/>
-      <c r="QZU1" s="36"/>
-      <c r="QZV1" s="34"/>
-      <c r="RAL1" s="36"/>
-      <c r="RAM1" s="34"/>
-      <c r="RBC1" s="36"/>
-      <c r="RBD1" s="34"/>
-      <c r="RBT1" s="36"/>
-      <c r="RBU1" s="34"/>
-      <c r="RCK1" s="36"/>
-      <c r="RCL1" s="34"/>
-      <c r="RDB1" s="36"/>
-      <c r="RDC1" s="34"/>
-      <c r="RDS1" s="36"/>
-      <c r="RDT1" s="34"/>
-      <c r="REJ1" s="36"/>
-      <c r="REK1" s="34"/>
-      <c r="RFA1" s="36"/>
-      <c r="RFB1" s="34"/>
-      <c r="RFR1" s="36"/>
-      <c r="RFS1" s="34"/>
-      <c r="RGI1" s="36"/>
-      <c r="RGJ1" s="34"/>
-      <c r="RGZ1" s="36"/>
-      <c r="RHA1" s="34"/>
-      <c r="RHQ1" s="36"/>
-      <c r="RHR1" s="34"/>
-      <c r="RIH1" s="36"/>
-      <c r="RII1" s="34"/>
-      <c r="RIY1" s="36"/>
-      <c r="RIZ1" s="34"/>
-      <c r="RJP1" s="36"/>
-      <c r="RJQ1" s="34"/>
-      <c r="RKG1" s="36"/>
-      <c r="RKH1" s="34"/>
-      <c r="RKX1" s="36"/>
-      <c r="RKY1" s="34"/>
-      <c r="RLO1" s="36"/>
-      <c r="RLP1" s="34"/>
-      <c r="RMF1" s="36"/>
-      <c r="RMG1" s="34"/>
-      <c r="RMW1" s="36"/>
-      <c r="RMX1" s="34"/>
-      <c r="RNN1" s="36"/>
-      <c r="RNO1" s="34"/>
-      <c r="ROE1" s="36"/>
-      <c r="ROF1" s="34"/>
-      <c r="ROV1" s="36"/>
-      <c r="ROW1" s="34"/>
-      <c r="RPM1" s="36"/>
-      <c r="RPN1" s="34"/>
-      <c r="RQD1" s="36"/>
-      <c r="RQE1" s="34"/>
-      <c r="RQU1" s="36"/>
-      <c r="RQV1" s="34"/>
-      <c r="RRL1" s="36"/>
-      <c r="RRM1" s="34"/>
-      <c r="RSC1" s="36"/>
-      <c r="RSD1" s="34"/>
-      <c r="RST1" s="36"/>
-      <c r="RSU1" s="34"/>
-      <c r="RTK1" s="36"/>
-      <c r="RTL1" s="34"/>
-      <c r="RUB1" s="36"/>
-      <c r="RUC1" s="34"/>
-      <c r="RUS1" s="36"/>
-      <c r="RUT1" s="34"/>
-      <c r="RVJ1" s="36"/>
-      <c r="RVK1" s="34"/>
-      <c r="RWA1" s="36"/>
-      <c r="RWB1" s="34"/>
-      <c r="RWR1" s="36"/>
-      <c r="RWS1" s="34"/>
-      <c r="RXI1" s="36"/>
-      <c r="RXJ1" s="34"/>
-      <c r="RXZ1" s="36"/>
-      <c r="RYA1" s="34"/>
-      <c r="RYQ1" s="36"/>
-      <c r="RYR1" s="34"/>
-      <c r="RZH1" s="36"/>
-      <c r="RZI1" s="34"/>
-      <c r="RZY1" s="36"/>
-      <c r="RZZ1" s="34"/>
-      <c r="SAP1" s="36"/>
-      <c r="SAQ1" s="34"/>
-      <c r="SBG1" s="36"/>
-      <c r="SBH1" s="34"/>
-      <c r="SBX1" s="36"/>
-      <c r="SBY1" s="34"/>
-      <c r="SCO1" s="36"/>
-      <c r="SCP1" s="34"/>
-      <c r="SDF1" s="36"/>
-      <c r="SDG1" s="34"/>
-      <c r="SDW1" s="36"/>
-      <c r="SDX1" s="34"/>
-      <c r="SEN1" s="36"/>
-      <c r="SEO1" s="34"/>
-      <c r="SFE1" s="36"/>
-      <c r="SFF1" s="34"/>
-      <c r="SFV1" s="36"/>
-      <c r="SFW1" s="34"/>
-      <c r="SGM1" s="36"/>
-      <c r="SGN1" s="34"/>
-      <c r="SHD1" s="36"/>
-      <c r="SHE1" s="34"/>
-      <c r="SHU1" s="36"/>
-      <c r="SHV1" s="34"/>
-      <c r="SIL1" s="36"/>
-      <c r="SIM1" s="34"/>
-      <c r="SJC1" s="36"/>
-      <c r="SJD1" s="34"/>
-      <c r="SJT1" s="36"/>
-      <c r="SJU1" s="34"/>
-      <c r="SKK1" s="36"/>
-      <c r="SKL1" s="34"/>
-      <c r="SLB1" s="36"/>
-      <c r="SLC1" s="34"/>
-      <c r="SLS1" s="36"/>
-      <c r="SLT1" s="34"/>
-      <c r="SMJ1" s="36"/>
-      <c r="SMK1" s="34"/>
-      <c r="SNA1" s="36"/>
-      <c r="SNB1" s="34"/>
-      <c r="SNR1" s="36"/>
-      <c r="SNS1" s="34"/>
-      <c r="SOI1" s="36"/>
-      <c r="SOJ1" s="34"/>
-      <c r="SOZ1" s="36"/>
-      <c r="SPA1" s="34"/>
-      <c r="SPQ1" s="36"/>
-      <c r="SPR1" s="34"/>
-      <c r="SQH1" s="36"/>
-      <c r="SQI1" s="34"/>
-      <c r="SQY1" s="36"/>
-      <c r="SQZ1" s="34"/>
-      <c r="SRP1" s="36"/>
-      <c r="SRQ1" s="34"/>
-      <c r="SSG1" s="36"/>
-      <c r="SSH1" s="34"/>
-      <c r="SSX1" s="36"/>
-      <c r="SSY1" s="34"/>
-      <c r="STO1" s="36"/>
-      <c r="STP1" s="34"/>
-      <c r="SUF1" s="36"/>
-      <c r="SUG1" s="34"/>
-      <c r="SUW1" s="36"/>
-      <c r="SUX1" s="34"/>
-      <c r="SVN1" s="36"/>
-      <c r="SVO1" s="34"/>
-      <c r="SWE1" s="36"/>
-      <c r="SWF1" s="34"/>
-      <c r="SWV1" s="36"/>
-      <c r="SWW1" s="34"/>
-      <c r="SXM1" s="36"/>
-      <c r="SXN1" s="34"/>
-      <c r="SYD1" s="36"/>
-      <c r="SYE1" s="34"/>
-      <c r="SYU1" s="36"/>
-      <c r="SYV1" s="34"/>
-      <c r="SZL1" s="36"/>
-      <c r="SZM1" s="34"/>
-      <c r="TAC1" s="36"/>
-      <c r="TAD1" s="34"/>
-      <c r="TAT1" s="36"/>
-      <c r="TAU1" s="34"/>
-      <c r="TBK1" s="36"/>
-      <c r="TBL1" s="34"/>
-      <c r="TCB1" s="36"/>
-      <c r="TCC1" s="34"/>
-      <c r="TCS1" s="36"/>
-      <c r="TCT1" s="34"/>
-      <c r="TDJ1" s="36"/>
-      <c r="TDK1" s="34"/>
-      <c r="TEA1" s="36"/>
-      <c r="TEB1" s="34"/>
-      <c r="TER1" s="36"/>
-      <c r="TES1" s="34"/>
-      <c r="TFI1" s="36"/>
-      <c r="TFJ1" s="34"/>
-      <c r="TFZ1" s="36"/>
-      <c r="TGA1" s="34"/>
-      <c r="TGQ1" s="36"/>
-      <c r="TGR1" s="34"/>
-      <c r="THH1" s="36"/>
-      <c r="THI1" s="34"/>
-      <c r="THY1" s="36"/>
-      <c r="THZ1" s="34"/>
-      <c r="TIP1" s="36"/>
-      <c r="TIQ1" s="34"/>
-      <c r="TJG1" s="36"/>
-      <c r="TJH1" s="34"/>
-      <c r="TJX1" s="36"/>
-      <c r="TJY1" s="34"/>
-      <c r="TKO1" s="36"/>
-      <c r="TKP1" s="34"/>
-      <c r="TLF1" s="36"/>
-      <c r="TLG1" s="34"/>
-      <c r="TLW1" s="36"/>
-      <c r="TLX1" s="34"/>
-      <c r="TMN1" s="36"/>
-      <c r="TMO1" s="34"/>
-      <c r="TNE1" s="36"/>
-      <c r="TNF1" s="34"/>
-      <c r="TNV1" s="36"/>
-      <c r="TNW1" s="34"/>
-      <c r="TOM1" s="36"/>
-      <c r="TON1" s="34"/>
-      <c r="TPD1" s="36"/>
-      <c r="TPE1" s="34"/>
-      <c r="TPU1" s="36"/>
-      <c r="TPV1" s="34"/>
-      <c r="TQL1" s="36"/>
-      <c r="TQM1" s="34"/>
-      <c r="TRC1" s="36"/>
-      <c r="TRD1" s="34"/>
-      <c r="TRT1" s="36"/>
-      <c r="TRU1" s="34"/>
-      <c r="TSK1" s="36"/>
-      <c r="TSL1" s="34"/>
-      <c r="TTB1" s="36"/>
-      <c r="TTC1" s="34"/>
-      <c r="TTS1" s="36"/>
-      <c r="TTT1" s="34"/>
-      <c r="TUJ1" s="36"/>
-      <c r="TUK1" s="34"/>
-      <c r="TVA1" s="36"/>
-      <c r="TVB1" s="34"/>
-      <c r="TVR1" s="36"/>
-      <c r="TVS1" s="34"/>
-      <c r="TWI1" s="36"/>
-      <c r="TWJ1" s="34"/>
-      <c r="TWZ1" s="36"/>
-      <c r="TXA1" s="34"/>
-      <c r="TXQ1" s="36"/>
-      <c r="TXR1" s="34"/>
-      <c r="TYH1" s="36"/>
-      <c r="TYI1" s="34"/>
-      <c r="TYY1" s="36"/>
-      <c r="TYZ1" s="34"/>
-      <c r="TZP1" s="36"/>
-      <c r="TZQ1" s="34"/>
-      <c r="UAG1" s="36"/>
-      <c r="UAH1" s="34"/>
-      <c r="UAX1" s="36"/>
-      <c r="UAY1" s="34"/>
-      <c r="UBO1" s="36"/>
-      <c r="UBP1" s="34"/>
-      <c r="UCF1" s="36"/>
-      <c r="UCG1" s="34"/>
-      <c r="UCW1" s="36"/>
-      <c r="UCX1" s="34"/>
-      <c r="UDN1" s="36"/>
-      <c r="UDO1" s="34"/>
-      <c r="UEE1" s="36"/>
-      <c r="UEF1" s="34"/>
-      <c r="UEV1" s="36"/>
-      <c r="UEW1" s="34"/>
-      <c r="UFM1" s="36"/>
-      <c r="UFN1" s="34"/>
-      <c r="UGD1" s="36"/>
-      <c r="UGE1" s="34"/>
-      <c r="UGU1" s="36"/>
-      <c r="UGV1" s="34"/>
-      <c r="UHL1" s="36"/>
-      <c r="UHM1" s="34"/>
-      <c r="UIC1" s="36"/>
-      <c r="UID1" s="34"/>
-      <c r="UIT1" s="36"/>
-      <c r="UIU1" s="34"/>
-      <c r="UJK1" s="36"/>
-      <c r="UJL1" s="34"/>
-      <c r="UKB1" s="36"/>
-      <c r="UKC1" s="34"/>
-      <c r="UKS1" s="36"/>
-      <c r="UKT1" s="34"/>
-      <c r="ULJ1" s="36"/>
-      <c r="ULK1" s="34"/>
-      <c r="UMA1" s="36"/>
-      <c r="UMB1" s="34"/>
-      <c r="UMR1" s="36"/>
-      <c r="UMS1" s="34"/>
-      <c r="UNI1" s="36"/>
-      <c r="UNJ1" s="34"/>
-      <c r="UNZ1" s="36"/>
-      <c r="UOA1" s="34"/>
-      <c r="UOQ1" s="36"/>
-      <c r="UOR1" s="34"/>
-      <c r="UPH1" s="36"/>
-      <c r="UPI1" s="34"/>
-      <c r="UPY1" s="36"/>
-      <c r="UPZ1" s="34"/>
-      <c r="UQP1" s="36"/>
-      <c r="UQQ1" s="34"/>
-      <c r="URG1" s="36"/>
-      <c r="URH1" s="34"/>
-      <c r="URX1" s="36"/>
-      <c r="URY1" s="34"/>
-      <c r="USO1" s="36"/>
-      <c r="USP1" s="34"/>
-      <c r="UTF1" s="36"/>
-      <c r="UTG1" s="34"/>
-      <c r="UTW1" s="36"/>
-      <c r="UTX1" s="34"/>
-      <c r="UUN1" s="36"/>
-      <c r="UUO1" s="34"/>
-      <c r="UVE1" s="36"/>
-      <c r="UVF1" s="34"/>
-      <c r="UVV1" s="36"/>
-      <c r="UVW1" s="34"/>
-      <c r="UWM1" s="36"/>
-      <c r="UWN1" s="34"/>
-      <c r="UXD1" s="36"/>
-      <c r="UXE1" s="34"/>
-      <c r="UXU1" s="36"/>
-      <c r="UXV1" s="34"/>
-      <c r="UYL1" s="36"/>
-      <c r="UYM1" s="34"/>
-      <c r="UZC1" s="36"/>
-      <c r="UZD1" s="34"/>
-      <c r="UZT1" s="36"/>
-      <c r="UZU1" s="34"/>
-      <c r="VAK1" s="36"/>
-      <c r="VAL1" s="34"/>
-      <c r="VBB1" s="36"/>
-      <c r="VBC1" s="34"/>
-      <c r="VBS1" s="36"/>
-      <c r="VBT1" s="34"/>
-      <c r="VCJ1" s="36"/>
-      <c r="VCK1" s="34"/>
-      <c r="VDA1" s="36"/>
-      <c r="VDB1" s="34"/>
-      <c r="VDR1" s="36"/>
-      <c r="VDS1" s="34"/>
-      <c r="VEI1" s="36"/>
-      <c r="VEJ1" s="34"/>
-      <c r="VEZ1" s="36"/>
-      <c r="VFA1" s="34"/>
-      <c r="VFQ1" s="36"/>
-      <c r="VFR1" s="34"/>
-      <c r="VGH1" s="36"/>
-      <c r="VGI1" s="34"/>
-      <c r="VGY1" s="36"/>
-      <c r="VGZ1" s="34"/>
-      <c r="VHP1" s="36"/>
-      <c r="VHQ1" s="34"/>
-      <c r="VIG1" s="36"/>
-      <c r="VIH1" s="34"/>
-      <c r="VIX1" s="36"/>
-      <c r="VIY1" s="34"/>
-      <c r="VJO1" s="36"/>
-      <c r="VJP1" s="34"/>
-      <c r="VKF1" s="36"/>
-      <c r="VKG1" s="34"/>
-      <c r="VKW1" s="36"/>
-      <c r="VKX1" s="34"/>
-      <c r="VLN1" s="36"/>
-      <c r="VLO1" s="34"/>
-      <c r="VME1" s="36"/>
-      <c r="VMF1" s="34"/>
-      <c r="VMV1" s="36"/>
-      <c r="VMW1" s="34"/>
-      <c r="VNM1" s="36"/>
-      <c r="VNN1" s="34"/>
-      <c r="VOD1" s="36"/>
-      <c r="VOE1" s="34"/>
-      <c r="VOU1" s="36"/>
-      <c r="VOV1" s="34"/>
-      <c r="VPL1" s="36"/>
-      <c r="VPM1" s="34"/>
-      <c r="VQC1" s="36"/>
-      <c r="VQD1" s="34"/>
-      <c r="VQT1" s="36"/>
-      <c r="VQU1" s="34"/>
-      <c r="VRK1" s="36"/>
-      <c r="VRL1" s="34"/>
-      <c r="VSB1" s="36"/>
-      <c r="VSC1" s="34"/>
-      <c r="VSS1" s="36"/>
-      <c r="VST1" s="34"/>
-      <c r="VTJ1" s="36"/>
-      <c r="VTK1" s="34"/>
-      <c r="VUA1" s="36"/>
-      <c r="VUB1" s="34"/>
-      <c r="VUR1" s="36"/>
-      <c r="VUS1" s="34"/>
-      <c r="VVI1" s="36"/>
-      <c r="VVJ1" s="34"/>
-      <c r="VVZ1" s="36"/>
-      <c r="VWA1" s="34"/>
-      <c r="VWQ1" s="36"/>
-      <c r="VWR1" s="34"/>
-      <c r="VXH1" s="36"/>
-      <c r="VXI1" s="34"/>
-      <c r="VXY1" s="36"/>
-      <c r="VXZ1" s="34"/>
-      <c r="VYP1" s="36"/>
-      <c r="VYQ1" s="34"/>
-      <c r="VZG1" s="36"/>
-      <c r="VZH1" s="34"/>
-      <c r="VZX1" s="36"/>
-      <c r="VZY1" s="34"/>
-      <c r="WAO1" s="36"/>
-      <c r="WAP1" s="34"/>
-      <c r="WBF1" s="36"/>
-      <c r="WBG1" s="34"/>
-      <c r="WBW1" s="36"/>
-      <c r="WBX1" s="34"/>
-      <c r="WCN1" s="36"/>
-      <c r="WCO1" s="34"/>
-      <c r="WDE1" s="36"/>
-      <c r="WDF1" s="34"/>
-      <c r="WDV1" s="36"/>
-      <c r="WDW1" s="34"/>
-      <c r="WEM1" s="36"/>
-      <c r="WEN1" s="34"/>
-      <c r="WFD1" s="36"/>
-      <c r="WFE1" s="34"/>
-      <c r="WFU1" s="36"/>
-      <c r="WFV1" s="34"/>
-      <c r="WGL1" s="36"/>
-      <c r="WGM1" s="34"/>
-      <c r="WHC1" s="36"/>
-      <c r="WHD1" s="34"/>
-      <c r="WHT1" s="36"/>
-      <c r="WHU1" s="34"/>
-      <c r="WIK1" s="36"/>
-      <c r="WIL1" s="34"/>
-      <c r="WJB1" s="36"/>
-      <c r="WJC1" s="34"/>
-      <c r="WJS1" s="36"/>
-      <c r="WJT1" s="34"/>
-      <c r="WKJ1" s="36"/>
-      <c r="WKK1" s="34"/>
-      <c r="WLA1" s="36"/>
-      <c r="WLB1" s="34"/>
-      <c r="WLR1" s="36"/>
-      <c r="WLS1" s="34"/>
-      <c r="WMI1" s="36"/>
-      <c r="WMJ1" s="34"/>
-      <c r="WMZ1" s="36"/>
-      <c r="WNA1" s="34"/>
-      <c r="WNQ1" s="36"/>
-      <c r="WNR1" s="34"/>
-      <c r="WOH1" s="36"/>
-      <c r="WOI1" s="34"/>
-      <c r="WOY1" s="36"/>
-      <c r="WOZ1" s="34"/>
-      <c r="WPP1" s="36"/>
-      <c r="WPQ1" s="34"/>
-      <c r="WQG1" s="36"/>
-      <c r="WQH1" s="34"/>
-      <c r="WQX1" s="36"/>
-      <c r="WQY1" s="34"/>
-      <c r="WRO1" s="36"/>
-      <c r="WRP1" s="34"/>
-      <c r="WSF1" s="36"/>
-      <c r="WSG1" s="34"/>
-      <c r="WSW1" s="36"/>
-      <c r="WSX1" s="34"/>
-      <c r="WTN1" s="36"/>
-      <c r="WTO1" s="34"/>
-      <c r="WUE1" s="36"/>
-      <c r="WUF1" s="34"/>
-      <c r="WUV1" s="36"/>
-      <c r="WUW1" s="34"/>
-      <c r="WVM1" s="36"/>
-      <c r="WVN1" s="34"/>
-      <c r="WWD1" s="36"/>
-      <c r="WWE1" s="34"/>
-      <c r="WWU1" s="36"/>
-      <c r="WWV1" s="34"/>
-      <c r="WXL1" s="36"/>
-      <c r="WXM1" s="34"/>
-      <c r="WYC1" s="36"/>
-      <c r="WYD1" s="34"/>
-      <c r="WYT1" s="36"/>
-      <c r="WYU1" s="34"/>
-      <c r="WZK1" s="36"/>
-      <c r="WZL1" s="34"/>
-      <c r="XAB1" s="36"/>
-      <c r="XAC1" s="34"/>
-      <c r="XAS1" s="36"/>
-      <c r="XAT1" s="34"/>
-      <c r="XBJ1" s="36"/>
-      <c r="XBK1" s="34"/>
-      <c r="XCA1" s="36"/>
-      <c r="XCB1" s="34"/>
-      <c r="XCR1" s="36"/>
-      <c r="XCS1" s="34"/>
-      <c r="XDI1" s="36"/>
-      <c r="XDJ1" s="34"/>
-      <c r="XDZ1" s="36"/>
-      <c r="XEA1" s="34"/>
-      <c r="XEQ1" s="36"/>
-      <c r="XER1" s="34"/>
     </row>
-    <row r="2" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="45">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="23">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="35" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A3" s="45">
+    <row r="3" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="10" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="4" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A4" s="45">
+    <row r="4" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="10" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A5" s="45">
+    <row r="5" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="N5" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="10" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A6" s="45">
+    <row r="6" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="P6" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="16.2" thickBot="1">
-      <c r="A7" s="45">
+    <row r="7" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="H7" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="J7" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="G7" s="46" t="s">
+      <c r="L7" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="H7" s="46" t="s">
-        <v>889</v>
-      </c>
-      <c r="I7" s="46" t="s">
+      <c r="M7" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="J7" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="K7" s="46" t="s">
+      <c r="N7" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="M7" s="46" t="s">
+      <c r="P7" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="N7" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>437</v>
-      </c>
     </row>
-    <row r="8" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A8" s="45">
+    <row r="8" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="10" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A9" s="45">
+    <row r="9" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="10" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="10" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A10" s="45">
+    <row r="10" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="10" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="11" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A11" s="45">
+    <row r="11" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="2">
         <v>12345</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="2">
         <v>123456</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="2">
         <v>234567</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="2">
         <v>456789</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="10" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="12" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="P12" s="46" t="s">
+      <c r="P12" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="10" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="13" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A13" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="Q13" s="46" t="s">
+      <c r="Q13" s="10" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="14" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A14" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="L14" s="52" t="s">
+      <c r="L14" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="O14" s="46" t="s">
+      <c r="O14" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="P14" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="10" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="15" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A15" s="24" t="s">
         <v>815</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="M15" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="O15" s="46" t="s">
+      <c r="O15" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="P15" s="46" t="s">
+      <c r="P15" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="Q15" s="47" t="s">
+      <c r="Q15" s="10" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="16" spans="1:1021 1037:2041 2057:3061 3077:4081 4097:5118 5134:6138 6154:7158 7174:8178 8194:9215 9231:10235 10251:11255 11271:12275 12291:13312 13328:14332 14348:15352 15368:16372" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A16" s="24" t="s">
         <v>816</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="M16" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="N16" s="46" t="s">
+      <c r="N16" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="O16" s="46" t="s">
+      <c r="O16" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="P16" s="46" t="s">
+      <c r="P16" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="Q16" s="46" t="s">
+      <c r="Q16" s="10" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="37" t="s">
         <v>980</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="37" t="s">
         <v>981</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="37" t="s">
         <v>982</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="37" t="s">
         <v>983</v>
       </c>
-      <c r="M17" s="46" t="s">
+      <c r="M17" s="37" t="s">
         <v>984</v>
       </c>
-      <c r="N17" s="46" t="s">
+      <c r="N17" s="37" t="s">
         <v>985</v>
       </c>
-      <c r="O17" s="46" t="s">
+      <c r="O17" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="P17" s="46" t="s">
+      <c r="P17" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="38" t="s">
         <v>755</v>
       </c>
     </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10338,76 +8306,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="22"/>
-    <col min="2" max="16384" width="7.77734375" style="5"/>
+    <col min="1" max="1" width="7.77734375" style="30"/>
+    <col min="2" max="16384" width="7.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="43" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:17" s="32" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="39">
         <v>0</v>
       </c>
-      <c r="C1" s="41">
+      <c r="C1" s="39">
         <v>1</v>
       </c>
-      <c r="D1" s="41">
+      <c r="D1" s="39">
         <v>2</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="39">
         <v>3</v>
       </c>
-      <c r="F1" s="41">
+      <c r="F1" s="39">
         <v>4</v>
       </c>
-      <c r="G1" s="41">
+      <c r="G1" s="39">
         <v>5</v>
       </c>
-      <c r="H1" s="41">
+      <c r="H1" s="39">
         <v>6</v>
       </c>
-      <c r="I1" s="41">
+      <c r="I1" s="39">
         <v>7</v>
       </c>
-      <c r="J1" s="41">
+      <c r="J1" s="39">
         <v>8</v>
       </c>
-      <c r="K1" s="41">
+      <c r="K1" s="39">
         <v>9</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A2" s="18">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
+      <c r="A2" s="42">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
@@ -10450,12 +8418,12 @@
       <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A3" s="18">
+    <row r="3" spans="1:17" ht="30" customHeight="1">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -10503,12 +8471,12 @@
       <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:17" ht="30" customHeight="1">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10556,12 +8524,12 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:17" ht="30" customHeight="1">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -10603,18 +8571,18 @@
       <c r="N5" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="8" t="s">
         <v>500</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:17" ht="30" customHeight="1">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10662,12 +8630,12 @@
       <c r="P6" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:17" ht="30" customHeight="1">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -10715,12 +8683,12 @@
       <c r="P7" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="10" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A8" s="18">
+    <row r="8" spans="1:17" ht="30" customHeight="1">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10768,12 +8736,12 @@
       <c r="P8" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="10" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="37.799999999999997" customHeight="1">
-      <c r="A9" s="18">
+    <row r="9" spans="1:17" ht="30" customHeight="1">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -10821,12 +8789,12 @@
       <c r="P9" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="18">
+    <row r="10" spans="1:17" ht="30" customHeight="1">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -10874,12 +8842,12 @@
       <c r="P10" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="10" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A11" s="18">
+    <row r="11" spans="1:17" ht="30" customHeight="1">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10927,12 +8895,12 @@
       <c r="P11" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="10" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:17" ht="30" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10980,12 +8948,12 @@
       <c r="P12" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="10" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="38.4" customHeight="1">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:17" ht="30" customHeight="1">
+      <c r="A13" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -11033,12 +9001,12 @@
       <c r="P13" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="10" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:17" ht="30" customHeight="1">
+      <c r="A14" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -11086,12 +9054,12 @@
       <c r="P14" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="10" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:17" ht="30" customHeight="1">
+      <c r="A15" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -11136,15 +9104,15 @@
       <c r="O15" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="10" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:17" ht="30" customHeight="1">
+      <c r="A16" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -11192,64 +9160,63 @@
       <c r="P16" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="43" t="s">
         <v>528</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="14" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="28.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11261,74 +9228,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="22"/>
+    <col min="1" max="1" width="7.77734375" style="30"/>
     <col min="2" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="43" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:17" s="32" customFormat="1" ht="28.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="39">
         <v>0</v>
       </c>
-      <c r="C1" s="41">
+      <c r="C1" s="39">
         <v>1</v>
       </c>
-      <c r="D1" s="41">
+      <c r="D1" s="39">
         <v>2</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="39">
         <v>3</v>
       </c>
-      <c r="F1" s="41">
+      <c r="F1" s="39">
         <v>4</v>
       </c>
-      <c r="G1" s="41">
+      <c r="G1" s="39">
         <v>5</v>
       </c>
-      <c r="H1" s="41">
+      <c r="H1" s="39">
         <v>6</v>
       </c>
-      <c r="I1" s="41">
+      <c r="I1" s="39">
         <v>7</v>
       </c>
-      <c r="J1" s="41">
+      <c r="J1" s="39">
         <v>8</v>
       </c>
-      <c r="K1" s="41">
+      <c r="K1" s="39">
         <v>9</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A2" s="18">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
+      <c r="A2" s="27">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>359</v>
       </c>
@@ -11371,12 +9338,12 @@
       <c r="P2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A3" s="18">
+    <row r="3" spans="1:17" ht="30" customHeight="1">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -11424,12 +9391,12 @@
       <c r="P3" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:17" ht="30" customHeight="1">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -11477,12 +9444,12 @@
       <c r="P4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="10" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:17" ht="30" customHeight="1">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -11530,12 +9497,12 @@
       <c r="P5" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:17" ht="30" customHeight="1">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -11583,12 +9550,12 @@
       <c r="P6" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:17" ht="30" customHeight="1">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -11636,12 +9603,12 @@
       <c r="P7" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A8" s="18">
+    <row r="8" spans="1:17" ht="30" customHeight="1">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -11689,12 +9656,12 @@
       <c r="P8" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="10" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A9" s="18">
+    <row r="9" spans="1:17" ht="30" customHeight="1">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -11742,12 +9709,12 @@
       <c r="P9" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A10" s="18">
+    <row r="10" spans="1:17" ht="30" customHeight="1">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -11795,12 +9762,12 @@
       <c r="P10" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="10" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A11" s="18">
+    <row r="11" spans="1:17" ht="30" customHeight="1">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -11848,12 +9815,12 @@
       <c r="P11" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:17" ht="30" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -11901,12 +9868,12 @@
       <c r="P12" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:17" ht="30" customHeight="1">
+      <c r="A13" s="27" t="s">
         <v>421</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -11954,12 +9921,12 @@
       <c r="P13" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:17" ht="30" customHeight="1">
+      <c r="A14" s="27" t="s">
         <v>434</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -12007,12 +9974,12 @@
       <c r="P14" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="10" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:17" ht="30" customHeight="1">
+      <c r="A15" s="27" t="s">
         <v>450</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -12060,12 +10027,12 @@
       <c r="P15" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="10" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:17" ht="30" customHeight="1">
+      <c r="A16" s="27" t="s">
         <v>461</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -12113,60 +10080,60 @@
       <c r="P16" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="28.95" customHeight="1" thickBot="1">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="14" t="s">
         <v>489</v>
       </c>
     </row>
@@ -12180,76 +10147,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="7.77734375" style="8"/>
+    <col min="1" max="1" width="7.77734375" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="7.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17" s="33" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="22">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="22">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="22">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="22">
         <v>3</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="22">
         <v>4</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="22">
         <v>5</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="22">
         <v>6</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="22">
         <v>7</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="22">
         <v>8</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="22">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A2" s="18">
+    <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
+      <c r="A2" s="47">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
@@ -12292,12 +10257,12 @@
       <c r="P2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A3" s="18">
+    <row r="3" spans="1:17" ht="30" customHeight="1">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -12345,12 +10310,12 @@
       <c r="P3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:17" ht="30" customHeight="1">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -12398,12 +10363,12 @@
       <c r="P4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:17" ht="30" customHeight="1">
+      <c r="A5" s="47">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -12451,12 +10416,12 @@
       <c r="P5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:17" ht="30" customHeight="1">
+      <c r="A6" s="47">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -12504,12 +10469,12 @@
       <c r="P6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:17" ht="30" customHeight="1">
+      <c r="A7" s="47">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -12557,12 +10522,12 @@
       <c r="P7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A8" s="18">
+    <row r="8" spans="1:17" ht="30" customHeight="1">
+      <c r="A8" s="47">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -12610,12 +10575,12 @@
       <c r="P8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A9" s="18">
+    <row r="9" spans="1:17" ht="30" customHeight="1">
+      <c r="A9" s="47">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -12663,12 +10628,12 @@
       <c r="P9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A10" s="18">
+    <row r="10" spans="1:17" ht="30" customHeight="1">
+      <c r="A10" s="47">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -12716,12 +10681,12 @@
       <c r="P10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A11" s="18">
+    <row r="11" spans="1:17" ht="30" customHeight="1">
+      <c r="A11" s="47">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -12769,12 +10734,12 @@
       <c r="P11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:17" ht="30" customHeight="1">
+      <c r="A12" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -12822,12 +10787,12 @@
       <c r="P12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:17" ht="30" customHeight="1">
+      <c r="A13" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -12875,12 +10840,12 @@
       <c r="P13" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:17" ht="30" customHeight="1">
+      <c r="A14" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -12928,12 +10893,12 @@
       <c r="P14" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:17" ht="30" customHeight="1">
+      <c r="A15" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -12981,12 +10946,12 @@
       <c r="P15" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.95" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:17" ht="30" customHeight="1">
+      <c r="A16" s="47" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -13034,63 +10999,64 @@
       <c r="P16" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="10" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="14" t="s">
         <v>327</v>
       </c>
     </row>
+    <row r="18" spans="1:17" ht="28.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/字符表/Excel版/一级字符表.xlsx
+++ b/字符表/Excel版/一级字符表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ECCBB3-6FF6-4457-AEF0-CB73797E27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB61EEEE-07F5-4C08-874E-20802BF094E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5588,7 +5588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5730,16 +5730,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10149,7 +10140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1"/>
   <cols>
@@ -10161,60 +10154,60 @@
       <c r="A1" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="20">
         <v>0</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="20">
         <v>1</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="20">
         <v>2</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="20">
         <v>3</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="20">
         <v>4</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="20">
         <v>5</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="20">
         <v>6</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="20">
         <v>7</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="20">
         <v>8</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="20">
         <v>9</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="47">
+      <c r="A2" s="42">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
@@ -10262,7 +10255,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="47">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -10315,7 +10308,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="47">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10368,7 +10361,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="47">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -10421,7 +10414,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="47">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10474,7 +10467,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="47">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -10527,7 +10520,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="47">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10580,7 +10573,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="47">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -10633,7 +10626,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="47">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -10686,7 +10679,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="47">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10739,7 +10732,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10792,7 +10785,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="42" t="s">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -10845,7 +10838,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -10898,7 +10891,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10951,7 +10944,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -11004,7 +10997,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="13" t="s">

--- a/字符表/Excel版/一级字符表.xlsx
+++ b/字符表/Excel版/一级字符表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB61EEEE-07F5-4C08-874E-20802BF094E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADACA614-6F13-4A5A-AC60-E6E2F9BD06BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4949,7 +4949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5075,6 +5075,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ClassWiz X Display"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -5114,7 +5121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -5387,34 +5394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -5426,19 +5405,6 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5461,77 +5427,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -5582,13 +5477,54 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5646,9 +5582,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5656,12 +5589,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5694,43 +5621,40 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6486,75 +6410,75 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="27" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" style="4"/>
     <col min="3" max="3" width="8.21875" style="4" customWidth="1"/>
     <col min="4" max="16384" width="7.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="40" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="26">
+      <c r="A2" s="23">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>638</v>
       </c>
@@ -6602,7 +6526,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="27">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6655,7 +6579,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6708,7 +6632,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -6761,7 +6685,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="27">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6814,7 +6738,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="27">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6867,7 +6791,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6920,7 +6844,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6973,7 +6897,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -7026,7 +6950,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7079,7 +7003,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -7132,7 +7056,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>634</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -7185,7 +7109,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>635</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -7238,7 +7162,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>636</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -7291,7 +7215,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>637</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -7344,7 +7268,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="17"/>
@@ -7367,7 +7291,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B1:K1" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -7378,74 +7302,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E095E-DB13-4153-9AD3-79C6D9D475CA}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="22" customWidth="1"/>
     <col min="2" max="17" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="22" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="21" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="39" t="s">
         <v>986</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <v>0</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>2</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="19">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="19">
         <v>4</v>
       </c>
-      <c r="G1" s="20">
+      <c r="G1" s="19">
         <v>5</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="19">
         <v>6</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="19">
         <v>7</v>
       </c>
-      <c r="J1" s="20">
+      <c r="J1" s="19">
         <v>8</v>
       </c>
-      <c r="K1" s="20">
+      <c r="K1" s="19">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="23">
+      <c r="A2" s="41">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>817</v>
       </c>
@@ -7488,12 +7410,12 @@
       <c r="P2" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="32" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="24">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -7546,7 +7468,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A4" s="24">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7599,7 +7521,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="24">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7652,7 +7574,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="24">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7705,7 +7627,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="24">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7758,7 +7680,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="24">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7811,7 +7733,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="24">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7864,7 +7786,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="24">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7917,7 +7839,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="24">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -7970,7 +7892,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8023,7 +7945,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="42" t="s">
         <v>813</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8076,7 +7998,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="42" t="s">
         <v>814</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8129,7 +8051,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="42" t="s">
         <v>815</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8182,7 +8104,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="42" t="s">
         <v>816</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -8235,55 +8157,55 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>975</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>976</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>977</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="33" t="s">
         <v>978</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="33" t="s">
         <v>979</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="33" t="s">
         <v>980</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="33" t="s">
         <v>982</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="33" t="s">
         <v>983</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="33" t="s">
         <v>984</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="33" t="s">
         <v>985</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="33" t="s">
         <v>892</v>
       </c>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="34" t="s">
         <v>755</v>
       </c>
     </row>
@@ -8291,82 +8213,83 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="30"/>
+    <col min="1" max="1" width="7.77734375" style="27"/>
     <col min="2" max="16384" width="7.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="32" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:17" s="29" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="39">
+      <c r="B1" s="19">
         <v>0</v>
       </c>
-      <c r="C1" s="39">
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="19">
         <v>2</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="19">
         <v>3</v>
       </c>
-      <c r="F1" s="39">
+      <c r="F1" s="19">
         <v>4</v>
       </c>
-      <c r="G1" s="39">
+      <c r="G1" s="19">
         <v>5</v>
       </c>
-      <c r="H1" s="39">
+      <c r="H1" s="19">
         <v>6</v>
       </c>
-      <c r="I1" s="39">
+      <c r="I1" s="19">
         <v>7</v>
       </c>
-      <c r="J1" s="39">
+      <c r="J1" s="19">
         <v>8</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="19">
         <v>9</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="42">
+      <c r="A2" s="24">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
@@ -8414,7 +8337,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="42">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -8467,7 +8390,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="42">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8520,7 +8443,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="42">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8573,7 +8496,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="42">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8626,7 +8549,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="42">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8679,7 +8602,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="42">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8732,7 +8655,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="42">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8785,7 +8708,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="42">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8838,7 +8761,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="42">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8891,7 +8814,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8944,7 +8867,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8997,7 +8920,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -9050,7 +8973,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -9103,7 +9026,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -9156,7 +9079,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="35" t="s">
         <v>528</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -9208,10 +9131,11 @@
         <v>626</v>
       </c>
     </row>
+    <row r="18" spans="1:17" ht="28.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9219,74 +9143,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="30"/>
+    <col min="1" max="1" width="7.77734375" style="27"/>
     <col min="2" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="32" customFormat="1" ht="28.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="29" customFormat="1" ht="28.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="39">
+      <c r="B1" s="19">
         <v>0</v>
       </c>
-      <c r="C1" s="39">
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="19">
         <v>2</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="19">
         <v>3</v>
       </c>
-      <c r="F1" s="39">
+      <c r="F1" s="19">
         <v>4</v>
       </c>
-      <c r="G1" s="39">
+      <c r="G1" s="19">
         <v>5</v>
       </c>
-      <c r="H1" s="39">
+      <c r="H1" s="19">
         <v>6</v>
       </c>
-      <c r="I1" s="39">
+      <c r="I1" s="19">
         <v>7</v>
       </c>
-      <c r="J1" s="39">
+      <c r="J1" s="19">
         <v>8</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="19">
         <v>9</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="27">
+      <c r="A2" s="24">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>359</v>
       </c>
@@ -9334,7 +9256,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="27">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -9387,7 +9309,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -9440,7 +9362,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -9493,7 +9415,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="27">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -9546,7 +9468,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="27">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -9599,7 +9521,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -9652,7 +9574,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -9705,7 +9627,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -9758,7 +9680,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -9811,7 +9733,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9864,7 +9786,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>421</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -9917,7 +9839,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>434</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -9970,7 +9892,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>450</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10023,7 +9945,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>461</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -10076,7 +9998,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="35" t="s">
         <v>528</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -10140,74 +10062,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="28.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="31" customWidth="1"/>
     <col min="2" max="16384" width="7.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="33" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="30" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <v>0</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>2</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="19">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="19">
         <v>4</v>
       </c>
-      <c r="G1" s="20">
+      <c r="G1" s="19">
         <v>5</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="19">
         <v>6</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="19">
         <v>7</v>
       </c>
-      <c r="J1" s="20">
+      <c r="J1" s="19">
         <v>8</v>
       </c>
-      <c r="K1" s="20">
+      <c r="K1" s="19">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="42">
+      <c r="A2" s="24">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
@@ -10255,7 +10175,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="42">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -10308,7 +10228,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="42">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10361,7 +10281,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="42">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -10414,7 +10334,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="42">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10467,7 +10387,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
-      <c r="A7" s="42">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -10520,7 +10440,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="42">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10573,7 +10493,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="42">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -10626,7 +10546,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="42">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -10679,7 +10599,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="42">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10732,7 +10652,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10785,7 +10705,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -10838,7 +10758,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -10891,7 +10811,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10944,7 +10864,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -10997,7 +10917,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="13" t="s">
